--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78583848-7465-4B77-BBD4-DADD8B9819B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C971D5-3E81-4812-ABAE-BDF139DD8049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -540,21 +540,21 @@
     <t>com_fr</t>
   </si>
   <si>
+    <t>process</t>
+  </si>
+  <si>
     <t>commodity</t>
   </si>
   <si>
-    <t>process</t>
-  </si>
-  <si>
     <t>S1aH1</t>
   </si>
   <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
     <t>elc_sol-CHE</t>
   </si>
   <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
     <t>S1aH2</t>
   </si>
   <si>
@@ -903,10 +903,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h09,S3aH2,S3d0419h16,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3d0419h10,S3d0419h13,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S3c0312h07,S4aH5,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h10,S2b0205h18,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h18,S3d0419h09</t>
-  </si>
-  <si>
-    <t>S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S3aH8,S3c0312h05,S3d0419h24,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h22,S3aH1,S3c0312h24,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h04,S3d0419h20,S4aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2aH8,S3d0419h01</t>
+    <t>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h10,S2b0205h18,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h18,S3d0419h09,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13,S3c0312h07,S4aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h08,S3d0419h08,S4aH2,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6</t>
+  </si>
+  <si>
+    <t>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h04,S3d0419h20,S4aH8,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH8,S3d0419h01,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24,S3c0312h01,S3c0312h23,S3d0419h21,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h02,S3c0312h06,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S3aH8,S3c0312h05,S3d0419h24,S2b0205h02,S3c0312h06,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2b0205h22,S3aH1,S3c0312h24,S1aH8,S3c0312h19,S5aH1,S2b0205h03,S3d0419h03,S2aH1,S2b0205h21,S3aH7,S5aH8,S3d0419h02,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h04,S3d0419h20,S4aH8,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2aH8,S3d0419h01</v>
+        <v>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h04,S3d0419h20,S4aH8,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH8,S3d0419h01,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24,S3c0312h01,S3c0312h23,S3d0419h21,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h02,S3c0312h06,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S2b0205h09,S3aH2,S3d0419h16,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3d0419h10,S3d0419h13,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3c0312h08,S3d0419h08,S4aH2,S3aH3,S3c0312h10,S3c0312h07,S4aH5,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2b0205h10,S2b0205h18,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S3c0312h18,S3d0419h09</v>
+        <v>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h10,S2b0205h18,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h18,S3d0419h09,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13,S3c0312h07,S4aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h08,S3d0419h08,S4aH2,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2122,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14E42F3-1507-4DD9-A4BB-A96E2F38CD4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAFD2E5-38D4-4ACF-8806-F80A74A520C0}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2836,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3198E8A6-B26B-4874-BC0F-E359AFD33405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB4873C-3394-410D-9551-F4CF5F7FA939}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2909,16 +2909,16 @@
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K4" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>7.9527811637903387E-2</v>
+        <v>9.7812279463655616E-2</v>
       </c>
       <c r="O4" t="s">
         <v>294</v>
@@ -2944,10 +2944,10 @@
         <v>9.2299999999999999E-4</v>
       </c>
       <c r="J5" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K5" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="M5" t="s">
         <v>80</v>
@@ -2979,16 +2979,16 @@
         <v>1.0119999999999999E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K6" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.86333483030730718</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O6" t="s">
         <v>294</v>
@@ -3014,16 +3014,16 @@
         <v>1.0999999999999998E-3</v>
       </c>
       <c r="J7" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K7" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210883E-2</v>
+        <v>0.86333483030730718</v>
       </c>
       <c r="O7" t="s">
         <v>294</v>
@@ -3049,16 +3049,16 @@
         <v>8.9529999999999992E-3</v>
       </c>
       <c r="J8" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>9.7812279463655616E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O8" t="s">
         <v>294</v>
@@ -3084,10 +3084,10 @@
         <v>3.2410000000000001E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -3110,10 +3110,10 @@
         <v>9.4909999999999994E-3</v>
       </c>
       <c r="J10" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K10" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -3136,10 +3136,10 @@
         <v>3.1855000000000001E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -3162,10 +3162,10 @@
         <v>1.5494000000000001E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K12" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -3188,10 +3188,10 @@
         <v>1.4910000000000001E-3</v>
       </c>
       <c r="J13" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
@@ -3214,10 +3214,10 @@
         <v>2.0230000000000001E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
@@ -3240,10 +3240,10 @@
         <v>2.4069999999999999E-3</v>
       </c>
       <c r="J15" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
@@ -3266,10 +3266,10 @@
         <v>1.6163E-2</v>
       </c>
       <c r="J16" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -3292,10 +3292,10 @@
         <v>1.6781000000000001E-2</v>
       </c>
       <c r="J17" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -3318,10 +3318,10 @@
         <v>6.2459999999999998E-3</v>
       </c>
       <c r="J18" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -3344,10 +3344,10 @@
         <v>1.2119E-2</v>
       </c>
       <c r="J19" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.45">
@@ -3370,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.45">
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
@@ -3448,10 +3448,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J23" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K23" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
@@ -3474,10 +3474,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J24" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
@@ -3500,10 +3500,10 @@
         <v>4.6099999999999998E-4</v>
       </c>
       <c r="J25" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K25" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
@@ -3526,10 +3526,10 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="J26" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
@@ -3552,10 +3552,10 @@
         <v>1.17E-3</v>
       </c>
       <c r="J27" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
@@ -3578,10 +3578,10 @@
         <v>3.3010000000000001E-3</v>
       </c>
       <c r="J28" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K28" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
@@ -3604,10 +3604,10 @@
         <v>7.4070000000000004E-3</v>
       </c>
       <c r="J29" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K29" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
@@ -3630,10 +3630,10 @@
         <v>8.4729999999999996E-3</v>
       </c>
       <c r="J30" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K30" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
@@ -3656,10 +3656,10 @@
         <v>7.4070000000000004E-3</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
@@ -3682,10 +3682,10 @@
         <v>1.1738999999999999E-2</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K32" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
@@ -3708,10 +3708,10 @@
         <v>9.4619999999999999E-3</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
@@ -3734,10 +3734,10 @@
         <v>1.6534E-2</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K34" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
@@ -3760,10 +3760,10 @@
         <v>9.0060000000000001E-3</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K35" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
@@ -3786,10 +3786,10 @@
         <v>3.6120000000000002E-3</v>
       </c>
       <c r="J36" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K36" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
@@ -3812,10 +3812,10 @@
         <v>2.0579999999999999E-3</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
@@ -3838,10 +3838,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J38" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K38" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
@@ -3864,10 +3864,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J39" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K39" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
@@ -3890,10 +3890,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J40" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
@@ -3916,10 +3916,10 @@
         <v>1.95E-4</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K41" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.45">
@@ -3942,10 +3942,10 @@
         <v>8.1700000000000002E-4</v>
       </c>
       <c r="J42" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K42" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.45">
@@ -3968,10 +3968,10 @@
         <v>1.17E-3</v>
       </c>
       <c r="J43" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K43" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.45">
@@ -3994,10 +3994,10 @@
         <v>6.0167999999999999E-2</v>
       </c>
       <c r="J44" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K44" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
@@ -4020,10 +4020,10 @@
         <v>6.483E-3</v>
       </c>
       <c r="J45" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.45">
@@ -4046,10 +4046,10 @@
         <v>1.0378E-2</v>
       </c>
       <c r="J46" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K46" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
@@ -4072,10 +4072,10 @@
         <v>2.5076000000000001E-2</v>
       </c>
       <c r="J47" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
@@ -4098,10 +4098,10 @@
         <v>0.163051</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K48" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.45">
@@ -4124,10 +4124,10 @@
         <v>0.20358999999999999</v>
       </c>
       <c r="J49" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K49" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.45">
@@ -4150,10 +4150,10 @@
         <v>2.3820000000000001E-2</v>
       </c>
       <c r="J50" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K50" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.45">
@@ -4176,10 +4176,10 @@
         <v>2.8472000000000001E-2</v>
       </c>
       <c r="J51" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K51" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.45">
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K52" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.45">
@@ -4228,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.45">
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K54" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.45">
@@ -4280,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K55" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.45">
@@ -4306,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K56" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.45">
@@ -4332,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K57" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.45">
@@ -4358,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K58" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.45">
@@ -4384,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K59" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.45">
@@ -4410,10 +4410,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K60" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.45">
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K61" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.45">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K62" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.45">
@@ -4488,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K63" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
@@ -4514,10 +4514,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K64" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
@@ -4540,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K65" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.45">
@@ -4566,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
@@ -4592,10 +4592,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J67" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K67" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.45">
@@ -4618,10 +4618,10 @@
         <v>1.17E-3</v>
       </c>
       <c r="J68" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K68" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.45">
@@ -4644,10 +4644,10 @@
         <v>1.436E-3</v>
       </c>
       <c r="J69" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K69" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.45">
@@ -4670,10 +4670,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K70" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.45">
@@ -4696,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K71" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.45">
@@ -4722,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K72" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.45">
@@ -4748,10 +4748,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K73" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.45">
@@ -4774,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K74" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.45">
@@ -4800,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K75" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.45">
@@ -4826,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K76" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.45">
@@ -4852,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K77" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.45">
@@ -4878,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K78" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.45">
@@ -4904,10 +4904,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K79" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
@@ -4930,10 +4930,10 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K80" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
@@ -4956,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K81" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
@@ -4982,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K82" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.45">
@@ -5008,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K83" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.45">
@@ -5034,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K84" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.45">
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K85" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.45">
@@ -5086,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K86" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.45">
@@ -5112,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K87" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K88" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K89" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
@@ -5190,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K90" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
@@ -5216,10 +5216,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K91" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
@@ -5242,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K92" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
@@ -5268,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K93" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
@@ -5294,10 +5294,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K94" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.45">
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K95" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.45">
@@ -5346,10 +5346,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K96" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.45">
@@ -5372,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K97" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.45">
@@ -5398,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K98" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.45">
@@ -5424,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K99" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.45">
@@ -5450,10 +5450,10 @@
         <v>1.9053E-2</v>
       </c>
       <c r="J100" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K100" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.45">
@@ -5476,10 +5476,10 @@
         <v>3.431E-3</v>
       </c>
       <c r="J101" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K101" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.45">
@@ -5502,10 +5502,10 @@
         <v>1.4496999999999999E-2</v>
       </c>
       <c r="J102" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K102" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.45">
@@ -5528,10 +5528,10 @@
         <v>2.8079E-2</v>
       </c>
       <c r="J103" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K103" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.45">
@@ -5554,10 +5554,10 @@
         <v>0.10306800000000001</v>
       </c>
       <c r="J104" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K104" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.45">
@@ -5580,10 +5580,10 @@
         <v>4.0084000000000002E-2</v>
       </c>
       <c r="J105" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K105" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.45">
@@ -5606,10 +5606,10 @@
         <v>2.2720000000000001E-3</v>
       </c>
       <c r="J106" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K106" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.45">
@@ -5632,10 +5632,10 @@
         <v>1.0816000000000001E-2</v>
       </c>
       <c r="J107" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K107" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.45">
@@ -5658,10 +5658,10 @@
         <v>2.5250000000000003E-3</v>
       </c>
       <c r="J108" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K108" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.45">
@@ -5684,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K109" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.45">
@@ -5710,10 +5710,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K110" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.45">
@@ -5736,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K111" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.45">
@@ -5762,10 +5762,10 @@
         <v>6.87E-4</v>
       </c>
       <c r="J112" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K112" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.45">
@@ -5788,10 +5788,10 @@
         <v>1.774E-3</v>
       </c>
       <c r="J113" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K113" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.45">
@@ -5814,10 +5814,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J114" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K114" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.45">
@@ -5840,10 +5840,10 @@
         <v>2.0900000000000001E-4</v>
       </c>
       <c r="J115" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="K115" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5852,7 +5852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EB931D-CF47-4285-BB99-966EF1FBC7FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A566AB-EEC3-4260-A8FA-B442FFEDD9FB}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5881,10 +5881,10 @@
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
         <v>70</v>
@@ -5893,7 +5893,7 @@
         <v>165</v>
       </c>
       <c r="M3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
         <v>70</v>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C971D5-3E81-4812-ABAE-BDF139DD8049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89450AA9-5838-4E38-AA18-15589B806304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -903,10 +903,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h10,S2b0205h18,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h18,S3d0419h09,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13,S3c0312h07,S4aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h08,S3d0419h08,S4aH2,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6</t>
-  </si>
-  <si>
-    <t>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h04,S3d0419h20,S4aH8,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH8,S3d0419h01,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24,S3c0312h01,S3c0312h23,S3d0419h21,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h02,S3c0312h06,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23</t>
+    <t>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3c0312h07,S4aH5,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h18,S3d0419h09,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3d0419h10,S3d0419h13,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</t>
+  </si>
+  <si>
+    <t>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1,S2aH8,S3d0419h01,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S2b0205h22,S3aH1,S3c0312h24,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h03,S3d0419h03,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h04,S3d0419h20,S4aH8,S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S2aH8,S3d0419h01,S3aH8,S3c0312h05,S3d0419h24,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S2b0205h22,S3aH1,S3c0312h24,S3c0312h01,S3c0312h23,S3d0419h21,S1aH8,S3c0312h19,S5aH1,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h02,S3c0312h06,S2b0205h03,S3d0419h03,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23</v>
+        <v>S1aH7,S3c0312h03,S3c0312h22,S3d0419h19,S4aH7,S5aH7,S3aH8,S3c0312h05,S3d0419h24,S3c0312h01,S3c0312h23,S3d0419h21,S2b0205h05,S2b0205h19,S3c0312h04,S3c0312h20,S1aH8,S3c0312h19,S5aH1,S2aH8,S3d0419h01,S2b0205h20,S2b0205h24,S3d0419h04,S3d0419h05,S4aH1,S2b0205h04,S3d0419h20,S4aH8,S2b0205h02,S3c0312h06,S2b0205h22,S3aH1,S3c0312h24,S2aH1,S2b0205h21,S3aH7,S5aH8,S2b0205h03,S3d0419h03,S3d0419h02,S2b0205h01,S2b0205h06,S3d0419h06,S3d0419h22,S1aH1,S2aH7,S2b0205h23,S3c0312h02,S3c0312h21,S3d0419h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h10,S2b0205h18,S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S3c0312h18,S3d0419h09,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4,S2b0205h09,S3aH2,S3d0419h16,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S3d0419h10,S3d0419h13,S3c0312h07,S4aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h08,S3d0419h08,S4aH2,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6</v>
+        <v>S1aH3,S2b0205h13,S3c0312h12,S3d0419h17,S2b0205h09,S3aH2,S3d0419h16,S3c0312h07,S4aH5,S1aH5,S2aH4,S2aH5,S3c0312h16,S3d0419h12,S5aH2,S5aH5,S2aH6,S3aH5,S3c0312h13,S3c0312h17,S3d0419h07,S3d0419h14,S5aH3,S3c0312h18,S3d0419h09,S1aH4,S2aH2,S2b0205h11,S3c0312h09,S4aH6,S2b0205h10,S2b0205h18,S2b0205h14,S2b0205h15,S2b0205h17,S3c0312h11,S3d0419h11,S3d0419h15,S5aH4,S3d0419h10,S3d0419h13,S3c0312h08,S3d0419h08,S4aH2,S1aH2,S2aH3,S2b0205h12,S2b0205h16,S3aH6,S5aH6,S3aH3,S3c0312h10,S1aH6,S2b0205h07,S2b0205h08,S3c0312h15,S3aH4,S3c0312h14,S3d0419h18,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2122,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAFD2E5-38D4-4ACF-8806-F80A74A520C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AD8F47-4E2A-433A-B66F-92F60AD9B5A9}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2836,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB4873C-3394-410D-9551-F4CF5F7FA939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF854AB-C3A7-4FB8-B206-481A78A04705}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2915,10 +2915,10 @@
         <v>283</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>9.7812279463655616E-2</v>
+        <v>7.8719445691922768E-2</v>
       </c>
       <c r="O4" t="s">
         <v>294</v>
@@ -2950,10 +2950,10 @@
         <v>283</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>7.8719445691922754E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O5" t="s">
         <v>294</v>
@@ -2985,10 +2985,10 @@
         <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210883E-2</v>
+        <v>0.8633348303073074</v>
       </c>
       <c r="O6" t="s">
         <v>294</v>
@@ -3020,10 +3020,10 @@
         <v>283</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>0.86333483030730718</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O7" t="s">
         <v>294</v>
@@ -3055,10 +3055,10 @@
         <v>283</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903387E-2</v>
+        <v>9.781227946365563E-2</v>
       </c>
       <c r="O8" t="s">
         <v>294</v>
@@ -5852,7 +5852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A566AB-EEC3-4260-A8FA-B442FFEDD9FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D789A4-4271-48EC-9A2E-7A8796F46464}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C1669A-405F-4371-BFE7-04C5B5F2084F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0252CFAD-09FB-4087-8AA4-7037B003DA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -555,7 +555,7 @@
     <t>IMPNRGZ</t>
   </si>
   <si>
-    <t>elc_sol-CHE</t>
+    <t>elc_spv-CHE</t>
   </si>
   <si>
     <t>S1aH2</t>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S1b0205h13,S2d0427h13,S4aH5,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6</t>
-  </si>
-  <si>
-    <t>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2aH8,S2d0427h20,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S3aH8,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22</t>
+    <t>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2</t>
+  </si>
+  <si>
+    <t>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h05,S2c0415h20,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2aH8,S2d0427h20,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h23,S6aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S3aH8,S1aH1,S1b0205h04,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22</v>
+        <v>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2c0415h17,S2d0427h11,S6aH7,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH6,S2c0415h12,S1b0205h13,S2d0427h13,S4aH5,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6</v>
+        <v>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4007D1-8DB6-4DAF-A3DC-4D87F05BE24D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772CBBC2-4A24-437B-B624-AC068A9DC9AC}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F981BF-4972-4C00-BA4F-9E1852B58071}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F15121-2A42-4CB9-991F-F57038A9D44C}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64F0A66-8011-4F8D-9E8A-E0A6B04D7081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAFD5E1-39C8-4B5B-A352-DEFD56CA1245}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0252CFAD-09FB-4087-8AA4-7037B003DA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C84E750-24E8-4EDA-9DF4-16FA779D55DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2</t>
-  </si>
-  <si>
-    <t>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8</t>
+    <t>S1aH6,S2c0415h12,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7</t>
+  </si>
+  <si>
+    <t>S2c0415h23,S6aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1aH1,S1b0205h04,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h05,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h23,S6aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1b0205h05,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h03,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S3aH8</v>
+        <v>S2c0415h23,S6aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1aH1,S1b0205h04,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h05,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH6,S2c0415h12,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S3aH2</v>
+        <v>S1aH6,S2c0415h12,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772CBBC2-4A24-437B-B624-AC068A9DC9AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C29EDAF-CECE-401D-AD5C-9FA9CBFEB558}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F15121-2A42-4CB9-991F-F57038A9D44C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF6D2C2-7A2E-477A-BBF0-2A6194E3F65F}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2983,7 +2983,7 @@
         <v>89</v>
       </c>
       <c r="N5">
-        <v>7.9527811637903387E-2</v>
+        <v>7.9527811637903359E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210883E-2</v>
+        <v>0.19493167383075635</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3053,7 +3053,7 @@
         <v>80</v>
       </c>
       <c r="N7">
-        <v>0.40660807082825429</v>
+        <v>0.40660807082825423</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.17653172515557836</v>
+        <v>8.0605632899210869E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.26179508564829657</v>
+        <v>0.17653172515557833</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAFD5E1-39C8-4B5B-A352-DEFD56CA1245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC8A78-8039-4DBE-921F-A1A8A15F2B69}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C84E750-24E8-4EDA-9DF4-16FA779D55DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B2AA8-7D68-4D20-8759-C78ED2D75065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -918,7 +918,7 @@
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
-    <t>elc_win-CHE</t>
+    <t>elc_won-CHE</t>
   </si>
   <si>
     <t>g_yrfr</t>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH6,S2c0415h12,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7</t>
-  </si>
-  <si>
-    <t>S2c0415h23,S6aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1aH1,S1b0205h04,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h05,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</t>
+    <t>S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2</t>
+  </si>
+  <si>
+    <t>S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h03,S2c0415h23,S6aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h02,S2d0427h01,S2d0427h19,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h21,S4aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2c0415h23,S6aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8,S1aH1,S1b0205h04,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h02,S2d0427h01,S2d0427h19,S2c0415h20,S2c0415h21,S4aH8,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2aH8,S2d0427h20,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h05,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1</v>
+        <v>S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h03,S2c0415h23,S6aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h02,S2d0427h01,S2d0427h19,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h21,S4aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH6,S2c0415h12,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7</v>
+        <v>S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C29EDAF-CECE-401D-AD5C-9FA9CBFEB558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA382FF-40DE-4CE9-8FD8-1E2ABEEA17C6}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF6D2C2-7A2E-477A-BBF0-2A6194E3F65F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E53C947-4592-4104-AB03-D0B2F9B78C21}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.26179508564829657</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>7.9527811637903359E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075635</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>0.40660807082825423</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>8.0605632899210869E-2</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>0.17653172515557833</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC8A78-8039-4DBE-921F-A1A8A15F2B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A634880-C11F-4959-B100-4399CC466D80}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B2AA8-7D68-4D20-8759-C78ED2D75065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4F601D-9754-409E-B90A-6103700DB559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2</t>
-  </si>
-  <si>
-    <t>S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h03,S2c0415h23,S6aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h02,S2d0427h01,S2d0427h19,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h21,S4aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8</t>
+    <t>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h17,S2d0427h11,S6aH7,S2c0415h07,S2c0415h13,S2c0415h15,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S3aH2,S1aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH6,S2c0415h12,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2</t>
+  </si>
+  <si>
+    <t>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH1,S1b0205h04,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S3aH8,S1b0205h05,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h23,S6aH8,S2c0415h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h03,S2c0415h23,S6aH8,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h02,S2d0427h01,S2d0427h19,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2aH8,S2d0427h20,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h05,S2c0415h21,S4aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S3aH8</v>
+        <v>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH1,S1b0205h04,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S3aH8,S1b0205h05,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h23,S6aH8,S2c0415h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH6,S2c0415h12,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1b0205h13,S2d0427h13,S4aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S3aH2</v>
+        <v>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h17,S2d0427h11,S6aH7,S2c0415h07,S2c0415h13,S2c0415h15,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S3aH2,S1aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH6,S2c0415h12,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA382FF-40DE-4CE9-8FD8-1E2ABEEA17C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F788B-DF40-4521-96BF-DBEBEE9C25DA}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E53C947-4592-4104-AB03-D0B2F9B78C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9329AE3-DCBB-48AE-B40C-78A4B6615E55}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2936,7 +2936,7 @@
         <v>169</v>
       </c>
       <c r="I4">
-        <v>1.8884000000000001E-2</v>
+        <v>4.6284000000000006E-2</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2971,7 +2971,7 @@
         <v>172</v>
       </c>
       <c r="I5">
-        <v>1.047E-3</v>
+        <v>6.6120000000000007E-3</v>
       </c>
       <c r="J5" t="s">
         <v>170</v>
@@ -2980,10 +2980,10 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829657</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3006,7 +3006,7 @@
         <v>173</v>
       </c>
       <c r="I6">
-        <v>1.3129999999999999E-3</v>
+        <v>6.6120000000000007E-3</v>
       </c>
       <c r="J6" t="s">
         <v>170</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.17653172515557836</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3041,7 +3041,7 @@
         <v>174</v>
       </c>
       <c r="I7">
-        <v>2.4139999999999999E-3</v>
+        <v>6.6120000000000007E-3</v>
       </c>
       <c r="J7" t="s">
         <v>170</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210883E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3076,7 +3076,7 @@
         <v>175</v>
       </c>
       <c r="I8">
-        <v>3.1657999999999999E-2</v>
+        <v>3.3059999999999999E-2</v>
       </c>
       <c r="J8" t="s">
         <v>170</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.40660807082825429</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3111,7 +3111,7 @@
         <v>176</v>
       </c>
       <c r="I9">
-        <v>1.3465999999999999E-2</v>
+        <v>6.6120000000000007E-3</v>
       </c>
       <c r="J9" t="s">
         <v>170</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903387E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -3146,7 +3146,7 @@
         <v>177</v>
       </c>
       <c r="I10">
-        <v>1.5877000000000002E-2</v>
+        <v>6.6120000000000007E-3</v>
       </c>
       <c r="J10" t="s">
         <v>170</v>
@@ -3172,7 +3172,7 @@
         <v>178</v>
       </c>
       <c r="I11">
-        <v>7.9559000000000005E-2</v>
+        <v>4.6284000000000006E-2</v>
       </c>
       <c r="J11" t="s">
         <v>170</v>
@@ -3198,7 +3198,7 @@
         <v>179</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J12" t="s">
         <v>170</v>
@@ -3224,7 +3224,7 @@
         <v>180</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J13" t="s">
         <v>170</v>
@@ -3250,7 +3250,7 @@
         <v>181</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J14" t="s">
         <v>170</v>
@@ -3276,7 +3276,7 @@
         <v>182</v>
       </c>
       <c r="I15">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J15" t="s">
         <v>170</v>
@@ -3302,7 +3302,7 @@
         <v>183</v>
       </c>
       <c r="I16">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J16" t="s">
         <v>170</v>
@@ -3328,7 +3328,7 @@
         <v>184</v>
       </c>
       <c r="I17">
-        <v>4.6099999999999998E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J17" t="s">
         <v>170</v>
@@ -3354,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="I18">
-        <v>7.2800000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J18" t="s">
         <v>170</v>
@@ -3380,7 +3380,7 @@
         <v>186</v>
       </c>
       <c r="I19">
-        <v>1.17E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J19" t="s">
         <v>170</v>
@@ -3406,7 +3406,7 @@
         <v>187</v>
       </c>
       <c r="I20">
-        <v>3.3010000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J20" t="s">
         <v>170</v>
@@ -3432,7 +3432,7 @@
         <v>188</v>
       </c>
       <c r="I21">
-        <v>7.4070000000000004E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J21" t="s">
         <v>170</v>
@@ -3458,7 +3458,7 @@
         <v>189</v>
       </c>
       <c r="I22">
-        <v>8.4729999999999996E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J22" t="s">
         <v>170</v>
@@ -3484,7 +3484,7 @@
         <v>190</v>
       </c>
       <c r="I23">
-        <v>7.4070000000000004E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J23" t="s">
         <v>170</v>
@@ -3510,7 +3510,7 @@
         <v>191</v>
       </c>
       <c r="I24">
-        <v>1.1738999999999999E-2</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J24" t="s">
         <v>170</v>
@@ -3536,7 +3536,7 @@
         <v>192</v>
       </c>
       <c r="I25">
-        <v>9.4619999999999999E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J25" t="s">
         <v>170</v>
@@ -3562,7 +3562,7 @@
         <v>193</v>
       </c>
       <c r="I26">
-        <v>1.6534E-2</v>
+        <v>1.34E-4</v>
       </c>
       <c r="J26" t="s">
         <v>170</v>
@@ -3588,7 +3588,7 @@
         <v>194</v>
       </c>
       <c r="I27">
-        <v>9.0060000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J27" t="s">
         <v>170</v>
@@ -3614,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="I28">
-        <v>3.6120000000000002E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J28" t="s">
         <v>170</v>
@@ -3640,7 +3640,7 @@
         <v>196</v>
       </c>
       <c r="I29">
-        <v>2.0579999999999999E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J29" t="s">
         <v>170</v>
@@ -3666,7 +3666,7 @@
         <v>197</v>
       </c>
       <c r="I30">
-        <v>5.5000000000000003E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J30" t="s">
         <v>170</v>
@@ -3692,7 +3692,7 @@
         <v>198</v>
       </c>
       <c r="I31">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J31" t="s">
         <v>170</v>
@@ -3718,7 +3718,7 @@
         <v>199</v>
       </c>
       <c r="I32">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J32" t="s">
         <v>170</v>
@@ -3744,7 +3744,7 @@
         <v>200</v>
       </c>
       <c r="I33">
-        <v>1.95E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J33" t="s">
         <v>170</v>
@@ -3770,7 +3770,7 @@
         <v>201</v>
       </c>
       <c r="I34">
-        <v>8.1700000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J34" t="s">
         <v>170</v>
@@ -3796,7 +3796,7 @@
         <v>202</v>
       </c>
       <c r="I35">
-        <v>1.17E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J35" t="s">
         <v>170</v>
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="I36">
-        <v>1.5192000000000001E-2</v>
+        <v>9.5760000000000012E-2</v>
       </c>
       <c r="J36" t="s">
         <v>170</v>
@@ -3848,7 +3848,7 @@
         <v>204</v>
       </c>
       <c r="I37">
-        <v>8.3400000000000011E-4</v>
+        <v>1.3680000000000001E-2</v>
       </c>
       <c r="J37" t="s">
         <v>170</v>
@@ -3874,7 +3874,7 @@
         <v>205</v>
       </c>
       <c r="I38">
-        <v>6.5700000000000003E-4</v>
+        <v>1.3680000000000001E-2</v>
       </c>
       <c r="J38" t="s">
         <v>170</v>
@@ -3900,7 +3900,7 @@
         <v>206</v>
       </c>
       <c r="I39">
-        <v>2.722E-3</v>
+        <v>1.3680000000000001E-2</v>
       </c>
       <c r="J39" t="s">
         <v>170</v>
@@ -3926,7 +3926,7 @@
         <v>207</v>
       </c>
       <c r="I40">
-        <v>0.13622300000000001</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="J40" t="s">
         <v>170</v>
@@ -3952,7 +3952,7 @@
         <v>208</v>
       </c>
       <c r="I41">
-        <v>5.3588000000000004E-2</v>
+        <v>1.3680000000000001E-2</v>
       </c>
       <c r="J41" t="s">
         <v>170</v>
@@ -3978,7 +3978,7 @@
         <v>209</v>
       </c>
       <c r="I42">
-        <v>4.3895999999999998E-2</v>
+        <v>1.3680000000000001E-2</v>
       </c>
       <c r="J42" t="s">
         <v>170</v>
@@ -4004,7 +4004,7 @@
         <v>210</v>
       </c>
       <c r="I43">
-        <v>6.4661999999999997E-2</v>
+        <v>9.5760000000000012E-2</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -4030,7 +4030,7 @@
         <v>211</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J44" t="s">
         <v>170</v>
@@ -4056,7 +4056,7 @@
         <v>212</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J45" t="s">
         <v>170</v>
@@ -4082,7 +4082,7 @@
         <v>213</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J46" t="s">
         <v>170</v>
@@ -4108,7 +4108,7 @@
         <v>214</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J47" t="s">
         <v>170</v>
@@ -4134,7 +4134,7 @@
         <v>215</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J48" t="s">
         <v>170</v>
@@ -4160,7 +4160,7 @@
         <v>216</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J49" t="s">
         <v>170</v>
@@ -4186,7 +4186,7 @@
         <v>217</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J50" t="s">
         <v>170</v>
@@ -4212,7 +4212,7 @@
         <v>218</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J51" t="s">
         <v>170</v>
@@ -4238,7 +4238,7 @@
         <v>219</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J52" t="s">
         <v>170</v>
@@ -4264,7 +4264,7 @@
         <v>220</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J53" t="s">
         <v>170</v>
@@ -4290,7 +4290,7 @@
         <v>221</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J54" t="s">
         <v>170</v>
@@ -4316,7 +4316,7 @@
         <v>222</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J55" t="s">
         <v>170</v>
@@ -4342,7 +4342,7 @@
         <v>223</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J56" t="s">
         <v>170</v>
@@ -4368,7 +4368,7 @@
         <v>224</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J57" t="s">
         <v>170</v>
@@ -4394,7 +4394,7 @@
         <v>225</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J58" t="s">
         <v>170</v>
@@ -4420,7 +4420,7 @@
         <v>226</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J59" t="s">
         <v>170</v>
@@ -4446,7 +4446,7 @@
         <v>227</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J60" t="s">
         <v>170</v>
@@ -4472,7 +4472,7 @@
         <v>228</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J61" t="s">
         <v>170</v>
@@ -4498,7 +4498,7 @@
         <v>229</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J62" t="s">
         <v>170</v>
@@ -4524,7 +4524,7 @@
         <v>230</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J63" t="s">
         <v>170</v>
@@ -4550,7 +4550,7 @@
         <v>231</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J64" t="s">
         <v>170</v>
@@ -4576,7 +4576,7 @@
         <v>232</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J65" t="s">
         <v>170</v>
@@ -4602,7 +4602,7 @@
         <v>233</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J66" t="s">
         <v>170</v>
@@ -4628,7 +4628,7 @@
         <v>234</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J67" t="s">
         <v>170</v>
@@ -4654,7 +4654,7 @@
         <v>235</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J68" t="s">
         <v>170</v>
@@ -4680,7 +4680,7 @@
         <v>236</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J69" t="s">
         <v>170</v>
@@ -4706,7 +4706,7 @@
         <v>237</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J70" t="s">
         <v>170</v>
@@ -4732,7 +4732,7 @@
         <v>238</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J71" t="s">
         <v>170</v>
@@ -4758,7 +4758,7 @@
         <v>239</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J72" t="s">
         <v>170</v>
@@ -4784,7 +4784,7 @@
         <v>240</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J73" t="s">
         <v>170</v>
@@ -4810,7 +4810,7 @@
         <v>241</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J74" t="s">
         <v>170</v>
@@ -4836,7 +4836,7 @@
         <v>242</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J75" t="s">
         <v>170</v>
@@ -4862,7 +4862,7 @@
         <v>243</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J76" t="s">
         <v>170</v>
@@ -4888,7 +4888,7 @@
         <v>244</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J77" t="s">
         <v>170</v>
@@ -4914,7 +4914,7 @@
         <v>245</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J78" t="s">
         <v>170</v>
@@ -4940,7 +4940,7 @@
         <v>246</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J79" t="s">
         <v>170</v>
@@ -4966,7 +4966,7 @@
         <v>247</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J80" t="s">
         <v>170</v>
@@ -4992,7 +4992,7 @@
         <v>248</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J81" t="s">
         <v>170</v>
@@ -5018,7 +5018,7 @@
         <v>249</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J82" t="s">
         <v>170</v>
@@ -5044,7 +5044,7 @@
         <v>250</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J83" t="s">
         <v>170</v>
@@ -5070,7 +5070,7 @@
         <v>251</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J84" t="s">
         <v>170</v>
@@ -5096,7 +5096,7 @@
         <v>252</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J85" t="s">
         <v>170</v>
@@ -5122,7 +5122,7 @@
         <v>253</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J86" t="s">
         <v>170</v>
@@ -5148,7 +5148,7 @@
         <v>254</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J87" t="s">
         <v>170</v>
@@ -5174,7 +5174,7 @@
         <v>255</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J88" t="s">
         <v>170</v>
@@ -5200,7 +5200,7 @@
         <v>256</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J89" t="s">
         <v>170</v>
@@ -5226,7 +5226,7 @@
         <v>257</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J90" t="s">
         <v>170</v>
@@ -5252,7 +5252,7 @@
         <v>258</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J91" t="s">
         <v>170</v>
@@ -5278,7 +5278,7 @@
         <v>259</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>4.9476000000000006E-2</v>
       </c>
       <c r="J92" t="s">
         <v>170</v>
@@ -5304,7 +5304,7 @@
         <v>260</v>
       </c>
       <c r="I93">
-        <v>2.8400000000000002E-4</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J93" t="s">
         <v>170</v>
@@ -5330,7 +5330,7 @@
         <v>261</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J94" t="s">
         <v>170</v>
@@ -5356,7 +5356,7 @@
         <v>262</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J95" t="s">
         <v>170</v>
@@ -5382,7 +5382,7 @@
         <v>263</v>
       </c>
       <c r="I96">
-        <v>1.1037E-2</v>
+        <v>3.5340000000000003E-2</v>
       </c>
       <c r="J96" t="s">
         <v>170</v>
@@ -5408,7 +5408,7 @@
         <v>264</v>
       </c>
       <c r="I97">
-        <v>8.0480000000000013E-3</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J97" t="s">
         <v>170</v>
@@ -5434,7 +5434,7 @@
         <v>265</v>
       </c>
       <c r="I98">
-        <v>6.2060000000000006E-3</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J98" t="s">
         <v>170</v>
@@ -5460,7 +5460,7 @@
         <v>266</v>
       </c>
       <c r="I99">
-        <v>4.4350000000000006E-3</v>
+        <v>4.9476000000000006E-2</v>
       </c>
       <c r="J99" t="s">
         <v>170</v>
@@ -5486,7 +5486,7 @@
         <v>267</v>
       </c>
       <c r="I100">
-        <v>3.6288000000000001E-2</v>
+        <v>4.8678000000000006E-2</v>
       </c>
       <c r="J100" t="s">
         <v>170</v>
@@ -5512,7 +5512,7 @@
         <v>268</v>
       </c>
       <c r="I101">
-        <v>3.6120000000000002E-3</v>
+        <v>6.9540000000000001E-3</v>
       </c>
       <c r="J101" t="s">
         <v>170</v>
@@ -5538,7 +5538,7 @@
         <v>269</v>
       </c>
       <c r="I102">
-        <v>3.3010000000000001E-3</v>
+        <v>6.9540000000000001E-3</v>
       </c>
       <c r="J102" t="s">
         <v>170</v>
@@ -5564,7 +5564,7 @@
         <v>270</v>
       </c>
       <c r="I103">
-        <v>3.761E-3</v>
+        <v>6.9540000000000001E-3</v>
       </c>
       <c r="J103" t="s">
         <v>170</v>
@@ -5590,7 +5590,7 @@
         <v>271</v>
       </c>
       <c r="I104">
-        <v>5.1244999999999999E-2</v>
+        <v>3.4770000000000002E-2</v>
       </c>
       <c r="J104" t="s">
         <v>170</v>
@@ -5616,7 +5616,7 @@
         <v>272</v>
       </c>
       <c r="I105">
-        <v>1.4761E-2</v>
+        <v>6.9540000000000001E-3</v>
       </c>
       <c r="J105" t="s">
         <v>170</v>
@@ -5642,7 +5642,7 @@
         <v>273</v>
       </c>
       <c r="I106">
-        <v>2.0947E-2</v>
+        <v>6.9540000000000001E-3</v>
       </c>
       <c r="J106" t="s">
         <v>170</v>
@@ -5668,7 +5668,7 @@
         <v>274</v>
       </c>
       <c r="I107">
-        <v>4.2318000000000001E-2</v>
+        <v>4.8678000000000006E-2</v>
       </c>
       <c r="J107" t="s">
         <v>170</v>
@@ -5694,7 +5694,7 @@
         <v>275</v>
       </c>
       <c r="I108">
-        <v>1.5541000000000001E-2</v>
+        <v>2.3940000000000003E-2</v>
       </c>
       <c r="J108" t="s">
         <v>170</v>
@@ -5720,7 +5720,7 @@
         <v>276</v>
       </c>
       <c r="I109">
-        <v>2.0249999999999999E-3</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J109" t="s">
         <v>170</v>
@@ -5746,7 +5746,7 @@
         <v>277</v>
       </c>
       <c r="I110">
-        <v>1.487E-3</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J110" t="s">
         <v>170</v>
@@ -5772,7 +5772,7 @@
         <v>278</v>
       </c>
       <c r="I111">
-        <v>3.431E-3</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J111" t="s">
         <v>170</v>
@@ -5798,7 +5798,7 @@
         <v>279</v>
       </c>
       <c r="I112">
-        <v>0.145644</v>
+        <v>1.7193E-2</v>
       </c>
       <c r="J112" t="s">
         <v>170</v>
@@ -5824,7 +5824,7 @@
         <v>280</v>
       </c>
       <c r="I113">
-        <v>1.8669999999999999E-2</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J113" t="s">
         <v>170</v>
@@ -5850,7 +5850,7 @@
         <v>281</v>
       </c>
       <c r="I114">
-        <v>1.4532E-2</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J114" t="s">
         <v>170</v>
@@ -5876,7 +5876,7 @@
         <v>282</v>
       </c>
       <c r="I115">
-        <v>1.9970000000000002E-2</v>
+        <v>2.3940000000000003E-2</v>
       </c>
       <c r="J115" t="s">
         <v>170</v>
@@ -5902,7 +5902,7 @@
         <v>283</v>
       </c>
       <c r="I116">
-        <v>2.287E-3</v>
+        <v>2.4738000000000003E-2</v>
       </c>
       <c r="J116" t="s">
         <v>170</v>
@@ -5928,7 +5928,7 @@
         <v>284</v>
       </c>
       <c r="I117">
-        <v>1.1900000000000001E-4</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J117" t="s">
         <v>170</v>
@@ -5954,7 +5954,7 @@
         <v>285</v>
       </c>
       <c r="I118">
-        <v>1.1900000000000001E-4</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J118" t="s">
         <v>170</v>
@@ -5980,7 +5980,7 @@
         <v>286</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J119" t="s">
         <v>170</v>
@@ -6006,7 +6006,7 @@
         <v>287</v>
       </c>
       <c r="I120">
-        <v>6.87E-4</v>
+        <v>1.7670000000000002E-2</v>
       </c>
       <c r="J120" t="s">
         <v>170</v>
@@ -6032,7 +6032,7 @@
         <v>288</v>
       </c>
       <c r="I121">
-        <v>1.1000000000000001E-3</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J121" t="s">
         <v>170</v>
@@ -6058,7 +6058,7 @@
         <v>289</v>
       </c>
       <c r="I122">
-        <v>4.7900000000000004E-4</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J122" t="s">
         <v>170</v>
@@ -6084,7 +6084,7 @@
         <v>290</v>
       </c>
       <c r="I123">
-        <v>5.2300000000000003E-4</v>
+        <v>2.4738000000000003E-2</v>
       </c>
       <c r="J123" t="s">
         <v>170</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A634880-C11F-4959-B100-4399CC466D80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405ADB5E-22DC-4D9D-8DB5-7A6ABE51E676}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4F601D-9754-409E-B90A-6103700DB559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B587B1-4611-4E00-9F34-724A3B96FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h17,S2d0427h11,S6aH7,S2c0415h07,S2c0415h13,S2c0415h15,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S3aH2,S1aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH6,S2c0415h12,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2</t>
-  </si>
-  <si>
-    <t>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH1,S1b0205h04,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S3aH8,S1b0205h05,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h23,S6aH8,S2c0415h20</t>
+    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h13,S2d0427h13,S4aH5,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH6,S2c0415h12</t>
+  </si>
+  <si>
+    <t>S2aH8,S2d0427h20,S1b0205h02,S2d0427h01,S2d0427h19,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h05,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S2c0415h23,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S1aH1,S1b0205h04,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S2aH8,S2d0427h20,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2c0415h21,S4aH8,S1b0205h03,S1b0205h02,S2d0427h01,S2d0427h19,S3aH8,S1b0205h05,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S2c0415h23,S6aH8,S2c0415h20</v>
+        <v>S2aH8,S2d0427h20,S1b0205h02,S2d0427h01,S2d0427h19,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h05,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S2c0415h23,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S2c0415h17,S2d0427h11,S6aH7,S2c0415h07,S2c0415h13,S2c0415h15,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h13,S2d0427h13,S4aH5,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S3aH2,S1aH3,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1aH6,S2c0415h12,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2</v>
+        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h13,S2d0427h13,S4aH5,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH6,S2c0415h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F788B-DF40-4521-96BF-DBEBEE9C25DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFEC83F-F7A9-4AFC-B625-711413D8ADB2}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9329AE3-DCBB-48AE-B40C-78A4B6615E55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6138DF07-5FE9-46F6-804C-AEEFE72DE2EC}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2936,7 +2936,7 @@
         <v>169</v>
       </c>
       <c r="I4">
-        <v>4.6284000000000006E-2</v>
+        <v>4.3693999999999997E-2</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.26179508564829657</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2971,7 +2971,7 @@
         <v>172</v>
       </c>
       <c r="I5">
-        <v>6.6120000000000007E-3</v>
+        <v>6.0470000000000003E-3</v>
       </c>
       <c r="J5" t="s">
         <v>170</v>
@@ -2980,10 +2980,10 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>7.9527811637903387E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3006,7 +3006,7 @@
         <v>173</v>
       </c>
       <c r="I6">
-        <v>6.6120000000000007E-3</v>
+        <v>6.0879999999999997E-3</v>
       </c>
       <c r="J6" t="s">
         <v>170</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>0.40660807082825429</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3041,7 +3041,7 @@
         <v>174</v>
       </c>
       <c r="I7">
-        <v>6.6120000000000007E-3</v>
+        <v>6.2369999999999995E-3</v>
       </c>
       <c r="J7" t="s">
         <v>170</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3076,7 +3076,7 @@
         <v>175</v>
       </c>
       <c r="I8">
-        <v>3.3059999999999999E-2</v>
+        <v>3.3429E-2</v>
       </c>
       <c r="J8" t="s">
         <v>170</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.17653172515557836</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3111,7 +3111,7 @@
         <v>176</v>
       </c>
       <c r="I9">
-        <v>6.6120000000000007E-3</v>
+        <v>7.358E-3</v>
       </c>
       <c r="J9" t="s">
         <v>170</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>8.0605632899210883E-2</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -3146,7 +3146,7 @@
         <v>177</v>
       </c>
       <c r="I10">
-        <v>6.6120000000000007E-3</v>
+        <v>7.4980000000000003E-3</v>
       </c>
       <c r="J10" t="s">
         <v>170</v>
@@ -3172,7 +3172,7 @@
         <v>178</v>
       </c>
       <c r="I11">
-        <v>4.6284000000000006E-2</v>
+        <v>4.8984E-2</v>
       </c>
       <c r="J11" t="s">
         <v>170</v>
@@ -3198,7 +3198,7 @@
         <v>179</v>
       </c>
       <c r="I12">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J12" t="s">
         <v>170</v>
@@ -3224,7 +3224,7 @@
         <v>180</v>
       </c>
       <c r="I13">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J13" t="s">
         <v>170</v>
@@ -3250,7 +3250,7 @@
         <v>181</v>
       </c>
       <c r="I14">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J14" t="s">
         <v>170</v>
@@ -3276,7 +3276,7 @@
         <v>182</v>
       </c>
       <c r="I15">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J15" t="s">
         <v>170</v>
@@ -3302,7 +3302,7 @@
         <v>183</v>
       </c>
       <c r="I16">
-        <v>1.1400000000000001E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="J16" t="s">
         <v>170</v>
@@ -3328,7 +3328,7 @@
         <v>184</v>
       </c>
       <c r="I17">
-        <v>1.1400000000000001E-4</v>
+        <v>1.63E-4</v>
       </c>
       <c r="J17" t="s">
         <v>170</v>
@@ -3354,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="I18">
-        <v>1.1400000000000001E-4</v>
+        <v>2.0699999999999999E-4</v>
       </c>
       <c r="J18" t="s">
         <v>170</v>
@@ -3380,7 +3380,7 @@
         <v>186</v>
       </c>
       <c r="I19">
-        <v>1.1400000000000001E-4</v>
+        <v>2.5799999999999998E-4</v>
       </c>
       <c r="J19" t="s">
         <v>170</v>
@@ -3406,7 +3406,7 @@
         <v>187</v>
       </c>
       <c r="I20">
-        <v>1.1400000000000001E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="J20" t="s">
         <v>170</v>
@@ -3432,7 +3432,7 @@
         <v>188</v>
       </c>
       <c r="I21">
-        <v>1.1400000000000001E-4</v>
+        <v>6.6399999999999999E-4</v>
       </c>
       <c r="J21" t="s">
         <v>170</v>
@@ -3458,7 +3458,7 @@
         <v>189</v>
       </c>
       <c r="I22">
-        <v>1.1400000000000001E-4</v>
+        <v>7.3499999999999998E-4</v>
       </c>
       <c r="J22" t="s">
         <v>170</v>
@@ -3484,7 +3484,7 @@
         <v>190</v>
       </c>
       <c r="I23">
-        <v>1.1400000000000001E-4</v>
+        <v>6.6399999999999999E-4</v>
       </c>
       <c r="J23" t="s">
         <v>170</v>
@@ -3510,7 +3510,7 @@
         <v>191</v>
       </c>
       <c r="I24">
-        <v>1.1400000000000001E-4</v>
+        <v>9.2800000000000001E-4</v>
       </c>
       <c r="J24" t="s">
         <v>170</v>
@@ -3536,7 +3536,7 @@
         <v>192</v>
       </c>
       <c r="I25">
-        <v>1.1400000000000001E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="J25" t="s">
         <v>170</v>
@@ -3562,7 +3562,7 @@
         <v>193</v>
       </c>
       <c r="I26">
-        <v>1.34E-4</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="J26" t="s">
         <v>170</v>
@@ -3588,7 +3588,7 @@
         <v>194</v>
       </c>
       <c r="I27">
-        <v>1.1400000000000001E-4</v>
+        <v>7.7200000000000001E-4</v>
       </c>
       <c r="J27" t="s">
         <v>170</v>
@@ -3614,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="I28">
-        <v>1.1400000000000001E-4</v>
+        <v>4.2900000000000002E-4</v>
       </c>
       <c r="J28" t="s">
         <v>170</v>
@@ -3640,7 +3640,7 @@
         <v>196</v>
       </c>
       <c r="I29">
-        <v>1.1400000000000001E-4</v>
+        <v>3.1399999999999999E-4</v>
       </c>
       <c r="J29" t="s">
         <v>170</v>
@@ -3666,7 +3666,7 @@
         <v>197</v>
       </c>
       <c r="I30">
-        <v>1.1400000000000001E-4</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="J30" t="s">
         <v>170</v>
@@ -3692,7 +3692,7 @@
         <v>198</v>
       </c>
       <c r="I31">
-        <v>1.1400000000000001E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="J31" t="s">
         <v>170</v>
@@ -3718,7 +3718,7 @@
         <v>199</v>
       </c>
       <c r="I32">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J32" t="s">
         <v>170</v>
@@ -3744,7 +3744,7 @@
         <v>200</v>
       </c>
       <c r="I33">
-        <v>1.1400000000000001E-4</v>
+        <v>1.26E-4</v>
       </c>
       <c r="J33" t="s">
         <v>170</v>
@@ -3770,7 +3770,7 @@
         <v>201</v>
       </c>
       <c r="I34">
-        <v>1.1400000000000001E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="J34" t="s">
         <v>170</v>
@@ -3796,7 +3796,7 @@
         <v>202</v>
       </c>
       <c r="I35">
-        <v>1.1400000000000001E-4</v>
+        <v>2.5799999999999998E-4</v>
       </c>
       <c r="J35" t="s">
         <v>170</v>
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="I36">
-        <v>9.5760000000000012E-2</v>
+        <v>8.7482000000000004E-2</v>
       </c>
       <c r="J36" t="s">
         <v>170</v>
@@ -3848,7 +3848,7 @@
         <v>204</v>
       </c>
       <c r="I37">
-        <v>1.3680000000000001E-2</v>
+        <v>1.235E-2</v>
       </c>
       <c r="J37" t="s">
         <v>170</v>
@@ -3874,7 +3874,7 @@
         <v>205</v>
       </c>
       <c r="I38">
-        <v>1.3680000000000001E-2</v>
+        <v>1.2323000000000001E-2</v>
       </c>
       <c r="J38" t="s">
         <v>170</v>
@@ -3900,7 +3900,7 @@
         <v>206</v>
       </c>
       <c r="I39">
-        <v>1.3680000000000001E-2</v>
+        <v>1.2619E-2</v>
       </c>
       <c r="J39" t="s">
         <v>170</v>
@@ -3926,7 +3926,7 @@
         <v>207</v>
       </c>
       <c r="I40">
-        <v>6.8400000000000002E-2</v>
+        <v>7.4444999999999997E-2</v>
       </c>
       <c r="J40" t="s">
         <v>170</v>
@@ -3952,7 +3952,7 @@
         <v>208</v>
       </c>
       <c r="I41">
-        <v>1.3680000000000001E-2</v>
+        <v>1.7033E-2</v>
       </c>
       <c r="J41" t="s">
         <v>170</v>
@@ -3978,7 +3978,7 @@
         <v>209</v>
       </c>
       <c r="I42">
-        <v>1.3680000000000001E-2</v>
+        <v>1.6492E-2</v>
       </c>
       <c r="J42" t="s">
         <v>170</v>
@@ -4004,7 +4004,7 @@
         <v>210</v>
       </c>
       <c r="I43">
-        <v>9.5760000000000012E-2</v>
+        <v>9.2495999999999995E-2</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -4030,7 +4030,7 @@
         <v>211</v>
       </c>
       <c r="I44">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J44" t="s">
         <v>170</v>
@@ -4056,7 +4056,7 @@
         <v>212</v>
       </c>
       <c r="I45">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J45" t="s">
         <v>170</v>
@@ -4082,7 +4082,7 @@
         <v>213</v>
       </c>
       <c r="I46">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J46" t="s">
         <v>170</v>
@@ -4108,7 +4108,7 @@
         <v>214</v>
       </c>
       <c r="I47">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J47" t="s">
         <v>170</v>
@@ -4134,7 +4134,7 @@
         <v>215</v>
       </c>
       <c r="I48">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J48" t="s">
         <v>170</v>
@@ -4160,7 +4160,7 @@
         <v>216</v>
       </c>
       <c r="I49">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J49" t="s">
         <v>170</v>
@@ -4186,7 +4186,7 @@
         <v>217</v>
       </c>
       <c r="I50">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J50" t="s">
         <v>170</v>
@@ -4212,7 +4212,7 @@
         <v>218</v>
       </c>
       <c r="I51">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J51" t="s">
         <v>170</v>
@@ -4238,7 +4238,7 @@
         <v>219</v>
       </c>
       <c r="I52">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J52" t="s">
         <v>170</v>
@@ -4264,7 +4264,7 @@
         <v>220</v>
       </c>
       <c r="I53">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J53" t="s">
         <v>170</v>
@@ -4290,7 +4290,7 @@
         <v>221</v>
       </c>
       <c r="I54">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J54" t="s">
         <v>170</v>
@@ -4316,7 +4316,7 @@
         <v>222</v>
       </c>
       <c r="I55">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J55" t="s">
         <v>170</v>
@@ -4342,7 +4342,7 @@
         <v>223</v>
       </c>
       <c r="I56">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J56" t="s">
         <v>170</v>
@@ -4368,7 +4368,7 @@
         <v>224</v>
       </c>
       <c r="I57">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J57" t="s">
         <v>170</v>
@@ -4394,7 +4394,7 @@
         <v>225</v>
       </c>
       <c r="I58">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J58" t="s">
         <v>170</v>
@@ -4420,7 +4420,7 @@
         <v>226</v>
       </c>
       <c r="I59">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J59" t="s">
         <v>170</v>
@@ -4446,7 +4446,7 @@
         <v>227</v>
       </c>
       <c r="I60">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J60" t="s">
         <v>170</v>
@@ -4472,7 +4472,7 @@
         <v>228</v>
       </c>
       <c r="I61">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J61" t="s">
         <v>170</v>
@@ -4498,7 +4498,7 @@
         <v>229</v>
       </c>
       <c r="I62">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J62" t="s">
         <v>170</v>
@@ -4524,7 +4524,7 @@
         <v>230</v>
       </c>
       <c r="I63">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J63" t="s">
         <v>170</v>
@@ -4550,7 +4550,7 @@
         <v>231</v>
       </c>
       <c r="I64">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J64" t="s">
         <v>170</v>
@@ -4576,7 +4576,7 @@
         <v>232</v>
       </c>
       <c r="I65">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J65" t="s">
         <v>170</v>
@@ -4602,7 +4602,7 @@
         <v>233</v>
       </c>
       <c r="I66">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J66" t="s">
         <v>170</v>
@@ -4628,7 +4628,7 @@
         <v>234</v>
       </c>
       <c r="I67">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J67" t="s">
         <v>170</v>
@@ -4654,7 +4654,7 @@
         <v>235</v>
       </c>
       <c r="I68">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J68" t="s">
         <v>170</v>
@@ -4680,7 +4680,7 @@
         <v>236</v>
       </c>
       <c r="I69">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J69" t="s">
         <v>170</v>
@@ -4706,7 +4706,7 @@
         <v>237</v>
       </c>
       <c r="I70">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J70" t="s">
         <v>170</v>
@@ -4732,7 +4732,7 @@
         <v>238</v>
       </c>
       <c r="I71">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J71" t="s">
         <v>170</v>
@@ -4758,7 +4758,7 @@
         <v>239</v>
       </c>
       <c r="I72">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J72" t="s">
         <v>170</v>
@@ -4784,7 +4784,7 @@
         <v>240</v>
       </c>
       <c r="I73">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J73" t="s">
         <v>170</v>
@@ -4810,7 +4810,7 @@
         <v>241</v>
       </c>
       <c r="I74">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J74" t="s">
         <v>170</v>
@@ -4836,7 +4836,7 @@
         <v>242</v>
       </c>
       <c r="I75">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J75" t="s">
         <v>170</v>
@@ -4862,7 +4862,7 @@
         <v>243</v>
       </c>
       <c r="I76">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J76" t="s">
         <v>170</v>
@@ -4888,7 +4888,7 @@
         <v>244</v>
       </c>
       <c r="I77">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J77" t="s">
         <v>170</v>
@@ -4914,7 +4914,7 @@
         <v>245</v>
       </c>
       <c r="I78">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J78" t="s">
         <v>170</v>
@@ -4940,7 +4940,7 @@
         <v>246</v>
       </c>
       <c r="I79">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J79" t="s">
         <v>170</v>
@@ -4966,7 +4966,7 @@
         <v>247</v>
       </c>
       <c r="I80">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J80" t="s">
         <v>170</v>
@@ -4992,7 +4992,7 @@
         <v>248</v>
       </c>
       <c r="I81">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J81" t="s">
         <v>170</v>
@@ -5018,7 +5018,7 @@
         <v>249</v>
       </c>
       <c r="I82">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J82" t="s">
         <v>170</v>
@@ -5044,7 +5044,7 @@
         <v>250</v>
       </c>
       <c r="I83">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J83" t="s">
         <v>170</v>
@@ -5070,7 +5070,7 @@
         <v>251</v>
       </c>
       <c r="I84">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J84" t="s">
         <v>170</v>
@@ -5096,7 +5096,7 @@
         <v>252</v>
       </c>
       <c r="I85">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J85" t="s">
         <v>170</v>
@@ -5122,7 +5122,7 @@
         <v>253</v>
       </c>
       <c r="I86">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J86" t="s">
         <v>170</v>
@@ -5148,7 +5148,7 @@
         <v>254</v>
       </c>
       <c r="I87">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J87" t="s">
         <v>170</v>
@@ -5174,7 +5174,7 @@
         <v>255</v>
       </c>
       <c r="I88">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J88" t="s">
         <v>170</v>
@@ -5200,7 +5200,7 @@
         <v>256</v>
       </c>
       <c r="I89">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J89" t="s">
         <v>170</v>
@@ -5226,7 +5226,7 @@
         <v>257</v>
       </c>
       <c r="I90">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J90" t="s">
         <v>170</v>
@@ -5252,7 +5252,7 @@
         <v>258</v>
       </c>
       <c r="I91">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J91" t="s">
         <v>170</v>
@@ -5278,7 +5278,7 @@
         <v>259</v>
       </c>
       <c r="I92">
-        <v>4.9476000000000006E-2</v>
+        <v>4.4268000000000002E-2</v>
       </c>
       <c r="J92" t="s">
         <v>170</v>
@@ -5304,7 +5304,7 @@
         <v>260</v>
       </c>
       <c r="I93">
-        <v>7.0680000000000005E-3</v>
+        <v>6.3590000000000001E-3</v>
       </c>
       <c r="J93" t="s">
         <v>170</v>
@@ -5330,7 +5330,7 @@
         <v>261</v>
       </c>
       <c r="I94">
-        <v>7.0680000000000005E-3</v>
+        <v>6.3239999999999998E-3</v>
       </c>
       <c r="J94" t="s">
         <v>170</v>
@@ -5356,7 +5356,7 @@
         <v>262</v>
       </c>
       <c r="I95">
-        <v>7.0680000000000005E-3</v>
+        <v>6.3239999999999998E-3</v>
       </c>
       <c r="J95" t="s">
         <v>170</v>
@@ -5382,7 +5382,7 @@
         <v>263</v>
       </c>
       <c r="I96">
-        <v>3.5340000000000003E-2</v>
+        <v>3.3065999999999998E-2</v>
       </c>
       <c r="J96" t="s">
         <v>170</v>
@@ -5408,7 +5408,7 @@
         <v>264</v>
       </c>
       <c r="I97">
-        <v>7.0680000000000005E-3</v>
+        <v>7.2199999999999999E-3</v>
       </c>
       <c r="J97" t="s">
         <v>170</v>
@@ -5434,7 +5434,7 @@
         <v>265</v>
       </c>
       <c r="I98">
-        <v>7.0680000000000005E-3</v>
+        <v>7.0959999999999999E-3</v>
       </c>
       <c r="J98" t="s">
         <v>170</v>
@@ -5460,7 +5460,7 @@
         <v>266</v>
       </c>
       <c r="I99">
-        <v>4.9476000000000006E-2</v>
+        <v>4.4859000000000003E-2</v>
       </c>
       <c r="J99" t="s">
         <v>170</v>
@@ -5486,7 +5486,7 @@
         <v>267</v>
       </c>
       <c r="I100">
-        <v>4.8678000000000006E-2</v>
+        <v>4.6704999999999997E-2</v>
       </c>
       <c r="J100" t="s">
         <v>170</v>
@@ -5512,7 +5512,7 @@
         <v>268</v>
       </c>
       <c r="I101">
-        <v>6.9540000000000001E-3</v>
+        <v>6.5490000000000001E-3</v>
       </c>
       <c r="J101" t="s">
         <v>170</v>
@@ -5538,7 +5538,7 @@
         <v>269</v>
       </c>
       <c r="I102">
-        <v>6.9540000000000001E-3</v>
+        <v>6.5240000000000003E-3</v>
       </c>
       <c r="J102" t="s">
         <v>170</v>
@@ -5564,7 +5564,7 @@
         <v>270</v>
       </c>
       <c r="I103">
-        <v>6.9540000000000001E-3</v>
+        <v>6.5669999999999999E-3</v>
       </c>
       <c r="J103" t="s">
         <v>170</v>
@@ -5590,7 +5590,7 @@
         <v>271</v>
       </c>
       <c r="I104">
-        <v>3.4770000000000002E-2</v>
+        <v>3.6024E-2</v>
       </c>
       <c r="J104" t="s">
         <v>170</v>
@@ -5616,7 +5616,7 @@
         <v>272</v>
       </c>
       <c r="I105">
-        <v>6.9540000000000001E-3</v>
+        <v>7.6759999999999997E-3</v>
       </c>
       <c r="J105" t="s">
         <v>170</v>
@@ -5642,7 +5642,7 @@
         <v>273</v>
       </c>
       <c r="I106">
-        <v>6.9540000000000001E-3</v>
+        <v>8.1270000000000005E-3</v>
       </c>
       <c r="J106" t="s">
         <v>170</v>
@@ -5668,7 +5668,7 @@
         <v>274</v>
       </c>
       <c r="I107">
-        <v>4.8678000000000006E-2</v>
+        <v>4.8114999999999998E-2</v>
       </c>
       <c r="J107" t="s">
         <v>170</v>
@@ -5694,7 +5694,7 @@
         <v>275</v>
       </c>
       <c r="I108">
-        <v>2.3940000000000003E-2</v>
+        <v>2.3289000000000001E-2</v>
       </c>
       <c r="J108" t="s">
         <v>170</v>
@@ -5720,7 +5720,7 @@
         <v>276</v>
       </c>
       <c r="I109">
-        <v>3.4200000000000003E-3</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="J109" t="s">
         <v>170</v>
@@ -5746,7 +5746,7 @@
         <v>277</v>
       </c>
       <c r="I110">
-        <v>3.4200000000000003E-3</v>
+        <v>3.2520000000000001E-3</v>
       </c>
       <c r="J110" t="s">
         <v>170</v>
@@ -5772,7 +5772,7 @@
         <v>278</v>
       </c>
       <c r="I111">
-        <v>3.4200000000000003E-3</v>
+        <v>3.5239999999999998E-3</v>
       </c>
       <c r="J111" t="s">
         <v>170</v>
@@ -5798,7 +5798,7 @@
         <v>279</v>
       </c>
       <c r="I112">
-        <v>1.7193E-2</v>
+        <v>2.8257999999999998E-2</v>
       </c>
       <c r="J112" t="s">
         <v>170</v>
@@ -5824,7 +5824,7 @@
         <v>280</v>
       </c>
       <c r="I113">
-        <v>3.4200000000000003E-3</v>
+        <v>5.0020000000000004E-3</v>
       </c>
       <c r="J113" t="s">
         <v>170</v>
@@ -5850,7 +5850,7 @@
         <v>281</v>
       </c>
       <c r="I114">
-        <v>3.4200000000000003E-3</v>
+        <v>4.6099999999999995E-3</v>
       </c>
       <c r="J114" t="s">
         <v>170</v>
@@ -5876,7 +5876,7 @@
         <v>282</v>
       </c>
       <c r="I115">
-        <v>2.3940000000000003E-2</v>
+        <v>2.3761999999999998E-2</v>
       </c>
       <c r="J115" t="s">
         <v>170</v>
@@ -5902,7 +5902,7 @@
         <v>283</v>
       </c>
       <c r="I116">
-        <v>2.4738000000000003E-2</v>
+        <v>2.2414E-2</v>
       </c>
       <c r="J116" t="s">
         <v>170</v>
@@ -5928,7 +5928,7 @@
         <v>284</v>
       </c>
       <c r="I117">
-        <v>3.5340000000000002E-3</v>
+        <v>3.176E-3</v>
       </c>
       <c r="J117" t="s">
         <v>170</v>
@@ -5954,7 +5954,7 @@
         <v>285</v>
       </c>
       <c r="I118">
-        <v>3.5340000000000002E-3</v>
+        <v>3.176E-3</v>
       </c>
       <c r="J118" t="s">
         <v>170</v>
@@ -5980,7 +5980,7 @@
         <v>286</v>
       </c>
       <c r="I119">
-        <v>3.5340000000000002E-3</v>
+        <v>3.1619999999999999E-3</v>
       </c>
       <c r="J119" t="s">
         <v>170</v>
@@ -6006,7 +6006,7 @@
         <v>287</v>
       </c>
       <c r="I120">
-        <v>1.7670000000000002E-2</v>
+        <v>1.5896E-2</v>
       </c>
       <c r="J120" t="s">
         <v>170</v>
@@ -6032,7 +6032,7 @@
         <v>288</v>
       </c>
       <c r="I121">
-        <v>3.5340000000000002E-3</v>
+        <v>3.3119999999999998E-3</v>
       </c>
       <c r="J121" t="s">
         <v>170</v>
@@ -6058,7 +6058,7 @@
         <v>289</v>
       </c>
       <c r="I122">
-        <v>3.5340000000000002E-3</v>
+        <v>3.2209999999999999E-3</v>
       </c>
       <c r="J122" t="s">
         <v>170</v>
@@ -6084,7 +6084,7 @@
         <v>290</v>
       </c>
       <c r="I123">
-        <v>2.4738000000000003E-2</v>
+        <v>2.2197999999999999E-2</v>
       </c>
       <c r="J123" t="s">
         <v>170</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405ADB5E-22DC-4D9D-8DB5-7A6ABE51E676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B35F46C-5F5C-47F6-BA1D-E82214B632D8}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B587B1-4611-4E00-9F34-724A3B96FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBE57F3-7E2D-4F8E-9A7F-5E7EBCE448B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="307">
   <si>
     <t>UC_N</t>
   </si>
@@ -955,6 +955,12 @@
   </si>
   <si>
     <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>flo_fr</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT: limtype=UP</t>
   </si>
 </sst>
 </file>
@@ -2869,16 +2875,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6138DF07-5FE9-46F6-804C-AEEFE72DE2EC}">
   <dimension ref="B2:O123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>291</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="M2" t="s">
         <v>304</v>
@@ -2901,10 +2912,10 @@
         <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="K3" t="s">
         <v>168</v>
@@ -2938,8 +2949,9 @@
       <c r="I4">
         <v>4.3693999999999997E-2</v>
       </c>
-      <c r="J4" t="s">
-        <v>170</v>
+      <c r="J4" t="str">
+        <f>K4</f>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K4" t="s">
         <v>292</v>
@@ -2973,8 +2985,9 @@
       <c r="I5">
         <v>6.0470000000000003E-3</v>
       </c>
-      <c r="J5" t="s">
-        <v>170</v>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J68" si="0">K5</f>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K5" t="s">
         <v>292</v>
@@ -3008,8 +3021,9 @@
       <c r="I6">
         <v>6.0879999999999997E-3</v>
       </c>
-      <c r="J6" t="s">
-        <v>170</v>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K6" t="s">
         <v>292</v>
@@ -3043,8 +3057,9 @@
       <c r="I7">
         <v>6.2369999999999995E-3</v>
       </c>
-      <c r="J7" t="s">
-        <v>170</v>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K7" t="s">
         <v>292</v>
@@ -3078,8 +3093,9 @@
       <c r="I8">
         <v>3.3429E-2</v>
       </c>
-      <c r="J8" t="s">
-        <v>170</v>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K8" t="s">
         <v>292</v>
@@ -3113,8 +3129,9 @@
       <c r="I9">
         <v>7.358E-3</v>
       </c>
-      <c r="J9" t="s">
-        <v>170</v>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K9" t="s">
         <v>292</v>
@@ -3148,8 +3165,9 @@
       <c r="I10">
         <v>7.4980000000000003E-3</v>
       </c>
-      <c r="J10" t="s">
-        <v>170</v>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K10" t="s">
         <v>292</v>
@@ -3174,8 +3192,9 @@
       <c r="I11">
         <v>4.8984E-2</v>
       </c>
-      <c r="J11" t="s">
-        <v>170</v>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K11" t="s">
         <v>292</v>
@@ -3200,8 +3219,9 @@
       <c r="I12">
         <v>1.02E-4</v>
       </c>
-      <c r="J12" t="s">
-        <v>170</v>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K12" t="s">
         <v>292</v>
@@ -3226,8 +3246,9 @@
       <c r="I13">
         <v>1.02E-4</v>
       </c>
-      <c r="J13" t="s">
-        <v>170</v>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K13" t="s">
         <v>292</v>
@@ -3252,8 +3273,9 @@
       <c r="I14">
         <v>1.02E-4</v>
       </c>
-      <c r="J14" t="s">
-        <v>170</v>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K14" t="s">
         <v>292</v>
@@ -3278,8 +3300,9 @@
       <c r="I15">
         <v>1.06E-4</v>
       </c>
-      <c r="J15" t="s">
-        <v>170</v>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K15" t="s">
         <v>292</v>
@@ -3304,8 +3327,9 @@
       <c r="I16">
         <v>1.37E-4</v>
       </c>
-      <c r="J16" t="s">
-        <v>170</v>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K16" t="s">
         <v>292</v>
@@ -3330,8 +3354,9 @@
       <c r="I17">
         <v>1.63E-4</v>
       </c>
-      <c r="J17" t="s">
-        <v>170</v>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K17" t="s">
         <v>292</v>
@@ -3356,8 +3381,9 @@
       <c r="I18">
         <v>2.0699999999999999E-4</v>
       </c>
-      <c r="J18" t="s">
-        <v>170</v>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K18" t="s">
         <v>292</v>
@@ -3382,8 +3408,9 @@
       <c r="I19">
         <v>2.5799999999999998E-4</v>
       </c>
-      <c r="J19" t="s">
-        <v>170</v>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K19" t="s">
         <v>292</v>
@@ -3408,8 +3435,9 @@
       <c r="I20">
         <v>4.0400000000000001E-4</v>
       </c>
-      <c r="J20" t="s">
-        <v>170</v>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K20" t="s">
         <v>292</v>
@@ -3434,8 +3462,9 @@
       <c r="I21">
         <v>6.6399999999999999E-4</v>
       </c>
-      <c r="J21" t="s">
-        <v>170</v>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K21" t="s">
         <v>292</v>
@@ -3460,8 +3489,9 @@
       <c r="I22">
         <v>7.3499999999999998E-4</v>
       </c>
-      <c r="J22" t="s">
-        <v>170</v>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K22" t="s">
         <v>292</v>
@@ -3486,8 +3516,9 @@
       <c r="I23">
         <v>6.6399999999999999E-4</v>
       </c>
-      <c r="J23" t="s">
-        <v>170</v>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K23" t="s">
         <v>292</v>
@@ -3512,8 +3543,9 @@
       <c r="I24">
         <v>9.2800000000000001E-4</v>
       </c>
-      <c r="J24" t="s">
-        <v>170</v>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K24" t="s">
         <v>292</v>
@@ -3538,8 +3570,9 @@
       <c r="I25">
         <v>8.0500000000000005E-4</v>
       </c>
-      <c r="J25" t="s">
-        <v>170</v>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K25" t="s">
         <v>292</v>
@@ -3564,8 +3597,9 @@
       <c r="I26">
         <v>1.2099999999999999E-3</v>
       </c>
-      <c r="J26" t="s">
-        <v>170</v>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K26" t="s">
         <v>292</v>
@@ -3590,8 +3624,9 @@
       <c r="I27">
         <v>7.7200000000000001E-4</v>
       </c>
-      <c r="J27" t="s">
-        <v>170</v>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K27" t="s">
         <v>292</v>
@@ -3616,8 +3651,9 @@
       <c r="I28">
         <v>4.2900000000000002E-4</v>
       </c>
-      <c r="J28" t="s">
-        <v>170</v>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K28" t="s">
         <v>292</v>
@@ -3642,8 +3678,9 @@
       <c r="I29">
         <v>3.1399999999999999E-4</v>
       </c>
-      <c r="J29" t="s">
-        <v>170</v>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K29" t="s">
         <v>292</v>
@@ -3668,8 +3705,9 @@
       <c r="I30">
         <v>1.7699999999999999E-4</v>
       </c>
-      <c r="J30" t="s">
-        <v>170</v>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K30" t="s">
         <v>292</v>
@@ -3694,8 +3732,9 @@
       <c r="I31">
         <v>1.37E-4</v>
       </c>
-      <c r="J31" t="s">
-        <v>170</v>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K31" t="s">
         <v>292</v>
@@ -3720,8 +3759,9 @@
       <c r="I32">
         <v>1.16E-4</v>
       </c>
-      <c r="J32" t="s">
-        <v>170</v>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K32" t="s">
         <v>292</v>
@@ -3746,8 +3786,9 @@
       <c r="I33">
         <v>1.26E-4</v>
       </c>
-      <c r="J33" t="s">
-        <v>170</v>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K33" t="s">
         <v>292</v>
@@ -3772,8 +3813,9 @@
       <c r="I34">
         <v>2.23E-4</v>
       </c>
-      <c r="J34" t="s">
-        <v>170</v>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K34" t="s">
         <v>292</v>
@@ -3798,8 +3840,9 @@
       <c r="I35">
         <v>2.5799999999999998E-4</v>
       </c>
-      <c r="J35" t="s">
-        <v>170</v>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K35" t="s">
         <v>292</v>
@@ -3824,8 +3867,9 @@
       <c r="I36">
         <v>8.7482000000000004E-2</v>
       </c>
-      <c r="J36" t="s">
-        <v>170</v>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K36" t="s">
         <v>292</v>
@@ -3850,8 +3894,9 @@
       <c r="I37">
         <v>1.235E-2</v>
       </c>
-      <c r="J37" t="s">
-        <v>170</v>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K37" t="s">
         <v>292</v>
@@ -3876,8 +3921,9 @@
       <c r="I38">
         <v>1.2323000000000001E-2</v>
       </c>
-      <c r="J38" t="s">
-        <v>170</v>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K38" t="s">
         <v>292</v>
@@ -3902,8 +3948,9 @@
       <c r="I39">
         <v>1.2619E-2</v>
       </c>
-      <c r="J39" t="s">
-        <v>170</v>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K39" t="s">
         <v>292</v>
@@ -3928,8 +3975,9 @@
       <c r="I40">
         <v>7.4444999999999997E-2</v>
       </c>
-      <c r="J40" t="s">
-        <v>170</v>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K40" t="s">
         <v>292</v>
@@ -3954,8 +4002,9 @@
       <c r="I41">
         <v>1.7033E-2</v>
       </c>
-      <c r="J41" t="s">
-        <v>170</v>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K41" t="s">
         <v>292</v>
@@ -3980,8 +4029,9 @@
       <c r="I42">
         <v>1.6492E-2</v>
       </c>
-      <c r="J42" t="s">
-        <v>170</v>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K42" t="s">
         <v>292</v>
@@ -4006,8 +4056,9 @@
       <c r="I43">
         <v>9.2495999999999995E-2</v>
       </c>
-      <c r="J43" t="s">
-        <v>170</v>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K43" t="s">
         <v>292</v>
@@ -4032,8 +4083,9 @@
       <c r="I44">
         <v>1.02E-4</v>
       </c>
-      <c r="J44" t="s">
-        <v>170</v>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K44" t="s">
         <v>292</v>
@@ -4058,8 +4110,9 @@
       <c r="I45">
         <v>1.02E-4</v>
       </c>
-      <c r="J45" t="s">
-        <v>170</v>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K45" t="s">
         <v>292</v>
@@ -4084,8 +4137,9 @@
       <c r="I46">
         <v>1.02E-4</v>
       </c>
-      <c r="J46" t="s">
-        <v>170</v>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K46" t="s">
         <v>292</v>
@@ -4110,8 +4164,9 @@
       <c r="I47">
         <v>1.02E-4</v>
       </c>
-      <c r="J47" t="s">
-        <v>170</v>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K47" t="s">
         <v>292</v>
@@ -4136,8 +4191,9 @@
       <c r="I48">
         <v>1.02E-4</v>
       </c>
-      <c r="J48" t="s">
-        <v>170</v>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K48" t="s">
         <v>292</v>
@@ -4162,8 +4218,9 @@
       <c r="I49">
         <v>1.02E-4</v>
       </c>
-      <c r="J49" t="s">
-        <v>170</v>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K49" t="s">
         <v>292</v>
@@ -4188,8 +4245,9 @@
       <c r="I50">
         <v>1.02E-4</v>
       </c>
-      <c r="J50" t="s">
-        <v>170</v>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K50" t="s">
         <v>292</v>
@@ -4214,8 +4272,9 @@
       <c r="I51">
         <v>1.02E-4</v>
       </c>
-      <c r="J51" t="s">
-        <v>170</v>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K51" t="s">
         <v>292</v>
@@ -4240,8 +4299,9 @@
       <c r="I52">
         <v>1.02E-4</v>
       </c>
-      <c r="J52" t="s">
-        <v>170</v>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K52" t="s">
         <v>292</v>
@@ -4266,8 +4326,9 @@
       <c r="I53">
         <v>1.02E-4</v>
       </c>
-      <c r="J53" t="s">
-        <v>170</v>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K53" t="s">
         <v>292</v>
@@ -4292,8 +4353,9 @@
       <c r="I54">
         <v>1.02E-4</v>
       </c>
-      <c r="J54" t="s">
-        <v>170</v>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K54" t="s">
         <v>292</v>
@@ -4318,8 +4380,9 @@
       <c r="I55">
         <v>1.02E-4</v>
       </c>
-      <c r="J55" t="s">
-        <v>170</v>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K55" t="s">
         <v>292</v>
@@ -4344,8 +4407,9 @@
       <c r="I56">
         <v>1.02E-4</v>
       </c>
-      <c r="J56" t="s">
-        <v>170</v>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K56" t="s">
         <v>292</v>
@@ -4370,8 +4434,9 @@
       <c r="I57">
         <v>1.02E-4</v>
       </c>
-      <c r="J57" t="s">
-        <v>170</v>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K57" t="s">
         <v>292</v>
@@ -4396,8 +4461,9 @@
       <c r="I58">
         <v>1.02E-4</v>
       </c>
-      <c r="J58" t="s">
-        <v>170</v>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K58" t="s">
         <v>292</v>
@@ -4422,8 +4488,9 @@
       <c r="I59">
         <v>1.02E-4</v>
       </c>
-      <c r="J59" t="s">
-        <v>170</v>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K59" t="s">
         <v>292</v>
@@ -4448,8 +4515,9 @@
       <c r="I60">
         <v>1.02E-4</v>
       </c>
-      <c r="J60" t="s">
-        <v>170</v>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K60" t="s">
         <v>292</v>
@@ -4474,8 +4542,9 @@
       <c r="I61">
         <v>1.02E-4</v>
       </c>
-      <c r="J61" t="s">
-        <v>170</v>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K61" t="s">
         <v>292</v>
@@ -4500,8 +4569,9 @@
       <c r="I62">
         <v>1.02E-4</v>
       </c>
-      <c r="J62" t="s">
-        <v>170</v>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K62" t="s">
         <v>292</v>
@@ -4526,8 +4596,9 @@
       <c r="I63">
         <v>1.02E-4</v>
       </c>
-      <c r="J63" t="s">
-        <v>170</v>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K63" t="s">
         <v>292</v>
@@ -4552,8 +4623,9 @@
       <c r="I64">
         <v>1.02E-4</v>
       </c>
-      <c r="J64" t="s">
-        <v>170</v>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K64" t="s">
         <v>292</v>
@@ -4578,8 +4650,9 @@
       <c r="I65">
         <v>1.02E-4</v>
       </c>
-      <c r="J65" t="s">
-        <v>170</v>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K65" t="s">
         <v>292</v>
@@ -4604,8 +4677,9 @@
       <c r="I66">
         <v>1.02E-4</v>
       </c>
-      <c r="J66" t="s">
-        <v>170</v>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K66" t="s">
         <v>292</v>
@@ -4630,8 +4704,9 @@
       <c r="I67">
         <v>1.02E-4</v>
       </c>
-      <c r="J67" t="s">
-        <v>170</v>
+      <c r="J67" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K67" t="s">
         <v>292</v>
@@ -4656,8 +4731,9 @@
       <c r="I68">
         <v>1.02E-4</v>
       </c>
-      <c r="J68" t="s">
-        <v>170</v>
+      <c r="J68" t="str">
+        <f t="shared" si="0"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K68" t="s">
         <v>292</v>
@@ -4682,8 +4758,9 @@
       <c r="I69">
         <v>1.02E-4</v>
       </c>
-      <c r="J69" t="s">
-        <v>170</v>
+      <c r="J69" t="str">
+        <f t="shared" ref="J69:J123" si="1">K69</f>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K69" t="s">
         <v>292</v>
@@ -4708,8 +4785,9 @@
       <c r="I70">
         <v>1.02E-4</v>
       </c>
-      <c r="J70" t="s">
-        <v>170</v>
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K70" t="s">
         <v>292</v>
@@ -4734,8 +4812,9 @@
       <c r="I71">
         <v>1.02E-4</v>
       </c>
-      <c r="J71" t="s">
-        <v>170</v>
+      <c r="J71" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K71" t="s">
         <v>292</v>
@@ -4760,8 +4839,9 @@
       <c r="I72">
         <v>1.02E-4</v>
       </c>
-      <c r="J72" t="s">
-        <v>170</v>
+      <c r="J72" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K72" t="s">
         <v>292</v>
@@ -4786,8 +4866,9 @@
       <c r="I73">
         <v>1.02E-4</v>
       </c>
-      <c r="J73" t="s">
-        <v>170</v>
+      <c r="J73" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K73" t="s">
         <v>292</v>
@@ -4812,8 +4893,9 @@
       <c r="I74">
         <v>1.02E-4</v>
       </c>
-      <c r="J74" t="s">
-        <v>170</v>
+      <c r="J74" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K74" t="s">
         <v>292</v>
@@ -4838,8 +4920,9 @@
       <c r="I75">
         <v>1.02E-4</v>
       </c>
-      <c r="J75" t="s">
-        <v>170</v>
+      <c r="J75" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K75" t="s">
         <v>292</v>
@@ -4864,8 +4947,9 @@
       <c r="I76">
         <v>1.02E-4</v>
       </c>
-      <c r="J76" t="s">
-        <v>170</v>
+      <c r="J76" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K76" t="s">
         <v>292</v>
@@ -4890,8 +4974,9 @@
       <c r="I77">
         <v>1.02E-4</v>
       </c>
-      <c r="J77" t="s">
-        <v>170</v>
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K77" t="s">
         <v>292</v>
@@ -4916,8 +5001,9 @@
       <c r="I78">
         <v>1.02E-4</v>
       </c>
-      <c r="J78" t="s">
-        <v>170</v>
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K78" t="s">
         <v>292</v>
@@ -4942,8 +5028,9 @@
       <c r="I79">
         <v>1.02E-4</v>
       </c>
-      <c r="J79" t="s">
-        <v>170</v>
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K79" t="s">
         <v>292</v>
@@ -4968,8 +5055,9 @@
       <c r="I80">
         <v>1.02E-4</v>
       </c>
-      <c r="J80" t="s">
-        <v>170</v>
+      <c r="J80" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K80" t="s">
         <v>292</v>
@@ -4994,8 +5082,9 @@
       <c r="I81">
         <v>1.02E-4</v>
       </c>
-      <c r="J81" t="s">
-        <v>170</v>
+      <c r="J81" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K81" t="s">
         <v>292</v>
@@ -5020,8 +5109,9 @@
       <c r="I82">
         <v>1.02E-4</v>
       </c>
-      <c r="J82" t="s">
-        <v>170</v>
+      <c r="J82" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K82" t="s">
         <v>292</v>
@@ -5046,8 +5136,9 @@
       <c r="I83">
         <v>1.02E-4</v>
       </c>
-      <c r="J83" t="s">
-        <v>170</v>
+      <c r="J83" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K83" t="s">
         <v>292</v>
@@ -5072,8 +5163,9 @@
       <c r="I84">
         <v>1.02E-4</v>
       </c>
-      <c r="J84" t="s">
-        <v>170</v>
+      <c r="J84" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K84" t="s">
         <v>292</v>
@@ -5098,8 +5190,9 @@
       <c r="I85">
         <v>1.02E-4</v>
       </c>
-      <c r="J85" t="s">
-        <v>170</v>
+      <c r="J85" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K85" t="s">
         <v>292</v>
@@ -5124,8 +5217,9 @@
       <c r="I86">
         <v>1.02E-4</v>
       </c>
-      <c r="J86" t="s">
-        <v>170</v>
+      <c r="J86" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K86" t="s">
         <v>292</v>
@@ -5150,8 +5244,9 @@
       <c r="I87">
         <v>1.02E-4</v>
       </c>
-      <c r="J87" t="s">
-        <v>170</v>
+      <c r="J87" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K87" t="s">
         <v>292</v>
@@ -5176,8 +5271,9 @@
       <c r="I88">
         <v>1.02E-4</v>
       </c>
-      <c r="J88" t="s">
-        <v>170</v>
+      <c r="J88" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K88" t="s">
         <v>292</v>
@@ -5202,8 +5298,9 @@
       <c r="I89">
         <v>1.02E-4</v>
       </c>
-      <c r="J89" t="s">
-        <v>170</v>
+      <c r="J89" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K89" t="s">
         <v>292</v>
@@ -5228,8 +5325,9 @@
       <c r="I90">
         <v>1.02E-4</v>
       </c>
-      <c r="J90" t="s">
-        <v>170</v>
+      <c r="J90" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K90" t="s">
         <v>292</v>
@@ -5254,8 +5352,9 @@
       <c r="I91">
         <v>1.02E-4</v>
       </c>
-      <c r="J91" t="s">
-        <v>170</v>
+      <c r="J91" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K91" t="s">
         <v>292</v>
@@ -5280,8 +5379,9 @@
       <c r="I92">
         <v>4.4268000000000002E-2</v>
       </c>
-      <c r="J92" t="s">
-        <v>170</v>
+      <c r="J92" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K92" t="s">
         <v>292</v>
@@ -5306,8 +5406,9 @@
       <c r="I93">
         <v>6.3590000000000001E-3</v>
       </c>
-      <c r="J93" t="s">
-        <v>170</v>
+      <c r="J93" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K93" t="s">
         <v>292</v>
@@ -5332,8 +5433,9 @@
       <c r="I94">
         <v>6.3239999999999998E-3</v>
       </c>
-      <c r="J94" t="s">
-        <v>170</v>
+      <c r="J94" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K94" t="s">
         <v>292</v>
@@ -5358,8 +5460,9 @@
       <c r="I95">
         <v>6.3239999999999998E-3</v>
       </c>
-      <c r="J95" t="s">
-        <v>170</v>
+      <c r="J95" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K95" t="s">
         <v>292</v>
@@ -5384,8 +5487,9 @@
       <c r="I96">
         <v>3.3065999999999998E-2</v>
       </c>
-      <c r="J96" t="s">
-        <v>170</v>
+      <c r="J96" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K96" t="s">
         <v>292</v>
@@ -5410,8 +5514,9 @@
       <c r="I97">
         <v>7.2199999999999999E-3</v>
       </c>
-      <c r="J97" t="s">
-        <v>170</v>
+      <c r="J97" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K97" t="s">
         <v>292</v>
@@ -5436,8 +5541,9 @@
       <c r="I98">
         <v>7.0959999999999999E-3</v>
       </c>
-      <c r="J98" t="s">
-        <v>170</v>
+      <c r="J98" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K98" t="s">
         <v>292</v>
@@ -5462,8 +5568,9 @@
       <c r="I99">
         <v>4.4859000000000003E-2</v>
       </c>
-      <c r="J99" t="s">
-        <v>170</v>
+      <c r="J99" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K99" t="s">
         <v>292</v>
@@ -5488,8 +5595,9 @@
       <c r="I100">
         <v>4.6704999999999997E-2</v>
       </c>
-      <c r="J100" t="s">
-        <v>170</v>
+      <c r="J100" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K100" t="s">
         <v>292</v>
@@ -5514,8 +5622,9 @@
       <c r="I101">
         <v>6.5490000000000001E-3</v>
       </c>
-      <c r="J101" t="s">
-        <v>170</v>
+      <c r="J101" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K101" t="s">
         <v>292</v>
@@ -5540,8 +5649,9 @@
       <c r="I102">
         <v>6.5240000000000003E-3</v>
       </c>
-      <c r="J102" t="s">
-        <v>170</v>
+      <c r="J102" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K102" t="s">
         <v>292</v>
@@ -5566,8 +5676,9 @@
       <c r="I103">
         <v>6.5669999999999999E-3</v>
       </c>
-      <c r="J103" t="s">
-        <v>170</v>
+      <c r="J103" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K103" t="s">
         <v>292</v>
@@ -5592,8 +5703,9 @@
       <c r="I104">
         <v>3.6024E-2</v>
       </c>
-      <c r="J104" t="s">
-        <v>170</v>
+      <c r="J104" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K104" t="s">
         <v>292</v>
@@ -5618,8 +5730,9 @@
       <c r="I105">
         <v>7.6759999999999997E-3</v>
       </c>
-      <c r="J105" t="s">
-        <v>170</v>
+      <c r="J105" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K105" t="s">
         <v>292</v>
@@ -5644,8 +5757,9 @@
       <c r="I106">
         <v>8.1270000000000005E-3</v>
       </c>
-      <c r="J106" t="s">
-        <v>170</v>
+      <c r="J106" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K106" t="s">
         <v>292</v>
@@ -5670,8 +5784,9 @@
       <c r="I107">
         <v>4.8114999999999998E-2</v>
       </c>
-      <c r="J107" t="s">
-        <v>170</v>
+      <c r="J107" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K107" t="s">
         <v>292</v>
@@ -5696,8 +5811,9 @@
       <c r="I108">
         <v>2.3289000000000001E-2</v>
       </c>
-      <c r="J108" t="s">
-        <v>170</v>
+      <c r="J108" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K108" t="s">
         <v>292</v>
@@ -5722,8 +5838,9 @@
       <c r="I109">
         <v>3.3300000000000001E-3</v>
       </c>
-      <c r="J109" t="s">
-        <v>170</v>
+      <c r="J109" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K109" t="s">
         <v>292</v>
@@ -5748,8 +5865,9 @@
       <c r="I110">
         <v>3.2520000000000001E-3</v>
       </c>
-      <c r="J110" t="s">
-        <v>170</v>
+      <c r="J110" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K110" t="s">
         <v>292</v>
@@ -5774,8 +5892,9 @@
       <c r="I111">
         <v>3.5239999999999998E-3</v>
       </c>
-      <c r="J111" t="s">
-        <v>170</v>
+      <c r="J111" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K111" t="s">
         <v>292</v>
@@ -5800,8 +5919,9 @@
       <c r="I112">
         <v>2.8257999999999998E-2</v>
       </c>
-      <c r="J112" t="s">
-        <v>170</v>
+      <c r="J112" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K112" t="s">
         <v>292</v>
@@ -5826,8 +5946,9 @@
       <c r="I113">
         <v>5.0020000000000004E-3</v>
       </c>
-      <c r="J113" t="s">
-        <v>170</v>
+      <c r="J113" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K113" t="s">
         <v>292</v>
@@ -5852,8 +5973,9 @@
       <c r="I114">
         <v>4.6099999999999995E-3</v>
       </c>
-      <c r="J114" t="s">
-        <v>170</v>
+      <c r="J114" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K114" t="s">
         <v>292</v>
@@ -5878,8 +6000,9 @@
       <c r="I115">
         <v>2.3761999999999998E-2</v>
       </c>
-      <c r="J115" t="s">
-        <v>170</v>
+      <c r="J115" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K115" t="s">
         <v>292</v>
@@ -5904,8 +6027,9 @@
       <c r="I116">
         <v>2.2414E-2</v>
       </c>
-      <c r="J116" t="s">
-        <v>170</v>
+      <c r="J116" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K116" t="s">
         <v>292</v>
@@ -5930,8 +6054,9 @@
       <c r="I117">
         <v>3.176E-3</v>
       </c>
-      <c r="J117" t="s">
-        <v>170</v>
+      <c r="J117" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K117" t="s">
         <v>292</v>
@@ -5956,8 +6081,9 @@
       <c r="I118">
         <v>3.176E-3</v>
       </c>
-      <c r="J118" t="s">
-        <v>170</v>
+      <c r="J118" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K118" t="s">
         <v>292</v>
@@ -5982,8 +6108,9 @@
       <c r="I119">
         <v>3.1619999999999999E-3</v>
       </c>
-      <c r="J119" t="s">
-        <v>170</v>
+      <c r="J119" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K119" t="s">
         <v>292</v>
@@ -6008,8 +6135,9 @@
       <c r="I120">
         <v>1.5896E-2</v>
       </c>
-      <c r="J120" t="s">
-        <v>170</v>
+      <c r="J120" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K120" t="s">
         <v>292</v>
@@ -6034,8 +6162,9 @@
       <c r="I121">
         <v>3.3119999999999998E-3</v>
       </c>
-      <c r="J121" t="s">
-        <v>170</v>
+      <c r="J121" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K121" t="s">
         <v>292</v>
@@ -6060,8 +6189,9 @@
       <c r="I122">
         <v>3.2209999999999999E-3</v>
       </c>
-      <c r="J122" t="s">
-        <v>170</v>
+      <c r="J122" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K122" t="s">
         <v>292</v>
@@ -6086,8 +6216,9 @@
       <c r="I123">
         <v>2.2197999999999999E-2</v>
       </c>
-      <c r="J123" t="s">
-        <v>170</v>
+      <c r="J123" t="str">
+        <f t="shared" si="1"/>
+        <v>elc_won-CHE</v>
       </c>
       <c r="K123" t="s">
         <v>292</v>
@@ -6102,7 +6233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B35F46C-5F5C-47F6-BA1D-E82214B632D8}">
   <dimension ref="B2:O243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBE57F3-7E2D-4F8E-9A7F-5E7EBCE448B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D5DE1-5FE5-4699-813B-B20A3E1B8F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -960,7 +960,7 @@
     <t>flo_fr</t>
   </si>
   <si>
-    <t>~TFM_DINS-AT: limtype=UP</t>
+    <t>~TFM_INS-AT: limtype=UP</t>
   </si>
 </sst>
 </file>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D5DE1-5FE5-4699-813B-B20A3E1B8F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7409C2-CDAC-4485-9733-719EEAC2BEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="305">
   <si>
     <t>UC_N</t>
   </si>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h13,S2d0427h13,S4aH5,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH6,S2c0415h12</t>
-  </si>
-  <si>
-    <t>S2aH8,S2d0427h20,S1b0205h02,S2d0427h01,S2d0427h19,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h05,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S2c0415h23,S6aH8</t>
+    <t>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH6,S2c0415h12</t>
+  </si>
+  <si>
+    <t>S1b0205h03,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h05,S3aH8,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2aH8,S2d0427h20,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h23,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -955,12 +955,6 @@
   </si>
   <si>
     <t>~TFM_INS-AT</t>
-  </si>
-  <si>
-    <t>flo_fr</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT: limtype=UP</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2d0427h20,S1b0205h02,S2d0427h01,S2d0427h19,S1aH1,S1b0205h04,S2c0415h21,S4aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S1b0205h05,S1b0205h03,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S3aH8,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h20,S2c0415h23,S6aH8</v>
+        <v>S1b0205h03,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h05,S3aH8,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2aH8,S2d0427h20,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h23,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1542,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S2c0415h07,S2c0415h13,S2c0415h15,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1b0205h13,S2d0427h13,S4aH5,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2d0427h15,S4aH6,S1aH3,S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S2c0415h17,S2d0427h11,S6aH7,S3aH2,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1aH6,S2c0415h12</v>
+        <v>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH6,S2c0415h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2155,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFEC83F-F7A9-4AFC-B625-711413D8ADB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D1C702-E9EE-4000-9EAA-138312E9FEF4}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2872,3366 +2866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6138DF07-5FE9-46F6-804C-AEEFE72DE2EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF098C1-911A-4DB5-8A1F-C7A506F149BC}">
   <dimension ref="B2:O123"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H2" t="s">
-        <v>306</v>
-      </c>
-      <c r="M2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" t="s">
-        <v>302</v>
-      </c>
-      <c r="K3" t="s">
-        <v>168</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" t="s">
-        <v>301</v>
-      </c>
-      <c r="O3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I4">
-        <v>4.3693999999999997E-2</v>
-      </c>
-      <c r="J4" t="str">
-        <f>K4</f>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K4" t="s">
-        <v>292</v>
-      </c>
-      <c r="M4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4">
-        <v>0.19493167383075638</v>
-      </c>
-      <c r="O4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5">
-        <v>6.0470000000000003E-3</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J68" si="0">K5</f>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5">
-        <v>0.17653172515557836</v>
-      </c>
-      <c r="O5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I6">
-        <v>6.0879999999999997E-3</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K6" t="s">
-        <v>292</v>
-      </c>
-      <c r="M6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6">
-        <v>7.9527811637903387E-2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7">
-        <v>1.6111599999999999E-3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I7">
-        <v>6.2369999999999995E-3</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7">
-        <v>0.26179508564829657</v>
-      </c>
-      <c r="O7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8">
-        <v>6.5275570000000005E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8">
-        <v>3.3429E-2</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8">
-        <v>8.0605632899210883E-2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9">
-        <v>1.2359459999999999E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9">
-        <v>7.358E-3</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K9" t="s">
-        <v>292</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9">
-        <v>0.40660807082825429</v>
-      </c>
-      <c r="O9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10">
-        <v>1.0670239999999999E-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I10">
-        <v>7.4980000000000003E-3</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11">
-        <v>1.1925180000000001E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11">
-        <v>4.8984E-2</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" t="s">
-        <v>179</v>
-      </c>
-      <c r="I12">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I14">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" t="s">
-        <v>182</v>
-      </c>
-      <c r="I15">
-        <v>1.06E-4</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16">
-        <v>1.37E-4</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" t="s">
-        <v>184</v>
-      </c>
-      <c r="I17">
-        <v>1.63E-4</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I18">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19">
-        <v>2.5799999999999998E-4</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" t="s">
-        <v>171</v>
-      </c>
-      <c r="H20" t="s">
-        <v>187</v>
-      </c>
-      <c r="I20">
-        <v>4.0400000000000001E-4</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" t="s">
-        <v>188</v>
-      </c>
-      <c r="I21">
-        <v>6.6399999999999999E-4</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22">
-        <v>3.4968999999999999E-4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" t="s">
-        <v>189</v>
-      </c>
-      <c r="I22">
-        <v>7.3499999999999998E-4</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23">
-        <v>5.0385000000000002E-4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" t="s">
-        <v>190</v>
-      </c>
-      <c r="I23">
-        <v>6.6399999999999999E-4</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24">
-        <v>5.9960999999999999E-4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" t="s">
-        <v>191</v>
-      </c>
-      <c r="I24">
-        <v>9.2800000000000001E-4</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25">
-        <v>1.0831E-4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" t="s">
-        <v>192</v>
-      </c>
-      <c r="I25">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K25" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26">
-        <v>6.5503000000000002E-4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" t="s">
-        <v>193</v>
-      </c>
-      <c r="I26">
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27">
-        <v>7.0069999999999998E-5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" t="s">
-        <v>171</v>
-      </c>
-      <c r="H27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27">
-        <v>7.7200000000000001E-4</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28">
-        <v>2.1630000000000001E-5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" t="s">
-        <v>171</v>
-      </c>
-      <c r="H28" t="s">
-        <v>195</v>
-      </c>
-      <c r="I28">
-        <v>4.2900000000000002E-4</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29">
-        <v>9.3700000000000001E-6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29">
-        <v>3.1399999999999999E-4</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30">
-        <v>2.2189999999999999E-5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" t="s">
-        <v>197</v>
-      </c>
-      <c r="I30">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" t="s">
-        <v>171</v>
-      </c>
-      <c r="H31" t="s">
-        <v>198</v>
-      </c>
-      <c r="I31">
-        <v>1.37E-4</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" t="s">
-        <v>199</v>
-      </c>
-      <c r="I32">
-        <v>1.16E-4</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K32" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" t="s">
-        <v>171</v>
-      </c>
-      <c r="H33" t="s">
-        <v>200</v>
-      </c>
-      <c r="I33">
-        <v>1.26E-4</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" t="s">
-        <v>201</v>
-      </c>
-      <c r="I34">
-        <v>2.23E-4</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" t="s">
-        <v>202</v>
-      </c>
-      <c r="I35">
-        <v>2.5799999999999998E-4</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36">
-        <v>2.0913500000000001E-3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36">
-        <v>8.7482000000000004E-2</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37">
-        <v>8.1555599999999992E-3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" t="s">
-        <v>204</v>
-      </c>
-      <c r="I37">
-        <v>1.235E-2</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38">
-        <v>1.581407E-2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" t="s">
-        <v>205</v>
-      </c>
-      <c r="I38">
-        <v>1.2323000000000001E-2</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K38" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39">
-        <v>2.2627089999999999E-2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39">
-        <v>1.2619E-2</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40">
-        <v>0.15013515999999999</v>
-      </c>
-      <c r="D40" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" t="s">
-        <v>171</v>
-      </c>
-      <c r="H40" t="s">
-        <v>207</v>
-      </c>
-      <c r="I40">
-        <v>7.4444999999999997E-2</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K40" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C41">
-        <v>3.0391970000000001E-2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" t="s">
-        <v>208</v>
-      </c>
-      <c r="I41">
-        <v>1.7033E-2</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42">
-        <v>3.0635329999999999E-2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" t="s">
-        <v>209</v>
-      </c>
-      <c r="I42">
-        <v>1.6492E-2</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43">
-        <v>6.9565290000000002E-2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" t="s">
-        <v>171</v>
-      </c>
-      <c r="H43" t="s">
-        <v>210</v>
-      </c>
-      <c r="I43">
-        <v>9.2495999999999995E-2</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K43" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" t="s">
-        <v>211</v>
-      </c>
-      <c r="I44">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K44" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" t="s">
-        <v>171</v>
-      </c>
-      <c r="H45" t="s">
-        <v>212</v>
-      </c>
-      <c r="I45">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" t="s">
-        <v>213</v>
-      </c>
-      <c r="I46">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" t="s">
-        <v>171</v>
-      </c>
-      <c r="H47" t="s">
-        <v>214</v>
-      </c>
-      <c r="I47">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E48" t="s">
-        <v>171</v>
-      </c>
-      <c r="H48" t="s">
-        <v>215</v>
-      </c>
-      <c r="I48">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K48" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E49" t="s">
-        <v>171</v>
-      </c>
-      <c r="H49" t="s">
-        <v>216</v>
-      </c>
-      <c r="I49">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" t="s">
-        <v>171</v>
-      </c>
-      <c r="H50" t="s">
-        <v>217</v>
-      </c>
-      <c r="I50">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K50" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51">
-        <v>1.4061999999999999E-4</v>
-      </c>
-      <c r="D51" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" t="s">
-        <v>171</v>
-      </c>
-      <c r="H51" t="s">
-        <v>218</v>
-      </c>
-      <c r="I51">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K51" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>219</v>
-      </c>
-      <c r="C52">
-        <v>4.1575E-4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" t="s">
-        <v>171</v>
-      </c>
-      <c r="H52" t="s">
-        <v>219</v>
-      </c>
-      <c r="I52">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K52" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53">
-        <v>4.8599E-4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53" t="s">
-        <v>220</v>
-      </c>
-      <c r="I53">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K53" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
-        <v>221</v>
-      </c>
-      <c r="C54">
-        <v>5.2088000000000004E-4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E54" t="s">
-        <v>171</v>
-      </c>
-      <c r="H54" t="s">
-        <v>221</v>
-      </c>
-      <c r="I54">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K54" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55">
-        <v>5.3258999999999999E-4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" t="s">
-        <v>222</v>
-      </c>
-      <c r="I55">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K55" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56">
-        <v>5.2415999999999997E-4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" t="s">
-        <v>171</v>
-      </c>
-      <c r="H56" t="s">
-        <v>223</v>
-      </c>
-      <c r="I56">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K56" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
-        <v>224</v>
-      </c>
-      <c r="C57">
-        <v>5.4708999999999997E-4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>170</v>
-      </c>
-      <c r="E57" t="s">
-        <v>171</v>
-      </c>
-      <c r="H57" t="s">
-        <v>224</v>
-      </c>
-      <c r="I57">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K57" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58">
-        <v>5.6134999999999996E-4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H58" t="s">
-        <v>225</v>
-      </c>
-      <c r="I58">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K58" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59">
-        <v>5.5814000000000005E-4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" t="s">
-        <v>171</v>
-      </c>
-      <c r="H59" t="s">
-        <v>226</v>
-      </c>
-      <c r="I59">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K59" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60">
-        <v>5.3949E-4</v>
-      </c>
-      <c r="D60" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" t="s">
-        <v>171</v>
-      </c>
-      <c r="H60" t="s">
-        <v>227</v>
-      </c>
-      <c r="I60">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K60" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B61" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61">
-        <v>4.2931000000000002E-4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" t="s">
-        <v>171</v>
-      </c>
-      <c r="H61" t="s">
-        <v>228</v>
-      </c>
-      <c r="I61">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K61" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>229</v>
-      </c>
-      <c r="C62">
-        <v>2.9504999999999999E-4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>170</v>
-      </c>
-      <c r="E62" t="s">
-        <v>171</v>
-      </c>
-      <c r="H62" t="s">
-        <v>229</v>
-      </c>
-      <c r="I62">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K62" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
-        <v>230</v>
-      </c>
-      <c r="C63">
-        <v>7.8079999999999998E-5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" t="s">
-        <v>171</v>
-      </c>
-      <c r="H63" t="s">
-        <v>230</v>
-      </c>
-      <c r="I63">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>170</v>
-      </c>
-      <c r="E64" t="s">
-        <v>171</v>
-      </c>
-      <c r="H64" t="s">
-        <v>231</v>
-      </c>
-      <c r="I64">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K64" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B65" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>170</v>
-      </c>
-      <c r="E65" t="s">
-        <v>171</v>
-      </c>
-      <c r="H65" t="s">
-        <v>232</v>
-      </c>
-      <c r="I65">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K65" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" t="s">
-        <v>171</v>
-      </c>
-      <c r="H66" t="s">
-        <v>233</v>
-      </c>
-      <c r="I66">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J66" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K66" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B67" t="s">
-        <v>234</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>170</v>
-      </c>
-      <c r="E67" t="s">
-        <v>171</v>
-      </c>
-      <c r="H67" t="s">
-        <v>234</v>
-      </c>
-      <c r="I67">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J67" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
-        <v>235</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" t="s">
-        <v>171</v>
-      </c>
-      <c r="H68" t="s">
-        <v>235</v>
-      </c>
-      <c r="I68">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" si="0"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K68" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" t="s">
-        <v>171</v>
-      </c>
-      <c r="H69" t="s">
-        <v>236</v>
-      </c>
-      <c r="I69">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" ref="J69:J123" si="1">K69</f>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K69" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" t="s">
-        <v>171</v>
-      </c>
-      <c r="H70" t="s">
-        <v>237</v>
-      </c>
-      <c r="I70">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K70" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B71" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>170</v>
-      </c>
-      <c r="E71" t="s">
-        <v>171</v>
-      </c>
-      <c r="H71" t="s">
-        <v>238</v>
-      </c>
-      <c r="I71">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K71" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
-        <v>239</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
-        <v>170</v>
-      </c>
-      <c r="E72" t="s">
-        <v>171</v>
-      </c>
-      <c r="H72" t="s">
-        <v>239</v>
-      </c>
-      <c r="I72">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K72" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B73" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E73" t="s">
-        <v>171</v>
-      </c>
-      <c r="H73" t="s">
-        <v>240</v>
-      </c>
-      <c r="I73">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K73" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B74" t="s">
-        <v>241</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>170</v>
-      </c>
-      <c r="E74" t="s">
-        <v>171</v>
-      </c>
-      <c r="H74" t="s">
-        <v>241</v>
-      </c>
-      <c r="I74">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J74" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K74" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B75" t="s">
-        <v>242</v>
-      </c>
-      <c r="C75">
-        <v>7.7960000000000006E-5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>170</v>
-      </c>
-      <c r="E75" t="s">
-        <v>171</v>
-      </c>
-      <c r="H75" t="s">
-        <v>242</v>
-      </c>
-      <c r="I75">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J75" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K75" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B76" t="s">
-        <v>243</v>
-      </c>
-      <c r="C76">
-        <v>3.2549999999999998E-5</v>
-      </c>
-      <c r="D76" t="s">
-        <v>170</v>
-      </c>
-      <c r="E76" t="s">
-        <v>171</v>
-      </c>
-      <c r="H76" t="s">
-        <v>243</v>
-      </c>
-      <c r="I76">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J76" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K76" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B77" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77">
-        <v>1.0730000000000001E-5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" t="s">
-        <v>171</v>
-      </c>
-      <c r="H77" t="s">
-        <v>244</v>
-      </c>
-      <c r="I77">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J77" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K77" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B78" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78">
-        <v>3.3170000000000003E-5</v>
-      </c>
-      <c r="D78" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" t="s">
-        <v>171</v>
-      </c>
-      <c r="H78" t="s">
-        <v>245</v>
-      </c>
-      <c r="I78">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J78" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K78" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79">
-        <v>6.8670000000000005E-5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>170</v>
-      </c>
-      <c r="E79" t="s">
-        <v>171</v>
-      </c>
-      <c r="H79" t="s">
-        <v>246</v>
-      </c>
-      <c r="I79">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J79" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K79" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
-        <v>247</v>
-      </c>
-      <c r="C80">
-        <v>5.4700000000000001E-5</v>
-      </c>
-      <c r="D80" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" t="s">
-        <v>171</v>
-      </c>
-      <c r="H80" t="s">
-        <v>247</v>
-      </c>
-      <c r="I80">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J80" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K80" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B81" t="s">
-        <v>248</v>
-      </c>
-      <c r="C81">
-        <v>7.3930000000000005E-5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" t="s">
-        <v>171</v>
-      </c>
-      <c r="H81" t="s">
-        <v>248</v>
-      </c>
-      <c r="I81">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J81" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K81" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B82" t="s">
-        <v>249</v>
-      </c>
-      <c r="C82">
-        <v>7.7169999999999995E-5</v>
-      </c>
-      <c r="D82" t="s">
-        <v>170</v>
-      </c>
-      <c r="E82" t="s">
-        <v>171</v>
-      </c>
-      <c r="H82" t="s">
-        <v>249</v>
-      </c>
-      <c r="I82">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J82" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K82" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
-        <v>250</v>
-      </c>
-      <c r="C83">
-        <v>6.2539999999999994E-5</v>
-      </c>
-      <c r="D83" t="s">
-        <v>170</v>
-      </c>
-      <c r="E83" t="s">
-        <v>171</v>
-      </c>
-      <c r="H83" t="s">
-        <v>250</v>
-      </c>
-      <c r="I83">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J83" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K83" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
-        <v>251</v>
-      </c>
-      <c r="C84">
-        <v>4.4889999999999999E-5</v>
-      </c>
-      <c r="D84" t="s">
-        <v>170</v>
-      </c>
-      <c r="E84" t="s">
-        <v>171</v>
-      </c>
-      <c r="H84" t="s">
-        <v>251</v>
-      </c>
-      <c r="I84">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J84" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K84" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B85" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85">
-        <v>2.052E-5</v>
-      </c>
-      <c r="D85" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" t="s">
-        <v>171</v>
-      </c>
-      <c r="H85" t="s">
-        <v>252</v>
-      </c>
-      <c r="I85">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J85" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K85" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
-        <v>253</v>
-      </c>
-      <c r="C86">
-        <v>7.6799999999999993E-6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>170</v>
-      </c>
-      <c r="E86" t="s">
-        <v>171</v>
-      </c>
-      <c r="H86" t="s">
-        <v>253</v>
-      </c>
-      <c r="I86">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J86" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K86" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B87" t="s">
-        <v>254</v>
-      </c>
-      <c r="C87">
-        <v>2.88E-6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>170</v>
-      </c>
-      <c r="E87" t="s">
-        <v>171</v>
-      </c>
-      <c r="H87" t="s">
-        <v>254</v>
-      </c>
-      <c r="I87">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J87" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K87" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B88" t="s">
-        <v>255</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88" t="s">
-        <v>171</v>
-      </c>
-      <c r="H88" t="s">
-        <v>255</v>
-      </c>
-      <c r="I88">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J88" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K88" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B89" t="s">
-        <v>256</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89" t="s">
-        <v>170</v>
-      </c>
-      <c r="E89" t="s">
-        <v>171</v>
-      </c>
-      <c r="H89" t="s">
-        <v>256</v>
-      </c>
-      <c r="I89">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J89" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K89" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B90" t="s">
-        <v>257</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" t="s">
-        <v>171</v>
-      </c>
-      <c r="H90" t="s">
-        <v>257</v>
-      </c>
-      <c r="I90">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K90" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B91" t="s">
-        <v>258</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91" t="s">
-        <v>170</v>
-      </c>
-      <c r="E91" t="s">
-        <v>171</v>
-      </c>
-      <c r="H91" t="s">
-        <v>258</v>
-      </c>
-      <c r="I91">
-        <v>1.02E-4</v>
-      </c>
-      <c r="J91" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K91" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B92" t="s">
-        <v>259</v>
-      </c>
-      <c r="C92">
-        <v>2.9733E-4</v>
-      </c>
-      <c r="D92" t="s">
-        <v>170</v>
-      </c>
-      <c r="E92" t="s">
-        <v>171</v>
-      </c>
-      <c r="H92" t="s">
-        <v>259</v>
-      </c>
-      <c r="I92">
-        <v>4.4268000000000002E-2</v>
-      </c>
-      <c r="J92" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K92" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B93" t="s">
-        <v>260</v>
-      </c>
-      <c r="C93">
-        <v>9.9096400000000008E-3</v>
-      </c>
-      <c r="D93" t="s">
-        <v>170</v>
-      </c>
-      <c r="E93" t="s">
-        <v>171</v>
-      </c>
-      <c r="H93" t="s">
-        <v>260</v>
-      </c>
-      <c r="I93">
-        <v>6.3590000000000001E-3</v>
-      </c>
-      <c r="J93" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K93" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C94">
-        <v>1.8679669999999999E-2</v>
-      </c>
-      <c r="D94" t="s">
-        <v>170</v>
-      </c>
-      <c r="E94" t="s">
-        <v>171</v>
-      </c>
-      <c r="H94" t="s">
-        <v>261</v>
-      </c>
-      <c r="I94">
-        <v>6.3239999999999998E-3</v>
-      </c>
-      <c r="J94" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K94" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B95" t="s">
-        <v>262</v>
-      </c>
-      <c r="C95">
-        <v>2.312086E-2</v>
-      </c>
-      <c r="D95" t="s">
-        <v>170</v>
-      </c>
-      <c r="E95" t="s">
-        <v>171</v>
-      </c>
-      <c r="H95" t="s">
-        <v>262</v>
-      </c>
-      <c r="I95">
-        <v>6.3239999999999998E-3</v>
-      </c>
-      <c r="J95" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K95" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B96" t="s">
-        <v>263</v>
-      </c>
-      <c r="C96">
-        <v>0.12631708</v>
-      </c>
-      <c r="D96" t="s">
-        <v>170</v>
-      </c>
-      <c r="E96" t="s">
-        <v>171</v>
-      </c>
-      <c r="H96" t="s">
-        <v>263</v>
-      </c>
-      <c r="I96">
-        <v>3.3065999999999998E-2</v>
-      </c>
-      <c r="J96" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K96" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C97">
-        <v>2.435056E-2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>170</v>
-      </c>
-      <c r="E97" t="s">
-        <v>171</v>
-      </c>
-      <c r="H97" t="s">
-        <v>264</v>
-      </c>
-      <c r="I97">
-        <v>7.2199999999999999E-3</v>
-      </c>
-      <c r="J97" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K97" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B98" t="s">
-        <v>265</v>
-      </c>
-      <c r="C98">
-        <v>2.2171699999999999E-2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>170</v>
-      </c>
-      <c r="E98" t="s">
-        <v>171</v>
-      </c>
-      <c r="H98" t="s">
-        <v>265</v>
-      </c>
-      <c r="I98">
-        <v>7.0959999999999999E-3</v>
-      </c>
-      <c r="J98" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K98" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B99" t="s">
-        <v>266</v>
-      </c>
-      <c r="C99">
-        <v>6.1423360000000003E-2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>170</v>
-      </c>
-      <c r="E99" t="s">
-        <v>171</v>
-      </c>
-      <c r="H99" t="s">
-        <v>266</v>
-      </c>
-      <c r="I99">
-        <v>4.4859000000000003E-2</v>
-      </c>
-      <c r="J99" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K99" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B100" t="s">
-        <v>267</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>170</v>
-      </c>
-      <c r="E100" t="s">
-        <v>171</v>
-      </c>
-      <c r="H100" t="s">
-        <v>267</v>
-      </c>
-      <c r="I100">
-        <v>4.6704999999999997E-2</v>
-      </c>
-      <c r="J100" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K100" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B101" t="s">
-        <v>268</v>
-      </c>
-      <c r="C101">
-        <v>3.7549999999999998E-5</v>
-      </c>
-      <c r="D101" t="s">
-        <v>170</v>
-      </c>
-      <c r="E101" t="s">
-        <v>171</v>
-      </c>
-      <c r="H101" t="s">
-        <v>268</v>
-      </c>
-      <c r="I101">
-        <v>6.5490000000000001E-3</v>
-      </c>
-      <c r="J101" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K101" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B102" t="s">
-        <v>269</v>
-      </c>
-      <c r="C102">
-        <v>6.6073800000000004E-3</v>
-      </c>
-      <c r="D102" t="s">
-        <v>170</v>
-      </c>
-      <c r="E102" t="s">
-        <v>171</v>
-      </c>
-      <c r="H102" t="s">
-        <v>269</v>
-      </c>
-      <c r="I102">
-        <v>6.5240000000000003E-3</v>
-      </c>
-      <c r="J102" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K102" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B103" t="s">
-        <v>270</v>
-      </c>
-      <c r="C103">
-        <v>1.1004180000000001E-2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>170</v>
-      </c>
-      <c r="E103" t="s">
-        <v>171</v>
-      </c>
-      <c r="H103" t="s">
-        <v>270</v>
-      </c>
-      <c r="I103">
-        <v>6.5669999999999999E-3</v>
-      </c>
-      <c r="J103" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K103" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B104" t="s">
-        <v>271</v>
-      </c>
-      <c r="C104">
-        <v>8.7989999999999999E-2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>170</v>
-      </c>
-      <c r="E104" t="s">
-        <v>171</v>
-      </c>
-      <c r="H104" t="s">
-        <v>271</v>
-      </c>
-      <c r="I104">
-        <v>3.6024E-2</v>
-      </c>
-      <c r="J104" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K104" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B105" t="s">
-        <v>272</v>
-      </c>
-      <c r="C105">
-        <v>1.8427929999999999E-2</v>
-      </c>
-      <c r="D105" t="s">
-        <v>170</v>
-      </c>
-      <c r="E105" t="s">
-        <v>171</v>
-      </c>
-      <c r="H105" t="s">
-        <v>272</v>
-      </c>
-      <c r="I105">
-        <v>7.6759999999999997E-3</v>
-      </c>
-      <c r="J105" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K105" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B106" t="s">
-        <v>273</v>
-      </c>
-      <c r="C106">
-        <v>1.5206809999999999E-2</v>
-      </c>
-      <c r="D106" t="s">
-        <v>170</v>
-      </c>
-      <c r="E106" t="s">
-        <v>171</v>
-      </c>
-      <c r="H106" t="s">
-        <v>273</v>
-      </c>
-      <c r="I106">
-        <v>8.1270000000000005E-3</v>
-      </c>
-      <c r="J106" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K106" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B107" t="s">
-        <v>274</v>
-      </c>
-      <c r="C107">
-        <v>2.1663999999999999E-2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>170</v>
-      </c>
-      <c r="E107" t="s">
-        <v>171</v>
-      </c>
-      <c r="H107" t="s">
-        <v>274</v>
-      </c>
-      <c r="I107">
-        <v>4.8114999999999998E-2</v>
-      </c>
-      <c r="J107" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K107" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B108" t="s">
-        <v>275</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>170</v>
-      </c>
-      <c r="E108" t="s">
-        <v>171</v>
-      </c>
-      <c r="H108" t="s">
-        <v>275</v>
-      </c>
-      <c r="I108">
-        <v>2.3289000000000001E-2</v>
-      </c>
-      <c r="J108" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K108" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B109" t="s">
-        <v>276</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109" t="s">
-        <v>170</v>
-      </c>
-      <c r="E109" t="s">
-        <v>171</v>
-      </c>
-      <c r="H109" t="s">
-        <v>276</v>
-      </c>
-      <c r="I109">
-        <v>3.3300000000000001E-3</v>
-      </c>
-      <c r="J109" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K109" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B110" t="s">
-        <v>277</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110" t="s">
-        <v>170</v>
-      </c>
-      <c r="E110" t="s">
-        <v>171</v>
-      </c>
-      <c r="H110" t="s">
-        <v>277</v>
-      </c>
-      <c r="I110">
-        <v>3.2520000000000001E-3</v>
-      </c>
-      <c r="J110" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K110" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B111" t="s">
-        <v>278</v>
-      </c>
-      <c r="C111">
-        <v>3.1323700000000002E-3</v>
-      </c>
-      <c r="D111" t="s">
-        <v>170</v>
-      </c>
-      <c r="E111" t="s">
-        <v>171</v>
-      </c>
-      <c r="H111" t="s">
-        <v>278</v>
-      </c>
-      <c r="I111">
-        <v>3.5239999999999998E-3</v>
-      </c>
-      <c r="J111" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K111" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B112" t="s">
-        <v>279</v>
-      </c>
-      <c r="C112">
-        <v>3.0553719999999999E-2</v>
-      </c>
-      <c r="D112" t="s">
-        <v>170</v>
-      </c>
-      <c r="E112" t="s">
-        <v>171</v>
-      </c>
-      <c r="H112" t="s">
-        <v>279</v>
-      </c>
-      <c r="I112">
-        <v>2.8257999999999998E-2</v>
-      </c>
-      <c r="J112" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K112" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B113" t="s">
-        <v>280</v>
-      </c>
-      <c r="C113">
-        <v>6.5860399999999996E-3</v>
-      </c>
-      <c r="D113" t="s">
-        <v>170</v>
-      </c>
-      <c r="E113" t="s">
-        <v>171</v>
-      </c>
-      <c r="H113" t="s">
-        <v>280</v>
-      </c>
-      <c r="I113">
-        <v>5.0020000000000004E-3</v>
-      </c>
-      <c r="J113" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K113" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B114" t="s">
-        <v>281</v>
-      </c>
-      <c r="C114">
-        <v>5.75393E-3</v>
-      </c>
-      <c r="D114" t="s">
-        <v>170</v>
-      </c>
-      <c r="E114" t="s">
-        <v>171</v>
-      </c>
-      <c r="H114" t="s">
-        <v>281</v>
-      </c>
-      <c r="I114">
-        <v>4.6099999999999995E-3</v>
-      </c>
-      <c r="J114" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K114" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B115" t="s">
-        <v>282</v>
-      </c>
-      <c r="C115">
-        <v>4.5280299999999997E-3</v>
-      </c>
-      <c r="D115" t="s">
-        <v>170</v>
-      </c>
-      <c r="E115" t="s">
-        <v>171</v>
-      </c>
-      <c r="H115" t="s">
-        <v>282</v>
-      </c>
-      <c r="I115">
-        <v>2.3761999999999998E-2</v>
-      </c>
-      <c r="J115" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K115" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B116" t="s">
-        <v>283</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116" t="s">
-        <v>170</v>
-      </c>
-      <c r="E116" t="s">
-        <v>171</v>
-      </c>
-      <c r="H116" t="s">
-        <v>283</v>
-      </c>
-      <c r="I116">
-        <v>2.2414E-2</v>
-      </c>
-      <c r="J116" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K116" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B117" t="s">
-        <v>284</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117" t="s">
-        <v>170</v>
-      </c>
-      <c r="E117" t="s">
-        <v>171</v>
-      </c>
-      <c r="H117" t="s">
-        <v>284</v>
-      </c>
-      <c r="I117">
-        <v>3.176E-3</v>
-      </c>
-      <c r="J117" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K117" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B118" t="s">
-        <v>285</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118" t="s">
-        <v>170</v>
-      </c>
-      <c r="E118" t="s">
-        <v>171</v>
-      </c>
-      <c r="H118" t="s">
-        <v>285</v>
-      </c>
-      <c r="I118">
-        <v>3.176E-3</v>
-      </c>
-      <c r="J118" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K118" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B119" t="s">
-        <v>286</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>170</v>
-      </c>
-      <c r="E119" t="s">
-        <v>171</v>
-      </c>
-      <c r="H119" t="s">
-        <v>286</v>
-      </c>
-      <c r="I119">
-        <v>3.1619999999999999E-3</v>
-      </c>
-      <c r="J119" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K119" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B120" t="s">
-        <v>287</v>
-      </c>
-      <c r="C120">
-        <v>4.3091249999999998E-2</v>
-      </c>
-      <c r="D120" t="s">
-        <v>170</v>
-      </c>
-      <c r="E120" t="s">
-        <v>171</v>
-      </c>
-      <c r="H120" t="s">
-        <v>287</v>
-      </c>
-      <c r="I120">
-        <v>1.5896E-2</v>
-      </c>
-      <c r="J120" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K120" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B121" t="s">
-        <v>288</v>
-      </c>
-      <c r="C121">
-        <v>9.0042999999999998E-3</v>
-      </c>
-      <c r="D121" t="s">
-        <v>170</v>
-      </c>
-      <c r="E121" t="s">
-        <v>171</v>
-      </c>
-      <c r="H121" t="s">
-        <v>288</v>
-      </c>
-      <c r="I121">
-        <v>3.3119999999999998E-3</v>
-      </c>
-      <c r="J121" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K121" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B122" t="s">
-        <v>289</v>
-      </c>
-      <c r="C122">
-        <v>8.2031199999999995E-3</v>
-      </c>
-      <c r="D122" t="s">
-        <v>170</v>
-      </c>
-      <c r="E122" t="s">
-        <v>171</v>
-      </c>
-      <c r="H122" t="s">
-        <v>289</v>
-      </c>
-      <c r="I122">
-        <v>3.2209999999999999E-3</v>
-      </c>
-      <c r="J122" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K122" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B123" t="s">
-        <v>290</v>
-      </c>
-      <c r="C123">
-        <v>2.1459199999999999E-3</v>
-      </c>
-      <c r="D123" t="s">
-        <v>170</v>
-      </c>
-      <c r="E123" t="s">
-        <v>171</v>
-      </c>
-      <c r="H123" t="s">
-        <v>290</v>
-      </c>
-      <c r="I123">
-        <v>2.2197999999999999E-2</v>
-      </c>
-      <c r="J123" t="str">
-        <f t="shared" si="1"/>
-        <v>elc_won-CHE</v>
-      </c>
-      <c r="K123" t="s">
-        <v>292</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B35F46C-5F5C-47F6-BA1D-E82214B632D8}">
-  <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6245,6 +2881,3239 @@
         <v>291</v>
       </c>
       <c r="M2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4">
+        <v>2.0294E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>292</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4">
+        <v>0.17653172515557836</v>
+      </c>
+      <c r="O4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5">
+        <v>9.77E-4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>292</v>
+      </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5">
+        <v>0.40660807082825429</v>
+      </c>
+      <c r="O5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6">
+        <v>1.284E-3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6">
+        <v>7.9527811637903387E-2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7">
+        <v>1.6111599999999999E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7">
+        <v>2.307E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7">
+        <v>8.0605632899210883E-2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8">
+        <v>6.5275570000000005E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8">
+        <v>3.3569000000000002E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8">
+        <v>0.19493167383075638</v>
+      </c>
+      <c r="O8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9">
+        <v>1.2359459999999999E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9">
+        <v>1.3671000000000001E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" t="s">
+        <v>292</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9">
+        <v>0.26179508564829657</v>
+      </c>
+      <c r="O9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10">
+        <v>1.0670239999999999E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10">
+        <v>1.5779999999999999E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11">
+        <v>1.1925180000000001E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11">
+        <v>7.7896000000000007E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12">
+        <v>2.8E-5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13">
+        <v>2.8E-5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16">
+        <v>2.4699999999999999E-4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17">
+        <v>4.2099999999999999E-4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18">
+        <v>7.9299999999999998E-4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19">
+        <v>1.3140000000000001E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20">
+        <v>3.1480000000000002E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21">
+        <v>7.0530000000000002E-3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22">
+        <v>3.4968999999999999E-4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22">
+        <v>8.2019999999999992E-3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23">
+        <v>5.0385000000000002E-4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23">
+        <v>7.0530000000000002E-3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24">
+        <v>5.9960999999999999E-4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24">
+        <v>1.1441E-2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25">
+        <v>1.0831E-4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25">
+        <v>9.3650000000000001E-3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26">
+        <v>6.5503000000000002E-4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26">
+        <v>1.6365000000000001E-2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27">
+        <v>7.0069999999999998E-5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27">
+        <v>8.8170000000000002E-3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28">
+        <v>2.1630000000000001E-5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28">
+        <v>3.4970000000000001E-3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29">
+        <v>9.3700000000000001E-6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29">
+        <v>1.964E-3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30">
+        <v>2.2189999999999999E-5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30">
+        <v>5.2899999999999996E-4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31">
+        <v>2.4699999999999999E-4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" t="s">
+        <v>200</v>
+      </c>
+      <c r="I33">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34">
+        <v>9.5E-4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35">
+        <v>1.3140000000000001E-3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>170</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36">
+        <v>2.0913500000000001E-3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36">
+        <v>1.5901000000000002E-2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>170</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37">
+        <v>8.1555599999999992E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37">
+        <v>8.4099999999999995E-4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38">
+        <v>1.581407E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38">
+        <v>6.29E-4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39">
+        <v>2.2627089999999999E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="H39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39">
+        <v>3.0110000000000002E-3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40">
+        <v>0.15013515999999999</v>
+      </c>
+      <c r="D40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40">
+        <v>0.134217</v>
+      </c>
+      <c r="J40" t="s">
+        <v>170</v>
+      </c>
+      <c r="K40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41">
+        <v>3.0391970000000001E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" t="s">
+        <v>208</v>
+      </c>
+      <c r="I41">
+        <v>5.2393999999999996E-2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42">
+        <v>3.0635329999999999E-2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42">
+        <v>4.3761000000000001E-2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43">
+        <v>6.9565290000000002E-2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" t="s">
+        <v>210</v>
+      </c>
+      <c r="I43">
+        <v>6.5379999999999994E-2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" t="s">
+        <v>211</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>170</v>
+      </c>
+      <c r="K44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>170</v>
+      </c>
+      <c r="K45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>170</v>
+      </c>
+      <c r="K46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" t="s">
+        <v>214</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>170</v>
+      </c>
+      <c r="K47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>170</v>
+      </c>
+      <c r="K48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>170</v>
+      </c>
+      <c r="K49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" t="s">
+        <v>217</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51">
+        <v>1.4061999999999999E-4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" t="s">
+        <v>218</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>170</v>
+      </c>
+      <c r="K51" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52">
+        <v>4.1575E-4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+      <c r="H52" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>170</v>
+      </c>
+      <c r="K52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53">
+        <v>4.8599E-4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53" t="s">
+        <v>220</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>170</v>
+      </c>
+      <c r="K53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54">
+        <v>5.2088000000000004E-4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="H54" t="s">
+        <v>221</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>170</v>
+      </c>
+      <c r="K54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55">
+        <v>5.3258999999999999E-4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" t="s">
+        <v>171</v>
+      </c>
+      <c r="H55" t="s">
+        <v>222</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>170</v>
+      </c>
+      <c r="K55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56">
+        <v>5.2415999999999997E-4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+      <c r="H56" t="s">
+        <v>223</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>170</v>
+      </c>
+      <c r="K56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57">
+        <v>5.4708999999999997E-4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="H57" t="s">
+        <v>224</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>170</v>
+      </c>
+      <c r="K57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58">
+        <v>5.6134999999999996E-4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="H58" t="s">
+        <v>225</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>170</v>
+      </c>
+      <c r="K58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59">
+        <v>5.5814000000000005E-4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59" t="s">
+        <v>226</v>
+      </c>
+      <c r="I59">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="J59" t="s">
+        <v>170</v>
+      </c>
+      <c r="K59" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60">
+        <v>5.3949E-4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" t="s">
+        <v>171</v>
+      </c>
+      <c r="H60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="J60" t="s">
+        <v>170</v>
+      </c>
+      <c r="K60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61">
+        <v>4.2931000000000002E-4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" t="s">
+        <v>171</v>
+      </c>
+      <c r="H61" t="s">
+        <v>228</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>170</v>
+      </c>
+      <c r="K61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62">
+        <v>2.9504999999999999E-4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="H62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>170</v>
+      </c>
+      <c r="K62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63">
+        <v>7.8079999999999998E-5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" t="s">
+        <v>171</v>
+      </c>
+      <c r="H63" t="s">
+        <v>230</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>170</v>
+      </c>
+      <c r="K63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="H64" t="s">
+        <v>231</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>170</v>
+      </c>
+      <c r="K64" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
+      </c>
+      <c r="H65" t="s">
+        <v>232</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>170</v>
+      </c>
+      <c r="K65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" t="s">
+        <v>171</v>
+      </c>
+      <c r="H66" t="s">
+        <v>233</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>170</v>
+      </c>
+      <c r="K66" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" t="s">
+        <v>171</v>
+      </c>
+      <c r="H67" t="s">
+        <v>234</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>170</v>
+      </c>
+      <c r="K67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" t="s">
+        <v>171</v>
+      </c>
+      <c r="H68" t="s">
+        <v>235</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>170</v>
+      </c>
+      <c r="K68" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+      <c r="H69" t="s">
+        <v>236</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>170</v>
+      </c>
+      <c r="K69" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" t="s">
+        <v>171</v>
+      </c>
+      <c r="H70" t="s">
+        <v>237</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>170</v>
+      </c>
+      <c r="K70" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H71" t="s">
+        <v>238</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>170</v>
+      </c>
+      <c r="K71" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H72" t="s">
+        <v>239</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>170</v>
+      </c>
+      <c r="K72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" t="s">
+        <v>171</v>
+      </c>
+      <c r="H73" t="s">
+        <v>240</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>170</v>
+      </c>
+      <c r="K73" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" t="s">
+        <v>171</v>
+      </c>
+      <c r="H74" t="s">
+        <v>241</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>170</v>
+      </c>
+      <c r="K74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75">
+        <v>7.7960000000000006E-5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" t="s">
+        <v>171</v>
+      </c>
+      <c r="H75" t="s">
+        <v>242</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>170</v>
+      </c>
+      <c r="K75" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76">
+        <v>3.2549999999999998E-5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" t="s">
+        <v>243</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>170</v>
+      </c>
+      <c r="K76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77">
+        <v>1.0730000000000001E-5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" t="s">
+        <v>171</v>
+      </c>
+      <c r="H77" t="s">
+        <v>244</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>170</v>
+      </c>
+      <c r="K77" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78">
+        <v>3.3170000000000003E-5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" t="s">
+        <v>171</v>
+      </c>
+      <c r="H78" t="s">
+        <v>245</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>170</v>
+      </c>
+      <c r="K78" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79">
+        <v>6.8670000000000005E-5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" t="s">
+        <v>171</v>
+      </c>
+      <c r="H79" t="s">
+        <v>246</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>170</v>
+      </c>
+      <c r="K79" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80">
+        <v>5.4700000000000001E-5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" t="s">
+        <v>171</v>
+      </c>
+      <c r="H80" t="s">
+        <v>247</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>170</v>
+      </c>
+      <c r="K80" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81">
+        <v>7.3930000000000005E-5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" t="s">
+        <v>248</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>170</v>
+      </c>
+      <c r="K81" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82">
+        <v>7.7169999999999995E-5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" t="s">
+        <v>171</v>
+      </c>
+      <c r="H82" t="s">
+        <v>249</v>
+      </c>
+      <c r="I82">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="J82" t="s">
+        <v>170</v>
+      </c>
+      <c r="K82" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83">
+        <v>6.2539999999999994E-5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>170</v>
+      </c>
+      <c r="E83" t="s">
+        <v>171</v>
+      </c>
+      <c r="H83" t="s">
+        <v>250</v>
+      </c>
+      <c r="I83">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="J83" t="s">
+        <v>170</v>
+      </c>
+      <c r="K83" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84">
+        <v>4.4889999999999999E-5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+      <c r="H84" t="s">
+        <v>251</v>
+      </c>
+      <c r="I84">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="J84" t="s">
+        <v>170</v>
+      </c>
+      <c r="K84" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85">
+        <v>2.052E-5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" t="s">
+        <v>171</v>
+      </c>
+      <c r="H85" t="s">
+        <v>252</v>
+      </c>
+      <c r="I85">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="J85" t="s">
+        <v>170</v>
+      </c>
+      <c r="K85" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86">
+        <v>7.6799999999999993E-6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>170</v>
+      </c>
+      <c r="E86" t="s">
+        <v>171</v>
+      </c>
+      <c r="H86" t="s">
+        <v>253</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>170</v>
+      </c>
+      <c r="K86" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87">
+        <v>2.88E-6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" t="s">
+        <v>171</v>
+      </c>
+      <c r="H87" t="s">
+        <v>254</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>170</v>
+      </c>
+      <c r="K87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H88" t="s">
+        <v>255</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>170</v>
+      </c>
+      <c r="K88" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" t="s">
+        <v>171</v>
+      </c>
+      <c r="H89" t="s">
+        <v>256</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>170</v>
+      </c>
+      <c r="K89" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" t="s">
+        <v>171</v>
+      </c>
+      <c r="H90" t="s">
+        <v>257</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>170</v>
+      </c>
+      <c r="K90" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>170</v>
+      </c>
+      <c r="E91" t="s">
+        <v>171</v>
+      </c>
+      <c r="H91" t="s">
+        <v>258</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>170</v>
+      </c>
+      <c r="K91" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B92" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92">
+        <v>2.9733E-4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H92" t="s">
+        <v>259</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>170</v>
+      </c>
+      <c r="K92" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C93">
+        <v>9.9096400000000008E-3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>170</v>
+      </c>
+      <c r="E93" t="s">
+        <v>171</v>
+      </c>
+      <c r="H93" t="s">
+        <v>260</v>
+      </c>
+      <c r="I93">
+        <v>2.4699999999999999E-4</v>
+      </c>
+      <c r="J93" t="s">
+        <v>170</v>
+      </c>
+      <c r="K93" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94">
+        <v>1.8679669999999999E-2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>170</v>
+      </c>
+      <c r="E94" t="s">
+        <v>171</v>
+      </c>
+      <c r="H94" t="s">
+        <v>261</v>
+      </c>
+      <c r="I94">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="J94" t="s">
+        <v>170</v>
+      </c>
+      <c r="K94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95">
+        <v>2.312086E-2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>170</v>
+      </c>
+      <c r="E95" t="s">
+        <v>171</v>
+      </c>
+      <c r="H95" t="s">
+        <v>262</v>
+      </c>
+      <c r="I95">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="J95" t="s">
+        <v>170</v>
+      </c>
+      <c r="K95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B96" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96">
+        <v>0.12631708</v>
+      </c>
+      <c r="D96" t="s">
+        <v>170</v>
+      </c>
+      <c r="E96" t="s">
+        <v>171</v>
+      </c>
+      <c r="H96" t="s">
+        <v>263</v>
+      </c>
+      <c r="I96">
+        <v>1.1649E-2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>170</v>
+      </c>
+      <c r="K96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>264</v>
+      </c>
+      <c r="C97">
+        <v>2.435056E-2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>170</v>
+      </c>
+      <c r="E97" t="s">
+        <v>171</v>
+      </c>
+      <c r="H97" t="s">
+        <v>264</v>
+      </c>
+      <c r="I97">
+        <v>8.3150000000000012E-3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>170</v>
+      </c>
+      <c r="K97" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98">
+        <v>2.2171699999999999E-2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98" t="s">
+        <v>171</v>
+      </c>
+      <c r="H98" t="s">
+        <v>265</v>
+      </c>
+      <c r="I98">
+        <v>6.5980000000000006E-3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>170</v>
+      </c>
+      <c r="K98" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>266</v>
+      </c>
+      <c r="C99">
+        <v>6.1423360000000003E-2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>170</v>
+      </c>
+      <c r="E99" t="s">
+        <v>171</v>
+      </c>
+      <c r="H99" t="s">
+        <v>266</v>
+      </c>
+      <c r="I99">
+        <v>4.7299999999999998E-3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>170</v>
+      </c>
+      <c r="K99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
+        <v>267</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" t="s">
+        <v>171</v>
+      </c>
+      <c r="H100" t="s">
+        <v>267</v>
+      </c>
+      <c r="I100">
+        <v>3.5157000000000001E-2</v>
+      </c>
+      <c r="J100" t="s">
+        <v>170</v>
+      </c>
+      <c r="K100" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101">
+        <v>3.7549999999999998E-5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>170</v>
+      </c>
+      <c r="E101" t="s">
+        <v>171</v>
+      </c>
+      <c r="H101" t="s">
+        <v>268</v>
+      </c>
+      <c r="I101">
+        <v>3.5119999999999999E-3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>170</v>
+      </c>
+      <c r="K101" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102">
+        <v>6.6073800000000004E-3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>170</v>
+      </c>
+      <c r="E102" t="s">
+        <v>171</v>
+      </c>
+      <c r="H102" t="s">
+        <v>269</v>
+      </c>
+      <c r="I102">
+        <v>3.2130000000000001E-3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>170</v>
+      </c>
+      <c r="K102" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>270</v>
+      </c>
+      <c r="C103">
+        <v>1.1004180000000001E-2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>170</v>
+      </c>
+      <c r="E103" t="s">
+        <v>171</v>
+      </c>
+      <c r="H103" t="s">
+        <v>270</v>
+      </c>
+      <c r="I103">
+        <v>3.7560000000000002E-3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>170</v>
+      </c>
+      <c r="K103" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104">
+        <v>8.7989999999999999E-2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>170</v>
+      </c>
+      <c r="E104" t="s">
+        <v>171</v>
+      </c>
+      <c r="H104" t="s">
+        <v>271</v>
+      </c>
+      <c r="I104">
+        <v>5.0529000000000004E-2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>170</v>
+      </c>
+      <c r="K104" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105">
+        <v>1.8427929999999999E-2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" t="s">
+        <v>171</v>
+      </c>
+      <c r="H105" t="s">
+        <v>272</v>
+      </c>
+      <c r="I105">
+        <v>1.4756999999999999E-2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>170</v>
+      </c>
+      <c r="K105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106">
+        <v>1.5206809999999999E-2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" t="s">
+        <v>171</v>
+      </c>
+      <c r="H106" t="s">
+        <v>273</v>
+      </c>
+      <c r="I106">
+        <v>2.0538000000000001E-2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>170</v>
+      </c>
+      <c r="K106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107">
+        <v>2.1663999999999999E-2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>170</v>
+      </c>
+      <c r="E107" t="s">
+        <v>171</v>
+      </c>
+      <c r="H107" t="s">
+        <v>274</v>
+      </c>
+      <c r="I107">
+        <v>4.2701000000000003E-2</v>
+      </c>
+      <c r="J107" t="s">
+        <v>170</v>
+      </c>
+      <c r="K107" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>275</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" t="s">
+        <v>171</v>
+      </c>
+      <c r="H108" t="s">
+        <v>275</v>
+      </c>
+      <c r="I108">
+        <v>1.6494000000000002E-2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>170</v>
+      </c>
+      <c r="K108" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>170</v>
+      </c>
+      <c r="E109" t="s">
+        <v>171</v>
+      </c>
+      <c r="H109" t="s">
+        <v>276</v>
+      </c>
+      <c r="I109">
+        <v>2.153E-3</v>
+      </c>
+      <c r="J109" t="s">
+        <v>170</v>
+      </c>
+      <c r="K109" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E110" t="s">
+        <v>171</v>
+      </c>
+      <c r="H110" t="s">
+        <v>277</v>
+      </c>
+      <c r="I110">
+        <v>1.5739999999999999E-3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>170</v>
+      </c>
+      <c r="K110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B111" t="s">
+        <v>278</v>
+      </c>
+      <c r="C111">
+        <v>3.1323700000000002E-3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" t="s">
+        <v>171</v>
+      </c>
+      <c r="H111" t="s">
+        <v>278</v>
+      </c>
+      <c r="I111">
+        <v>3.8019999999999998E-3</v>
+      </c>
+      <c r="J111" t="s">
+        <v>170</v>
+      </c>
+      <c r="K111" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B112" t="s">
+        <v>279</v>
+      </c>
+      <c r="C112">
+        <v>3.0553719999999999E-2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>170</v>
+      </c>
+      <c r="E112" t="s">
+        <v>171</v>
+      </c>
+      <c r="H112" t="s">
+        <v>279</v>
+      </c>
+      <c r="I112">
+        <v>0.1447</v>
+      </c>
+      <c r="J112" t="s">
+        <v>170</v>
+      </c>
+      <c r="K112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
+        <v>280</v>
+      </c>
+      <c r="C113">
+        <v>6.5860399999999996E-3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>170</v>
+      </c>
+      <c r="E113" t="s">
+        <v>171</v>
+      </c>
+      <c r="H113" t="s">
+        <v>280</v>
+      </c>
+      <c r="I113">
+        <v>1.8328999999999998E-2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>170</v>
+      </c>
+      <c r="K113" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>281</v>
+      </c>
+      <c r="C114">
+        <v>5.75393E-3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>170</v>
+      </c>
+      <c r="E114" t="s">
+        <v>171</v>
+      </c>
+      <c r="H114" t="s">
+        <v>281</v>
+      </c>
+      <c r="I114">
+        <v>1.4584E-2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>170</v>
+      </c>
+      <c r="K114" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115">
+        <v>4.5280299999999997E-3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>170</v>
+      </c>
+      <c r="E115" t="s">
+        <v>171</v>
+      </c>
+      <c r="H115" t="s">
+        <v>282</v>
+      </c>
+      <c r="I115">
+        <v>2.0687000000000001E-2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>170</v>
+      </c>
+      <c r="K115" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>170</v>
+      </c>
+      <c r="E116" t="s">
+        <v>171</v>
+      </c>
+      <c r="H116" t="s">
+        <v>283</v>
+      </c>
+      <c r="I116">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="J116" t="s">
+        <v>170</v>
+      </c>
+      <c r="K116" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B117" t="s">
+        <v>284</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>170</v>
+      </c>
+      <c r="E117" t="s">
+        <v>171</v>
+      </c>
+      <c r="H117" t="s">
+        <v>284</v>
+      </c>
+      <c r="I117">
+        <v>1.85E-4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>170</v>
+      </c>
+      <c r="K117" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>170</v>
+      </c>
+      <c r="E118" t="s">
+        <v>171</v>
+      </c>
+      <c r="H118" t="s">
+        <v>285</v>
+      </c>
+      <c r="I118">
+        <v>1.44E-4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>170</v>
+      </c>
+      <c r="K118" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B119" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" t="s">
+        <v>171</v>
+      </c>
+      <c r="H119" t="s">
+        <v>286</v>
+      </c>
+      <c r="I119">
+        <v>2.8E-5</v>
+      </c>
+      <c r="J119" t="s">
+        <v>170</v>
+      </c>
+      <c r="K119" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120">
+        <v>4.3091249999999998E-2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>170</v>
+      </c>
+      <c r="E120" t="s">
+        <v>171</v>
+      </c>
+      <c r="H120" t="s">
+        <v>287</v>
+      </c>
+      <c r="I120">
+        <v>7.2900000000000005E-4</v>
+      </c>
+      <c r="J120" t="s">
+        <v>170</v>
+      </c>
+      <c r="K120" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B121" t="s">
+        <v>288</v>
+      </c>
+      <c r="C121">
+        <v>9.0042999999999998E-3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>170</v>
+      </c>
+      <c r="E121" t="s">
+        <v>171</v>
+      </c>
+      <c r="H121" t="s">
+        <v>288</v>
+      </c>
+      <c r="I121">
+        <v>1.0860000000000002E-3</v>
+      </c>
+      <c r="J121" t="s">
+        <v>170</v>
+      </c>
+      <c r="K121" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122">
+        <v>8.2031199999999995E-3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>170</v>
+      </c>
+      <c r="E122" t="s">
+        <v>171</v>
+      </c>
+      <c r="H122" t="s">
+        <v>289</v>
+      </c>
+      <c r="I122">
+        <v>4.2699999999999997E-4</v>
+      </c>
+      <c r="J122" t="s">
+        <v>170</v>
+      </c>
+      <c r="K122" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B123" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123">
+        <v>2.1459199999999999E-3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" t="s">
+        <v>171</v>
+      </c>
+      <c r="H123" t="s">
+        <v>290</v>
+      </c>
+      <c r="I123">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="J123" t="s">
+        <v>170</v>
+      </c>
+      <c r="K123" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6201E7-284A-4990-87FE-4C336EFB907C}">
+  <dimension ref="B2:O243"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" t="s">
         <v>291</v>
       </c>
     </row>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7409C2-CDAC-4485-9733-719EEAC2BEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A9F943-A0CD-4722-9E4E-6A1E59176152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -276,7 +276,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>0205h01</t>
+    <t>0901h01</t>
   </si>
   <si>
     <t>S1,S2,S3,S4,S5,S6</t>
@@ -285,232 +285,232 @@
     <t>S2</t>
   </si>
   <si>
-    <t>0205h02</t>
+    <t>0901h02</t>
+  </si>
+  <si>
+    <t>S4</t>
   </si>
   <si>
     <t>S3</t>
   </si>
   <si>
-    <t>0205h03</t>
-  </si>
-  <si>
-    <t>S4</t>
+    <t>0901h03</t>
+  </si>
+  <si>
+    <t>S5</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>0205h04</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>0205h05</t>
+    <t>0901h04</t>
   </si>
   <si>
     <t>S6</t>
   </si>
   <si>
-    <t>0205h06</t>
-  </si>
-  <si>
-    <t>0205h07</t>
-  </si>
-  <si>
-    <t>0205h08</t>
-  </si>
-  <si>
-    <t>0205h09</t>
-  </si>
-  <si>
-    <t>0205h10</t>
-  </si>
-  <si>
-    <t>0205h11</t>
-  </si>
-  <si>
-    <t>0205h12</t>
-  </si>
-  <si>
-    <t>0205h13</t>
-  </si>
-  <si>
-    <t>0205h14</t>
-  </si>
-  <si>
-    <t>0205h15</t>
-  </si>
-  <si>
-    <t>0205h16</t>
-  </si>
-  <si>
-    <t>0205h17</t>
-  </si>
-  <si>
-    <t>0205h18</t>
-  </si>
-  <si>
-    <t>0205h19</t>
-  </si>
-  <si>
-    <t>0205h20</t>
-  </si>
-  <si>
-    <t>0205h21</t>
-  </si>
-  <si>
-    <t>0205h22</t>
-  </si>
-  <si>
-    <t>0205h23</t>
-  </si>
-  <si>
-    <t>0205h24</t>
-  </si>
-  <si>
-    <t>0415h01</t>
-  </si>
-  <si>
-    <t>0415h02</t>
-  </si>
-  <si>
-    <t>0415h03</t>
-  </si>
-  <si>
-    <t>0415h04</t>
-  </si>
-  <si>
-    <t>0415h05</t>
-  </si>
-  <si>
-    <t>0415h06</t>
-  </si>
-  <si>
-    <t>0415h07</t>
-  </si>
-  <si>
-    <t>0415h08</t>
-  </si>
-  <si>
-    <t>0415h09</t>
-  </si>
-  <si>
-    <t>0415h10</t>
-  </si>
-  <si>
-    <t>0415h11</t>
-  </si>
-  <si>
-    <t>0415h12</t>
-  </si>
-  <si>
-    <t>0415h13</t>
-  </si>
-  <si>
-    <t>0415h14</t>
-  </si>
-  <si>
-    <t>0415h15</t>
-  </si>
-  <si>
-    <t>0415h16</t>
-  </si>
-  <si>
-    <t>0415h17</t>
-  </si>
-  <si>
-    <t>0415h18</t>
-  </si>
-  <si>
-    <t>0415h19</t>
-  </si>
-  <si>
-    <t>0415h20</t>
-  </si>
-  <si>
-    <t>0415h21</t>
-  </si>
-  <si>
-    <t>0415h22</t>
-  </si>
-  <si>
-    <t>0415h23</t>
-  </si>
-  <si>
-    <t>0415h24</t>
-  </si>
-  <si>
-    <t>0427h01</t>
-  </si>
-  <si>
-    <t>0427h02</t>
-  </si>
-  <si>
-    <t>0427h03</t>
-  </si>
-  <si>
-    <t>0427h04</t>
-  </si>
-  <si>
-    <t>0427h05</t>
-  </si>
-  <si>
-    <t>0427h06</t>
-  </si>
-  <si>
-    <t>0427h07</t>
-  </si>
-  <si>
-    <t>0427h08</t>
-  </si>
-  <si>
-    <t>0427h09</t>
-  </si>
-  <si>
-    <t>0427h10</t>
-  </si>
-  <si>
-    <t>0427h11</t>
-  </si>
-  <si>
-    <t>0427h12</t>
-  </si>
-  <si>
-    <t>0427h13</t>
-  </si>
-  <si>
-    <t>0427h14</t>
-  </si>
-  <si>
-    <t>0427h15</t>
-  </si>
-  <si>
-    <t>0427h16</t>
-  </si>
-  <si>
-    <t>0427h17</t>
-  </si>
-  <si>
-    <t>0427h18</t>
-  </si>
-  <si>
-    <t>0427h19</t>
-  </si>
-  <si>
-    <t>0427h20</t>
-  </si>
-  <si>
-    <t>0427h21</t>
-  </si>
-  <si>
-    <t>0427h22</t>
-  </si>
-  <si>
-    <t>0427h23</t>
-  </si>
-  <si>
-    <t>0427h24</t>
+    <t>0901h05</t>
+  </si>
+  <si>
+    <t>0901h06</t>
+  </si>
+  <si>
+    <t>0901h07</t>
+  </si>
+  <si>
+    <t>0901h08</t>
+  </si>
+  <si>
+    <t>0901h09</t>
+  </si>
+  <si>
+    <t>0901h10</t>
+  </si>
+  <si>
+    <t>0901h11</t>
+  </si>
+  <si>
+    <t>0901h12</t>
+  </si>
+  <si>
+    <t>0901h13</t>
+  </si>
+  <si>
+    <t>0901h14</t>
+  </si>
+  <si>
+    <t>0901h15</t>
+  </si>
+  <si>
+    <t>0901h16</t>
+  </si>
+  <si>
+    <t>0901h17</t>
+  </si>
+  <si>
+    <t>0901h18</t>
+  </si>
+  <si>
+    <t>0901h19</t>
+  </si>
+  <si>
+    <t>0901h20</t>
+  </si>
+  <si>
+    <t>0901h21</t>
+  </si>
+  <si>
+    <t>0901h22</t>
+  </si>
+  <si>
+    <t>0901h23</t>
+  </si>
+  <si>
+    <t>0901h24</t>
+  </si>
+  <si>
+    <t>1008h01</t>
+  </si>
+  <si>
+    <t>1008h02</t>
+  </si>
+  <si>
+    <t>1008h03</t>
+  </si>
+  <si>
+    <t>1008h04</t>
+  </si>
+  <si>
+    <t>1008h05</t>
+  </si>
+  <si>
+    <t>1008h06</t>
+  </si>
+  <si>
+    <t>1008h07</t>
+  </si>
+  <si>
+    <t>1008h08</t>
+  </si>
+  <si>
+    <t>1008h09</t>
+  </si>
+  <si>
+    <t>1008h10</t>
+  </si>
+  <si>
+    <t>1008h11</t>
+  </si>
+  <si>
+    <t>1008h12</t>
+  </si>
+  <si>
+    <t>1008h13</t>
+  </si>
+  <si>
+    <t>1008h14</t>
+  </si>
+  <si>
+    <t>1008h15</t>
+  </si>
+  <si>
+    <t>1008h16</t>
+  </si>
+  <si>
+    <t>1008h17</t>
+  </si>
+  <si>
+    <t>1008h18</t>
+  </si>
+  <si>
+    <t>1008h19</t>
+  </si>
+  <si>
+    <t>1008h20</t>
+  </si>
+  <si>
+    <t>1008h21</t>
+  </si>
+  <si>
+    <t>1008h22</t>
+  </si>
+  <si>
+    <t>1008h23</t>
+  </si>
+  <si>
+    <t>1008h24</t>
+  </si>
+  <si>
+    <t>1224h01</t>
+  </si>
+  <si>
+    <t>1224h02</t>
+  </si>
+  <si>
+    <t>1224h03</t>
+  </si>
+  <si>
+    <t>1224h04</t>
+  </si>
+  <si>
+    <t>1224h05</t>
+  </si>
+  <si>
+    <t>1224h06</t>
+  </si>
+  <si>
+    <t>1224h07</t>
+  </si>
+  <si>
+    <t>1224h08</t>
+  </si>
+  <si>
+    <t>1224h09</t>
+  </si>
+  <si>
+    <t>1224h10</t>
+  </si>
+  <si>
+    <t>1224h11</t>
+  </si>
+  <si>
+    <t>1224h12</t>
+  </si>
+  <si>
+    <t>1224h13</t>
+  </si>
+  <si>
+    <t>1224h14</t>
+  </si>
+  <si>
+    <t>1224h15</t>
+  </si>
+  <si>
+    <t>1224h16</t>
+  </si>
+  <si>
+    <t>1224h17</t>
+  </si>
+  <si>
+    <t>1224h18</t>
+  </si>
+  <si>
+    <t>1224h19</t>
+  </si>
+  <si>
+    <t>1224h20</t>
+  </si>
+  <si>
+    <t>1224h21</t>
+  </si>
+  <si>
+    <t>1224h22</t>
+  </si>
+  <si>
+    <t>1224h23</t>
+  </si>
+  <si>
+    <t>1224h24</t>
   </si>
   <si>
     <t>H1</t>
@@ -579,78 +579,6 @@
     <t>S1aH8</t>
   </si>
   <si>
-    <t>S1b0205h01</t>
-  </si>
-  <si>
-    <t>S1b0205h02</t>
-  </si>
-  <si>
-    <t>S1b0205h03</t>
-  </si>
-  <si>
-    <t>S1b0205h04</t>
-  </si>
-  <si>
-    <t>S1b0205h05</t>
-  </si>
-  <si>
-    <t>S1b0205h06</t>
-  </si>
-  <si>
-    <t>S1b0205h07</t>
-  </si>
-  <si>
-    <t>S1b0205h08</t>
-  </si>
-  <si>
-    <t>S1b0205h09</t>
-  </si>
-  <si>
-    <t>S1b0205h10</t>
-  </si>
-  <si>
-    <t>S1b0205h11</t>
-  </si>
-  <si>
-    <t>S1b0205h12</t>
-  </si>
-  <si>
-    <t>S1b0205h13</t>
-  </si>
-  <si>
-    <t>S1b0205h14</t>
-  </si>
-  <si>
-    <t>S1b0205h15</t>
-  </si>
-  <si>
-    <t>S1b0205h16</t>
-  </si>
-  <si>
-    <t>S1b0205h17</t>
-  </si>
-  <si>
-    <t>S1b0205h18</t>
-  </si>
-  <si>
-    <t>S1b0205h19</t>
-  </si>
-  <si>
-    <t>S1b0205h20</t>
-  </si>
-  <si>
-    <t>S1b0205h21</t>
-  </si>
-  <si>
-    <t>S1b0205h22</t>
-  </si>
-  <si>
-    <t>S1b0205h23</t>
-  </si>
-  <si>
-    <t>S1b0205h24</t>
-  </si>
-  <si>
     <t>S2aH1</t>
   </si>
   <si>
@@ -675,150 +603,6 @@
     <t>S2aH8</t>
   </si>
   <si>
-    <t>S2c0415h01</t>
-  </si>
-  <si>
-    <t>S2c0415h02</t>
-  </si>
-  <si>
-    <t>S2c0415h03</t>
-  </si>
-  <si>
-    <t>S2c0415h04</t>
-  </si>
-  <si>
-    <t>S2c0415h05</t>
-  </si>
-  <si>
-    <t>S2c0415h06</t>
-  </si>
-  <si>
-    <t>S2c0415h07</t>
-  </si>
-  <si>
-    <t>S2c0415h08</t>
-  </si>
-  <si>
-    <t>S2c0415h09</t>
-  </si>
-  <si>
-    <t>S2c0415h10</t>
-  </si>
-  <si>
-    <t>S2c0415h11</t>
-  </si>
-  <si>
-    <t>S2c0415h12</t>
-  </si>
-  <si>
-    <t>S2c0415h13</t>
-  </si>
-  <si>
-    <t>S2c0415h14</t>
-  </si>
-  <si>
-    <t>S2c0415h15</t>
-  </si>
-  <si>
-    <t>S2c0415h16</t>
-  </si>
-  <si>
-    <t>S2c0415h17</t>
-  </si>
-  <si>
-    <t>S2c0415h18</t>
-  </si>
-  <si>
-    <t>S2c0415h19</t>
-  </si>
-  <si>
-    <t>S2c0415h20</t>
-  </si>
-  <si>
-    <t>S2c0415h21</t>
-  </si>
-  <si>
-    <t>S2c0415h22</t>
-  </si>
-  <si>
-    <t>S2c0415h23</t>
-  </si>
-  <si>
-    <t>S2c0415h24</t>
-  </si>
-  <si>
-    <t>S2d0427h01</t>
-  </si>
-  <si>
-    <t>S2d0427h02</t>
-  </si>
-  <si>
-    <t>S2d0427h03</t>
-  </si>
-  <si>
-    <t>S2d0427h04</t>
-  </si>
-  <si>
-    <t>S2d0427h05</t>
-  </si>
-  <si>
-    <t>S2d0427h06</t>
-  </si>
-  <si>
-    <t>S2d0427h07</t>
-  </si>
-  <si>
-    <t>S2d0427h08</t>
-  </si>
-  <si>
-    <t>S2d0427h09</t>
-  </si>
-  <si>
-    <t>S2d0427h10</t>
-  </si>
-  <si>
-    <t>S2d0427h11</t>
-  </si>
-  <si>
-    <t>S2d0427h12</t>
-  </si>
-  <si>
-    <t>S2d0427h13</t>
-  </si>
-  <si>
-    <t>S2d0427h14</t>
-  </si>
-  <si>
-    <t>S2d0427h15</t>
-  </si>
-  <si>
-    <t>S2d0427h16</t>
-  </si>
-  <si>
-    <t>S2d0427h17</t>
-  </si>
-  <si>
-    <t>S2d0427h18</t>
-  </si>
-  <si>
-    <t>S2d0427h19</t>
-  </si>
-  <si>
-    <t>S2d0427h20</t>
-  </si>
-  <si>
-    <t>S2d0427h21</t>
-  </si>
-  <si>
-    <t>S2d0427h22</t>
-  </si>
-  <si>
-    <t>S2d0427h23</t>
-  </si>
-  <si>
-    <t>S2d0427h24</t>
-  </si>
-  <si>
     <t>S3aH1</t>
   </si>
   <si>
@@ -867,6 +651,78 @@
     <t>S4aH8</t>
   </si>
   <si>
+    <t>S4b0901h01</t>
+  </si>
+  <si>
+    <t>S4b0901h02</t>
+  </si>
+  <si>
+    <t>S4b0901h03</t>
+  </si>
+  <si>
+    <t>S4b0901h04</t>
+  </si>
+  <si>
+    <t>S4b0901h05</t>
+  </si>
+  <si>
+    <t>S4b0901h06</t>
+  </si>
+  <si>
+    <t>S4b0901h07</t>
+  </si>
+  <si>
+    <t>S4b0901h08</t>
+  </si>
+  <si>
+    <t>S4b0901h09</t>
+  </si>
+  <si>
+    <t>S4b0901h10</t>
+  </si>
+  <si>
+    <t>S4b0901h11</t>
+  </si>
+  <si>
+    <t>S4b0901h12</t>
+  </si>
+  <si>
+    <t>S4b0901h13</t>
+  </si>
+  <si>
+    <t>S4b0901h14</t>
+  </si>
+  <si>
+    <t>S4b0901h15</t>
+  </si>
+  <si>
+    <t>S4b0901h16</t>
+  </si>
+  <si>
+    <t>S4b0901h17</t>
+  </si>
+  <si>
+    <t>S4b0901h18</t>
+  </si>
+  <si>
+    <t>S4b0901h19</t>
+  </si>
+  <si>
+    <t>S4b0901h20</t>
+  </si>
+  <si>
+    <t>S4b0901h21</t>
+  </si>
+  <si>
+    <t>S4b0901h22</t>
+  </si>
+  <si>
+    <t>S4b0901h23</t>
+  </si>
+  <si>
+    <t>S4b0901h24</t>
+  </si>
+  <si>
     <t>S5aH1</t>
   </si>
   <si>
@@ -891,6 +747,78 @@
     <t>S5aH8</t>
   </si>
   <si>
+    <t>S5c1008h01</t>
+  </si>
+  <si>
+    <t>S5c1008h02</t>
+  </si>
+  <si>
+    <t>S5c1008h03</t>
+  </si>
+  <si>
+    <t>S5c1008h04</t>
+  </si>
+  <si>
+    <t>S5c1008h05</t>
+  </si>
+  <si>
+    <t>S5c1008h06</t>
+  </si>
+  <si>
+    <t>S5c1008h07</t>
+  </si>
+  <si>
+    <t>S5c1008h08</t>
+  </si>
+  <si>
+    <t>S5c1008h09</t>
+  </si>
+  <si>
+    <t>S5c1008h10</t>
+  </si>
+  <si>
+    <t>S5c1008h11</t>
+  </si>
+  <si>
+    <t>S5c1008h12</t>
+  </si>
+  <si>
+    <t>S5c1008h13</t>
+  </si>
+  <si>
+    <t>S5c1008h14</t>
+  </si>
+  <si>
+    <t>S5c1008h15</t>
+  </si>
+  <si>
+    <t>S5c1008h16</t>
+  </si>
+  <si>
+    <t>S5c1008h17</t>
+  </si>
+  <si>
+    <t>S5c1008h18</t>
+  </si>
+  <si>
+    <t>S5c1008h19</t>
+  </si>
+  <si>
+    <t>S5c1008h20</t>
+  </si>
+  <si>
+    <t>S5c1008h21</t>
+  </si>
+  <si>
+    <t>S5c1008h22</t>
+  </si>
+  <si>
+    <t>S5c1008h23</t>
+  </si>
+  <si>
+    <t>S5c1008h24</t>
+  </si>
+  <si>
     <t>S6aH1</t>
   </si>
   <si>
@@ -915,6 +843,78 @@
     <t>S6aH8</t>
   </si>
   <si>
+    <t>S6d1224h01</t>
+  </si>
+  <si>
+    <t>S6d1224h02</t>
+  </si>
+  <si>
+    <t>S6d1224h03</t>
+  </si>
+  <si>
+    <t>S6d1224h04</t>
+  </si>
+  <si>
+    <t>S6d1224h05</t>
+  </si>
+  <si>
+    <t>S6d1224h06</t>
+  </si>
+  <si>
+    <t>S6d1224h07</t>
+  </si>
+  <si>
+    <t>S6d1224h08</t>
+  </si>
+  <si>
+    <t>S6d1224h09</t>
+  </si>
+  <si>
+    <t>S6d1224h10</t>
+  </si>
+  <si>
+    <t>S6d1224h11</t>
+  </si>
+  <si>
+    <t>S6d1224h12</t>
+  </si>
+  <si>
+    <t>S6d1224h13</t>
+  </si>
+  <si>
+    <t>S6d1224h14</t>
+  </si>
+  <si>
+    <t>S6d1224h15</t>
+  </si>
+  <si>
+    <t>S6d1224h16</t>
+  </si>
+  <si>
+    <t>S6d1224h17</t>
+  </si>
+  <si>
+    <t>S6d1224h18</t>
+  </si>
+  <si>
+    <t>S6d1224h19</t>
+  </si>
+  <si>
+    <t>S6d1224h20</t>
+  </si>
+  <si>
+    <t>S6d1224h21</t>
+  </si>
+  <si>
+    <t>S6d1224h22</t>
+  </si>
+  <si>
+    <t>S6d1224h23</t>
+  </si>
+  <si>
+    <t>S6d1224h24</t>
+  </si>
+  <si>
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH6,S2c0415h12</t>
-  </si>
-  <si>
-    <t>S1b0205h03,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h05,S3aH8,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2aH8,S2d0427h20,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h23,S6aH8</t>
+    <t>S3aH5,S4b0901h15,S5aH3,S5c1008h16,S4aH5,S4b0901h09,S6d1224h07,S6d1224h11,S1aH2,S2aH3,S6d1224h08,S3aH3,S4b0901h18,S6d1224h16,S6d1224h18,S5aH4,S6aH3,S6aH4,S1aH5,S2aH4,S2aH5,S4b0901h10,S4b0901h11,S5aH2,S5aH5,S6aH2,S6d1224h14,S3aH4,S4aH3,S4aH4,S4b0901h08,S5c1008h07,S5c1008h10,S5c1008h13,S4aH2,S4b0901h14,S5c1008h08,S5c1008h14,S6d1224h09,S6d1224h13,S5c1008h09,S5c1008h18,S6aH5,S1aH3,S4b0901h13,S5c1008h12,S6d1224h15,S6d1224h17,S6d1224h12,S3aH2,S4b0901h07,S4b0901h12,S4b0901h17,S5c1008h15,S5c1008h17,S1aH4,S2aH2,S4b0901h16,S5c1008h11,S6d1224h10</t>
+  </si>
+  <si>
+    <t>S1aH8,S5aH1,S6aH7,S6d1224h04,S6d1224h24,S4b0901h03,S4b0901h04,S5c1008h24,S4aH6,S4b0901h21,S6d1224h23,S5c1008h01,S1aH6,S5c1008h06,S5c1008h03,S1aH1,S2aH7,S4b0901h24,S6d1224h21,S2aH1,S3aH7,S5aH8,S5c1008h02,S4aH8,S4b0901h02,S5c1008h04,S5c1008h21,S1aH7,S3aH6,S4aH7,S4b0901h05,S4b0901h19,S5aH6,S5aH7,S5c1008h22,S6aH6,S6d1224h02,S6d1224h05,S2aH8,S5c1008h05,S6d1224h20,S3aH8,S5c1008h20,S2aH6,S3aH1,S4b0901h20,S6d1224h01,S6d1224h03,S4aH1,S4b0901h01,S4b0901h22,S4b0901h23,S6aH1,S6d1224h06,S6d1224h22,S4b0901h06,S5c1008h19,S5c1008h23,S6aH8,S6d1224h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0205h03,S1b0205h24,S2c0415h22,S2d0427h05,S2d0427h22,S1b0205h23,S2c0415h06,S2d0427h04,S2d0427h24,S2c0415h21,S4aH8,S1b0205h05,S3aH8,S1aH1,S1b0205h04,S1b0205h06,S1b0205h21,S2c0415h02,S2c0415h19,S2d0427h03,S3aH1,S2c0415h04,S2d0427h21,S4aH1,S6aH1,S2aH8,S2d0427h20,S2c0415h20,S1b0205h02,S2d0427h01,S2d0427h19,S1b0205h19,S2aH1,S2c0415h01,S5aH8,S1b0205h01,S1b0205h20,S2c0415h03,S2c0415h05,S2c0415h24,S1aH8,S1b0205h22,S2d0427h02,S2d0427h06,S2d0427h23,S5aH1,S2c0415h23,S6aH8</v>
+        <v>S1aH8,S5aH1,S6aH7,S6d1224h04,S6d1224h24,S4b0901h03,S4b0901h04,S5c1008h24,S4aH6,S4b0901h21,S6d1224h23,S5c1008h01,S1aH6,S5c1008h06,S5c1008h03,S1aH1,S2aH7,S4b0901h24,S6d1224h21,S2aH1,S3aH7,S5aH8,S5c1008h02,S4aH8,S4b0901h02,S5c1008h04,S5c1008h21,S1aH7,S3aH6,S4aH7,S4b0901h05,S4b0901h19,S5aH6,S5aH7,S5c1008h22,S6aH6,S6d1224h02,S6d1224h05,S2aH8,S5c1008h05,S6d1224h20,S3aH8,S5c1008h20,S2aH6,S3aH1,S4b0901h20,S6d1224h01,S6d1224h03,S4aH1,S4b0901h01,S4b0901h22,S4b0901h23,S6aH1,S6d1224h06,S6d1224h22,S4b0901h06,S5c1008h19,S5c1008h23,S6aH8,S6d1224h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0205h17,S2d0427h14,S2d0427h16,S5aH4,S6aH3,S6aH4,S1aH2,S1aH7,S1b0205h11,S2aH3,S2d0427h18,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0205h07,S2c0415h10,S2c0415h16,S2c0415h18,S2d0427h12,S3aH3,S2d0427h07,S2d0427h10,S2d0427h17,S6aH5,S1aH3,S3aH2,S2c0415h07,S2c0415h13,S2c0415h15,S2c0415h17,S2d0427h11,S6aH7,S1aH4,S2aH2,S2d0427h15,S4aH6,S1b0205h12,S2c0415h09,S2c0415h11,S3aH7,S1aH5,S1b0205h09,S1b0205h14,S1b0205h15,S2aH4,S2aH5,S2c0415h08,S5aH2,S5aH5,S6aH2,S1b0205h18,S2aH7,S2d0427h08,S3aH4,S4aH3,S4aH4,S1b0205h08,S1b0205h10,S2c0415h14,S4aH2,S1b0205h13,S2d0427h13,S4aH5,S1b0205h16,S2aH6,S2d0427h09,S3aH5,S5aH3,S1aH6,S2c0415h12</v>
+        <v>S3aH5,S4b0901h15,S5aH3,S5c1008h16,S4aH5,S4b0901h09,S6d1224h07,S6d1224h11,S1aH2,S2aH3,S6d1224h08,S3aH3,S4b0901h18,S6d1224h16,S6d1224h18,S5aH4,S6aH3,S6aH4,S1aH5,S2aH4,S2aH5,S4b0901h10,S4b0901h11,S5aH2,S5aH5,S6aH2,S6d1224h14,S3aH4,S4aH3,S4aH4,S4b0901h08,S5c1008h07,S5c1008h10,S5c1008h13,S4aH2,S4b0901h14,S5c1008h08,S5c1008h14,S6d1224h09,S6d1224h13,S5c1008h09,S5c1008h18,S6aH5,S1aH3,S4b0901h13,S5c1008h12,S6d1224h15,S6d1224h17,S6d1224h12,S3aH2,S4b0901h07,S4b0901h12,S4b0901h17,S5c1008h15,S5c1008h17,S1aH4,S2aH2,S4b0901h16,S5c1008h11,S6d1224h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D1C702-E9EE-4000-9EAA-138312E9FEF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84163DD-4943-4191-9AD4-8D6F655499B9}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2206,7 +2206,7 @@
         <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2214,16 +2214,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
         <v>62</v>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>90</v>
@@ -2609,7 +2609,7 @@
         <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.45">
@@ -2617,7 +2617,7 @@
         <v>134</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.45">
@@ -2625,7 +2625,7 @@
         <v>135</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.45">
@@ -2633,7 +2633,7 @@
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.45">
@@ -2641,7 +2641,7 @@
         <v>137</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.45">
@@ -2649,7 +2649,7 @@
         <v>138</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.45">
@@ -2657,7 +2657,7 @@
         <v>139</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.45">
@@ -2665,7 +2665,7 @@
         <v>140</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.45">
@@ -2673,7 +2673,7 @@
         <v>141</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.45">
@@ -2681,7 +2681,7 @@
         <v>142</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.45">
@@ -2689,7 +2689,7 @@
         <v>143</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.45">
@@ -2697,7 +2697,7 @@
         <v>144</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.45">
@@ -2705,7 +2705,7 @@
         <v>145</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.45">
@@ -2713,7 +2713,7 @@
         <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.45">
@@ -2721,7 +2721,7 @@
         <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.45">
@@ -2729,7 +2729,7 @@
         <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.45">
@@ -2737,7 +2737,7 @@
         <v>149</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.45">
@@ -2745,7 +2745,7 @@
         <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.45">
@@ -2753,7 +2753,7 @@
         <v>151</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.45">
@@ -2761,7 +2761,7 @@
         <v>152</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.45">
@@ -2769,7 +2769,7 @@
         <v>153</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.45">
@@ -2777,7 +2777,7 @@
         <v>154</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.45">
@@ -2785,7 +2785,7 @@
         <v>155</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.45">
@@ -2793,7 +2793,7 @@
         <v>156</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.45">
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF098C1-911A-4DB5-8A1F-C7A506F149BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE726F3-E795-4AA7-8DC6-31B53D55B4DF}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2936,7 +2936,7 @@
         <v>169</v>
       </c>
       <c r="I4">
-        <v>2.0294E-2</v>
+        <v>6.7808171936369011E-2</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>0.17653172515557836</v>
+        <v>0.58837492782446876</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2959,7 +2959,7 @@
         <v>172</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.90481E-2</v>
       </c>
       <c r="D5" t="s">
         <v>170</v>
@@ -2971,7 +2971,7 @@
         <v>172</v>
       </c>
       <c r="I5">
-        <v>9.77E-4</v>
+        <v>2.9900001987000047E-2</v>
       </c>
       <c r="J5" t="s">
         <v>170</v>
@@ -2983,7 +2983,7 @@
         <v>80</v>
       </c>
       <c r="N5">
-        <v>0.40660807082825429</v>
+        <v>8.0028228652081854E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -2994,7 +2994,7 @@
         <v>173</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.576703E-2</v>
       </c>
       <c r="D6" t="s">
         <v>170</v>
@@ -3006,7 +3006,7 @@
         <v>173</v>
       </c>
       <c r="I6">
-        <v>1.284E-3</v>
+        <v>1.4780675691558307E-2</v>
       </c>
       <c r="J6" t="s">
         <v>170</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>7.9527811637903387E-2</v>
+        <v>0.10004490921922111</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3029,7 +3029,7 @@
         <v>174</v>
       </c>
       <c r="C7">
-        <v>1.6111599999999999E-3</v>
+        <v>2.6717620000000001E-2</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
@@ -3041,7 +3041,7 @@
         <v>174</v>
       </c>
       <c r="I7">
-        <v>2.307E-3</v>
+        <v>1.5580960335492227E-2</v>
       </c>
       <c r="J7" t="s">
         <v>170</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210883E-2</v>
+        <v>9.4886764611535238E-2</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3064,7 +3064,7 @@
         <v>175</v>
       </c>
       <c r="C8">
-        <v>6.5275570000000005E-2</v>
+        <v>1.9070900000000002E-2</v>
       </c>
       <c r="D8" t="s">
         <v>170</v>
@@ -3076,7 +3076,7 @@
         <v>175</v>
       </c>
       <c r="I8">
-        <v>3.3569000000000002E-2</v>
+        <v>1.774712410961132E-2</v>
       </c>
       <c r="J8" t="s">
         <v>170</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.19493167383075638</v>
+        <v>0.17653172515557833</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3099,7 +3099,7 @@
         <v>176</v>
       </c>
       <c r="C9">
-        <v>1.2359459999999999E-2</v>
+        <v>3.57771E-3</v>
       </c>
       <c r="D9" t="s">
         <v>170</v>
@@ -3111,7 +3111,7 @@
         <v>176</v>
       </c>
       <c r="I9">
-        <v>1.3671000000000001E-2</v>
+        <v>9.177480506881823E-3</v>
       </c>
       <c r="J9" t="s">
         <v>170</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N9">
-        <v>0.26179508564829657</v>
+        <v>0.16013344453711423</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -3134,7 +3134,7 @@
         <v>177</v>
       </c>
       <c r="C10">
-        <v>1.0670239999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>170</v>
@@ -3146,7 +3146,7 @@
         <v>177</v>
       </c>
       <c r="I10">
-        <v>1.5779999999999999E-2</v>
+        <v>9.0396834507211199E-3</v>
       </c>
       <c r="J10" t="s">
         <v>170</v>
@@ -3160,7 +3160,7 @@
         <v>178</v>
       </c>
       <c r="C11">
-        <v>1.1925180000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>170</v>
@@ -3172,7 +3172,7 @@
         <v>178</v>
       </c>
       <c r="I11">
-        <v>7.7896000000000007E-2</v>
+        <v>3.311302508196326E-2</v>
       </c>
       <c r="J11" t="s">
         <v>170</v>
@@ -3198,7 +3198,7 @@
         <v>179</v>
       </c>
       <c r="I12">
-        <v>2.8E-5</v>
+        <v>3.4247647503706749E-2</v>
       </c>
       <c r="J12" t="s">
         <v>170</v>
@@ -3212,7 +3212,7 @@
         <v>180</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.292767E-2</v>
       </c>
       <c r="D13" t="s">
         <v>170</v>
@@ -3224,7 +3224,7 @@
         <v>180</v>
       </c>
       <c r="I13">
-        <v>2.8E-5</v>
+        <v>1.5496714741915458E-2</v>
       </c>
       <c r="J13" t="s">
         <v>170</v>
@@ -3238,7 +3238,7 @@
         <v>181</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.2414059999999999E-2</v>
       </c>
       <c r="D14" t="s">
         <v>170</v>
@@ -3250,7 +3250,7 @@
         <v>181</v>
       </c>
       <c r="I14">
-        <v>5.3000000000000001E-5</v>
+        <v>8.5338995209669269E-3</v>
       </c>
       <c r="J14" t="s">
         <v>170</v>
@@ -3264,7 +3264,7 @@
         <v>182</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.204678E-2</v>
       </c>
       <c r="D15" t="s">
         <v>170</v>
@@ -3276,7 +3276,7 @@
         <v>182</v>
       </c>
       <c r="I15">
-        <v>8.7000000000000001E-5</v>
+        <v>8.2491495439969888E-3</v>
       </c>
       <c r="J15" t="s">
         <v>170</v>
@@ -3290,7 +3290,7 @@
         <v>183</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.359869E-2</v>
       </c>
       <c r="D16" t="s">
         <v>170</v>
@@ -3302,7 +3302,7 @@
         <v>183</v>
       </c>
       <c r="I16">
-        <v>2.4699999999999999E-4</v>
+        <v>8.0748389513464053E-3</v>
       </c>
       <c r="J16" t="s">
         <v>170</v>
@@ -3316,7 +3316,7 @@
         <v>184</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4.23647E-3</v>
       </c>
       <c r="D17" t="s">
         <v>170</v>
@@ -3328,7 +3328,7 @@
         <v>184</v>
       </c>
       <c r="I17">
-        <v>4.2099999999999999E-4</v>
+        <v>4.317843694556932E-3</v>
       </c>
       <c r="J17" t="s">
         <v>170</v>
@@ -3342,7 +3342,7 @@
         <v>185</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.08417E-3</v>
       </c>
       <c r="D18" t="s">
         <v>170</v>
@@ -3354,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="I18">
-        <v>7.9299999999999998E-4</v>
+        <v>4.5953388126736246E-3</v>
       </c>
       <c r="J18" t="s">
         <v>170</v>
@@ -3380,7 +3380,7 @@
         <v>186</v>
       </c>
       <c r="I19">
-        <v>1.3140000000000001E-3</v>
+        <v>1.9918415426574146E-2</v>
       </c>
       <c r="J19" t="s">
         <v>170</v>
@@ -3394,7 +3394,7 @@
         <v>187</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.067246E-2</v>
       </c>
       <c r="D20" t="s">
         <v>170</v>
@@ -3406,7 +3406,7 @@
         <v>187</v>
       </c>
       <c r="I20">
-        <v>3.1480000000000002E-3</v>
+        <v>7.6826323586751802E-2</v>
       </c>
       <c r="J20" t="s">
         <v>170</v>
@@ -3420,7 +3420,7 @@
         <v>188</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.17222714</v>
       </c>
       <c r="D21" t="s">
         <v>170</v>
@@ -3432,7 +3432,7 @@
         <v>188</v>
       </c>
       <c r="I21">
-        <v>7.0530000000000002E-3</v>
+        <v>4.594818945782507E-2</v>
       </c>
       <c r="J21" t="s">
         <v>170</v>
@@ -3446,7 +3446,7 @@
         <v>189</v>
       </c>
       <c r="C22">
-        <v>3.4968999999999999E-4</v>
+        <v>0.10498257</v>
       </c>
       <c r="D22" t="s">
         <v>170</v>
@@ -3458,7 +3458,7 @@
         <v>189</v>
       </c>
       <c r="I22">
-        <v>8.2019999999999992E-3</v>
+        <v>2.8354186838850069E-2</v>
       </c>
       <c r="J22" t="s">
         <v>170</v>
@@ -3472,7 +3472,7 @@
         <v>190</v>
       </c>
       <c r="C23">
-        <v>5.0385000000000002E-4</v>
+        <v>0.10139765000000001</v>
       </c>
       <c r="D23" t="s">
         <v>170</v>
@@ -3484,7 +3484,7 @@
         <v>190</v>
       </c>
       <c r="I23">
-        <v>7.0530000000000002E-3</v>
+        <v>2.9438393810971714E-2</v>
       </c>
       <c r="J23" t="s">
         <v>170</v>
@@ -3498,7 +3498,7 @@
         <v>191</v>
       </c>
       <c r="C24">
-        <v>5.9960999999999999E-4</v>
+        <v>9.0799379999999999E-2</v>
       </c>
       <c r="D24" t="s">
         <v>170</v>
@@ -3510,7 +3510,7 @@
         <v>191</v>
       </c>
       <c r="I24">
-        <v>1.1441E-2</v>
+        <v>2.3305781444217372E-2</v>
       </c>
       <c r="J24" t="s">
         <v>170</v>
@@ -3524,7 +3524,7 @@
         <v>192</v>
       </c>
       <c r="C25">
-        <v>1.0831E-4</v>
+        <v>3.6931699999999998E-2</v>
       </c>
       <c r="D25" t="s">
         <v>170</v>
@@ -3536,7 +3536,7 @@
         <v>192</v>
       </c>
       <c r="I25">
-        <v>9.3650000000000001E-3</v>
+        <v>9.4096295241654464E-3</v>
       </c>
       <c r="J25" t="s">
         <v>170</v>
@@ -3550,7 +3550,7 @@
         <v>193</v>
       </c>
       <c r="C26">
-        <v>6.5503000000000002E-4</v>
+        <v>2.6763019999999998E-2</v>
       </c>
       <c r="D26" t="s">
         <v>170</v>
@@ -3562,7 +3562,7 @@
         <v>193</v>
       </c>
       <c r="I26">
-        <v>1.6365000000000001E-2</v>
+        <v>9.3132084410876594E-3</v>
       </c>
       <c r="J26" t="s">
         <v>170</v>
@@ -3576,7 +3576,7 @@
         <v>194</v>
       </c>
       <c r="C27">
-        <v>7.0069999999999998E-5</v>
+        <v>1.1800150000000001E-2</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -3588,7 +3588,7 @@
         <v>194</v>
       </c>
       <c r="I27">
-        <v>8.8170000000000002E-3</v>
+        <v>3.9972933815708205E-2</v>
       </c>
       <c r="J27" t="s">
         <v>170</v>
@@ -3602,7 +3602,7 @@
         <v>195</v>
       </c>
       <c r="C28">
-        <v>2.1630000000000001E-5</v>
+        <v>3.7549999999999998E-5</v>
       </c>
       <c r="D28" t="s">
         <v>170</v>
@@ -3614,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="I28">
-        <v>3.4970000000000001E-3</v>
+        <v>1.8664973676595458E-2</v>
       </c>
       <c r="J28" t="s">
         <v>170</v>
@@ -3628,7 +3628,7 @@
         <v>196</v>
       </c>
       <c r="C29">
-        <v>9.3700000000000001E-6</v>
+        <v>3.017245E-2</v>
       </c>
       <c r="D29" t="s">
         <v>170</v>
@@ -3640,7 +3640,7 @@
         <v>196</v>
       </c>
       <c r="I29">
-        <v>1.964E-3</v>
+        <v>8.9809139212088818E-3</v>
       </c>
       <c r="J29" t="s">
         <v>170</v>
@@ -3654,7 +3654,7 @@
         <v>197</v>
       </c>
       <c r="C30">
-        <v>2.2189999999999999E-5</v>
+        <v>2.136016E-2</v>
       </c>
       <c r="D30" t="s">
         <v>170</v>
@@ -3666,7 +3666,7 @@
         <v>197</v>
       </c>
       <c r="I30">
-        <v>5.2899999999999996E-4</v>
+        <v>4.9454471793795645E-3</v>
       </c>
       <c r="J30" t="s">
         <v>170</v>
@@ -3680,7 +3680,7 @@
         <v>198</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2.0514190000000002E-2</v>
       </c>
       <c r="D31" t="s">
         <v>170</v>
@@ -3692,7 +3692,7 @@
         <v>198</v>
       </c>
       <c r="I31">
-        <v>2.4699999999999999E-4</v>
+        <v>4.5072718094871598E-3</v>
       </c>
       <c r="J31" t="s">
         <v>170</v>
@@ -3706,7 +3706,7 @@
         <v>199</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1.5217669999999999E-2</v>
       </c>
       <c r="D32" t="s">
         <v>170</v>
@@ -3718,7 +3718,7 @@
         <v>199</v>
       </c>
       <c r="I32">
-        <v>1.3200000000000001E-4</v>
+        <v>2.9690865485453594E-3</v>
       </c>
       <c r="J32" t="s">
         <v>170</v>
@@ -3732,7 +3732,7 @@
         <v>200</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>6.0945299999999999E-3</v>
       </c>
       <c r="D33" t="s">
         <v>170</v>
@@ -3744,7 +3744,7 @@
         <v>200</v>
       </c>
       <c r="I33">
-        <v>1.8000000000000001E-4</v>
+        <v>1.5341828031613673E-3</v>
       </c>
       <c r="J33" t="s">
         <v>170</v>
@@ -3758,7 +3758,7 @@
         <v>201</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2.1375000000000001E-3</v>
       </c>
       <c r="D34" t="s">
         <v>170</v>
@@ -3770,7 +3770,7 @@
         <v>201</v>
       </c>
       <c r="I34">
-        <v>9.5E-4</v>
+        <v>1.6032656124155757E-3</v>
       </c>
       <c r="J34" t="s">
         <v>170</v>
@@ -3796,7 +3796,7 @@
         <v>202</v>
       </c>
       <c r="I35">
-        <v>1.3140000000000001E-3</v>
+        <v>7.7170231053601242E-3</v>
       </c>
       <c r="J35" t="s">
         <v>170</v>
@@ -3810,7 +3810,7 @@
         <v>203</v>
       </c>
       <c r="C36">
-        <v>2.0913500000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>170</v>
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="I36">
-        <v>1.5901000000000002E-2</v>
+        <v>6.3948800404885771E-6</v>
       </c>
       <c r="J36" t="s">
         <v>170</v>
@@ -3836,7 +3836,7 @@
         <v>204</v>
       </c>
       <c r="C37">
-        <v>8.1555599999999992E-3</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>170</v>
@@ -3848,7 +3848,7 @@
         <v>204</v>
       </c>
       <c r="I37">
-        <v>8.4099999999999995E-4</v>
+        <v>6.6341222664724782E-6</v>
       </c>
       <c r="J37" t="s">
         <v>170</v>
@@ -3862,7 +3862,7 @@
         <v>205</v>
       </c>
       <c r="C38">
-        <v>1.581407E-2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>170</v>
@@ -3874,7 +3874,7 @@
         <v>205</v>
       </c>
       <c r="I38">
-        <v>6.29E-4</v>
+        <v>6.9056945229947437E-6</v>
       </c>
       <c r="J38" t="s">
         <v>170</v>
@@ -3888,7 +3888,7 @@
         <v>206</v>
       </c>
       <c r="C39">
-        <v>2.2627089999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>170</v>
@@ -3900,7 +3900,7 @@
         <v>206</v>
       </c>
       <c r="I39">
-        <v>3.0110000000000002E-3</v>
+        <v>8.4058079399748749E-6</v>
       </c>
       <c r="J39" t="s">
         <v>170</v>
@@ -3914,7 +3914,7 @@
         <v>207</v>
       </c>
       <c r="C40">
-        <v>0.15013515999999999</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>170</v>
@@ -3926,7 +3926,7 @@
         <v>207</v>
       </c>
       <c r="I40">
-        <v>0.134217</v>
+        <v>1.077883218149086E-5</v>
       </c>
       <c r="J40" t="s">
         <v>170</v>
@@ -3940,7 +3940,7 @@
         <v>208</v>
       </c>
       <c r="C41">
-        <v>3.0391970000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>170</v>
@@ -3952,7 +3952,7 @@
         <v>208</v>
       </c>
       <c r="I41">
-        <v>5.2393999999999996E-2</v>
+        <v>1.3054866331391749E-5</v>
       </c>
       <c r="J41" t="s">
         <v>170</v>
@@ -3966,7 +3966,7 @@
         <v>209</v>
       </c>
       <c r="C42">
-        <v>3.0635329999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>170</v>
@@ -3978,7 +3978,7 @@
         <v>209</v>
       </c>
       <c r="I42">
-        <v>4.3761000000000001E-2</v>
+        <v>1.885487380997441E-5</v>
       </c>
       <c r="J42" t="s">
         <v>170</v>
@@ -3992,7 +3992,7 @@
         <v>210</v>
       </c>
       <c r="C43">
-        <v>6.9565290000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>170</v>
@@ -4004,7 +4004,7 @@
         <v>210</v>
       </c>
       <c r="I43">
-        <v>6.5379999999999994E-2</v>
+        <v>2.284439957840864E-5</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -4018,7 +4018,7 @@
         <v>211</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>6.0590000000000001E-5</v>
       </c>
       <c r="D44" t="s">
         <v>170</v>
@@ -4030,7 +4030,7 @@
         <v>211</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3.9862927653803917E-5</v>
       </c>
       <c r="J44" t="s">
         <v>170</v>
@@ -4044,7 +4044,7 @@
         <v>212</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1.9662999999999999E-4</v>
       </c>
       <c r="D45" t="s">
         <v>170</v>
@@ -4056,7 +4056,7 @@
         <v>212</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>5.1902631026291013E-5</v>
       </c>
       <c r="J45" t="s">
         <v>170</v>
@@ -4070,7 +4070,7 @@
         <v>213</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2.5647000000000002E-4</v>
       </c>
       <c r="D46" t="s">
         <v>170</v>
@@ -4082,7 +4082,7 @@
         <v>213</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3.95331613423126E-5</v>
       </c>
       <c r="J46" t="s">
         <v>170</v>
@@ -4096,7 +4096,7 @@
         <v>214</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1.3488000000000001E-4</v>
       </c>
       <c r="D47" t="s">
         <v>170</v>
@@ -4108,7 +4108,7 @@
         <v>214</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3.1069159347368671E-5</v>
       </c>
       <c r="J47" t="s">
         <v>170</v>
@@ -4122,7 +4122,7 @@
         <v>215</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1.6834E-4</v>
       </c>
       <c r="D48" t="s">
         <v>170</v>
@@ -4134,7 +4134,7 @@
         <v>215</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>4.5177984674311121E-5</v>
       </c>
       <c r="J48" t="s">
         <v>170</v>
@@ -4148,7 +4148,7 @@
         <v>216</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1.8316E-4</v>
       </c>
       <c r="D49" t="s">
         <v>170</v>
@@ -4160,7 +4160,7 @@
         <v>216</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>7.9758185338146215E-5</v>
       </c>
       <c r="J49" t="s">
         <v>170</v>
@@ -4174,7 +4174,7 @@
         <v>217</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2.1599E-4</v>
       </c>
       <c r="D50" t="s">
         <v>170</v>
@@ -4186,7 +4186,7 @@
         <v>217</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1.3052279928939999E-4</v>
       </c>
       <c r="J50" t="s">
         <v>170</v>
@@ -4200,7 +4200,7 @@
         <v>218</v>
       </c>
       <c r="C51">
-        <v>1.4061999999999999E-4</v>
+        <v>3.703E-4</v>
       </c>
       <c r="D51" t="s">
         <v>170</v>
@@ -4212,7 +4212,7 @@
         <v>218</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1.7608874433020001E-4</v>
       </c>
       <c r="J51" t="s">
         <v>170</v>
@@ -4226,7 +4226,7 @@
         <v>219</v>
       </c>
       <c r="C52">
-        <v>4.1575E-4</v>
+        <v>2.9959000000000002E-4</v>
       </c>
       <c r="D52" t="s">
         <v>170</v>
@@ -4238,7 +4238,7 @@
         <v>219</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1.6483142769669999E-4</v>
       </c>
       <c r="J52" t="s">
         <v>170</v>
@@ -4252,7 +4252,7 @@
         <v>220</v>
       </c>
       <c r="C53">
-        <v>4.8599E-4</v>
+        <v>7.7100000000000004E-5</v>
       </c>
       <c r="D53" t="s">
         <v>170</v>
@@ -4264,7 +4264,7 @@
         <v>220</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>9.0323639318083874E-5</v>
       </c>
       <c r="J53" t="s">
         <v>170</v>
@@ -4278,7 +4278,7 @@
         <v>221</v>
       </c>
       <c r="C54">
-        <v>5.2088000000000004E-4</v>
+        <v>4.7889999999999997E-5</v>
       </c>
       <c r="D54" t="s">
         <v>170</v>
@@ -4290,7 +4290,7 @@
         <v>221</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>8.6786733977186746E-5</v>
       </c>
       <c r="J54" t="s">
         <v>170</v>
@@ -4304,7 +4304,7 @@
         <v>222</v>
       </c>
       <c r="C55">
-        <v>5.3258999999999999E-4</v>
+        <v>1.535E-5</v>
       </c>
       <c r="D55" t="s">
         <v>170</v>
@@ -4316,7 +4316,7 @@
         <v>222</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>7.5438893258220665E-5</v>
       </c>
       <c r="J55" t="s">
         <v>170</v>
@@ -4330,7 +4330,7 @@
         <v>223</v>
       </c>
       <c r="C56">
-        <v>5.2415999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="D56" t="s">
         <v>170</v>
@@ -4342,7 +4342,7 @@
         <v>223</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>5.1301292458277433E-5</v>
       </c>
       <c r="J56" t="s">
         <v>170</v>
@@ -4356,7 +4356,7 @@
         <v>224</v>
       </c>
       <c r="C57">
-        <v>5.4708999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="D57" t="s">
         <v>170</v>
@@ -4368,7 +4368,7 @@
         <v>224</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>3.1010965292399618E-5</v>
       </c>
       <c r="J57" t="s">
         <v>170</v>
@@ -4382,7 +4382,7 @@
         <v>225</v>
       </c>
       <c r="C58">
-        <v>5.6134999999999996E-4</v>
+        <v>0</v>
       </c>
       <c r="D58" t="s">
         <v>170</v>
@@ -4394,7 +4394,7 @@
         <v>225</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3.0797587090846407E-5</v>
       </c>
       <c r="J58" t="s">
         <v>170</v>
@@ -4408,7 +4408,7 @@
         <v>226</v>
       </c>
       <c r="C59">
-        <v>5.5814000000000005E-4</v>
+        <v>0</v>
       </c>
       <c r="D59" t="s">
         <v>170</v>
@@ -4420,7 +4420,7 @@
         <v>226</v>
       </c>
       <c r="I59">
-        <v>3.0000000000000001E-6</v>
+        <v>2.8159456598915828E-5</v>
       </c>
       <c r="J59" t="s">
         <v>170</v>
@@ -4434,7 +4434,7 @@
         <v>227</v>
       </c>
       <c r="C60">
-        <v>5.3949E-4</v>
+        <v>0</v>
       </c>
       <c r="D60" t="s">
         <v>170</v>
@@ -4446,7 +4446,7 @@
         <v>227</v>
       </c>
       <c r="I60">
-        <v>3.0000000000000001E-6</v>
+        <v>4.2181139561538683E-2</v>
       </c>
       <c r="J60" t="s">
         <v>170</v>
@@ -4460,7 +4460,7 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>4.2931000000000002E-4</v>
+        <v>1.9163240000000002E-2</v>
       </c>
       <c r="D61" t="s">
         <v>170</v>
@@ -4472,7 +4472,7 @@
         <v>228</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1.7712828413216645E-2</v>
       </c>
       <c r="J61" t="s">
         <v>170</v>
@@ -4486,7 +4486,7 @@
         <v>229</v>
       </c>
       <c r="C62">
-        <v>2.9504999999999999E-4</v>
+        <v>1.530045E-2</v>
       </c>
       <c r="D62" t="s">
         <v>170</v>
@@ -4498,7 +4498,7 @@
         <v>229</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>8.9209223165414801E-3</v>
       </c>
       <c r="J62" t="s">
         <v>170</v>
@@ -4512,7 +4512,7 @@
         <v>230</v>
       </c>
       <c r="C63">
-        <v>7.8079999999999998E-5</v>
+        <v>1.557302E-2</v>
       </c>
       <c r="D63" t="s">
         <v>170</v>
@@ -4524,7 +4524,7 @@
         <v>230</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>6.9605521188110687E-3</v>
       </c>
       <c r="J63" t="s">
         <v>170</v>
@@ -4538,7 +4538,7 @@
         <v>231</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1.1152860000000001E-2</v>
       </c>
       <c r="D64" t="s">
         <v>170</v>
@@ -4550,7 +4550,7 @@
         <v>231</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>6.3610822265630518E-3</v>
       </c>
       <c r="J64" t="s">
         <v>170</v>
@@ -4564,7 +4564,7 @@
         <v>232</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1.7439700000000001E-3</v>
       </c>
       <c r="D65" t="s">
         <v>170</v>
@@ -4576,7 +4576,7 @@
         <v>232</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>3.8908480492242359E-3</v>
       </c>
       <c r="J65" t="s">
         <v>170</v>
@@ -4602,7 +4602,7 @@
         <v>233</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>4.4625981732891061E-3</v>
       </c>
       <c r="J66" t="s">
         <v>170</v>
@@ -4628,7 +4628,7 @@
         <v>234</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2.1508943006956931E-2</v>
       </c>
       <c r="J67" t="s">
         <v>170</v>
@@ -4654,7 +4654,7 @@
         <v>235</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1.8880737834405099E-6</v>
       </c>
       <c r="J68" t="s">
         <v>170</v>
@@ -4680,7 +4680,7 @@
         <v>236</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2.6122664674998841E-6</v>
       </c>
       <c r="J69" t="s">
         <v>170</v>
@@ -4706,7 +4706,7 @@
         <v>237</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3.750283542450329E-6</v>
       </c>
       <c r="J70" t="s">
         <v>170</v>
@@ -4732,7 +4732,7 @@
         <v>238</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3.3299931454515849E-6</v>
       </c>
       <c r="J71" t="s">
         <v>170</v>
@@ -4758,7 +4758,7 @@
         <v>239</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2.5799364369615189E-6</v>
       </c>
       <c r="J72" t="s">
         <v>170</v>
@@ -4784,7 +4784,7 @@
         <v>240</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1.8622097590098185E-6</v>
       </c>
       <c r="J73" t="s">
         <v>170</v>
@@ -4810,7 +4810,7 @@
         <v>241</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1.2285411604578662E-6</v>
       </c>
       <c r="J74" t="s">
         <v>170</v>
@@ -4824,7 +4824,7 @@
         <v>242</v>
       </c>
       <c r="C75">
-        <v>7.7960000000000006E-5</v>
+        <v>0</v>
       </c>
       <c r="D75" t="s">
         <v>170</v>
@@ -4836,7 +4836,7 @@
         <v>242</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>7.5005670849006574E-7</v>
       </c>
       <c r="J75" t="s">
         <v>170</v>
@@ -4850,7 +4850,7 @@
         <v>243</v>
       </c>
       <c r="C76">
-        <v>3.2549999999999998E-5</v>
+        <v>3.7289999999999997E-5</v>
       </c>
       <c r="D76" t="s">
         <v>170</v>
@@ -4862,7 +4862,7 @@
         <v>243</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>5.1081448250616546E-7</v>
       </c>
       <c r="J76" t="s">
         <v>170</v>
@@ -4876,7 +4876,7 @@
         <v>244</v>
       </c>
       <c r="C77">
-        <v>1.0730000000000001E-5</v>
+        <v>5.6339999999999999E-5</v>
       </c>
       <c r="D77" t="s">
         <v>170</v>
@@ -4888,7 +4888,7 @@
         <v>244</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4.2029039699874372E-7</v>
       </c>
       <c r="J77" t="s">
         <v>170</v>
@@ -4902,7 +4902,7 @@
         <v>245</v>
       </c>
       <c r="C78">
-        <v>3.3170000000000003E-5</v>
+        <v>6.6039999999999998E-5</v>
       </c>
       <c r="D78" t="s">
         <v>170</v>
@@ -4914,7 +4914,7 @@
         <v>245</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2.3924222598390028E-7</v>
       </c>
       <c r="J78" t="s">
         <v>170</v>
@@ -4928,7 +4928,7 @@
         <v>246</v>
       </c>
       <c r="C79">
-        <v>6.8670000000000005E-5</v>
+        <v>5.9379999999999997E-5</v>
       </c>
       <c r="D79" t="s">
         <v>170</v>
@@ -4940,7 +4940,7 @@
         <v>246</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>9.0524085507421732E-8</v>
       </c>
       <c r="J79" t="s">
         <v>170</v>
@@ -4954,7 +4954,7 @@
         <v>247</v>
       </c>
       <c r="C80">
-        <v>5.4700000000000001E-5</v>
+        <v>4.7800000000000003E-5</v>
       </c>
       <c r="D80" t="s">
         <v>170</v>
@@ -4966,7 +4966,7 @@
         <v>247</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2.3924222598390028E-7</v>
       </c>
       <c r="J80" t="s">
         <v>170</v>
@@ -4980,7 +4980,7 @@
         <v>248</v>
       </c>
       <c r="C81">
-        <v>7.3930000000000005E-5</v>
+        <v>3.7110000000000002E-5</v>
       </c>
       <c r="D81" t="s">
         <v>170</v>
@@ -4992,7 +4992,7 @@
         <v>248</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>8.4058079399748743E-7</v>
       </c>
       <c r="J81" t="s">
         <v>170</v>
@@ -5006,7 +5006,7 @@
         <v>249</v>
       </c>
       <c r="C82">
-        <v>7.7169999999999995E-5</v>
+        <v>2.9539999999999998E-5</v>
       </c>
       <c r="D82" t="s">
         <v>170</v>
@@ -5018,7 +5018,7 @@
         <v>249</v>
       </c>
       <c r="I82">
-        <v>3.0000000000000001E-6</v>
+        <v>6.8410344619180141E-6</v>
       </c>
       <c r="J82" t="s">
         <v>170</v>
@@ -5032,7 +5032,7 @@
         <v>250</v>
       </c>
       <c r="C83">
-        <v>6.2539999999999994E-5</v>
+        <v>2.6120000000000001E-5</v>
       </c>
       <c r="D83" t="s">
         <v>170</v>
@@ -5044,7 +5044,7 @@
         <v>250</v>
       </c>
       <c r="I83">
-        <v>3.0000000000000001E-6</v>
+        <v>1.3985971210896655E-5</v>
       </c>
       <c r="J83" t="s">
         <v>170</v>
@@ -5058,7 +5058,7 @@
         <v>251</v>
       </c>
       <c r="C84">
-        <v>4.4889999999999999E-5</v>
+        <v>2.0149999999999999E-5</v>
       </c>
       <c r="D84" t="s">
         <v>170</v>
@@ -5070,7 +5070,7 @@
         <v>251</v>
       </c>
       <c r="I84">
-        <v>3.0000000000000001E-6</v>
+        <v>2.3471602170852921E-5</v>
       </c>
       <c r="J84" t="s">
         <v>170</v>
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="C85">
-        <v>2.052E-5</v>
+        <v>3.1489999999999998E-5</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -5096,7 +5096,7 @@
         <v>252</v>
       </c>
       <c r="I85">
-        <v>3.0000000000000001E-6</v>
+        <v>6.2138318694737354E-6</v>
       </c>
       <c r="J85" t="s">
         <v>170</v>
@@ -5110,7 +5110,7 @@
         <v>253</v>
       </c>
       <c r="C86">
-        <v>7.6799999999999993E-6</v>
+        <v>3.2709999999999997E-5</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -5122,7 +5122,7 @@
         <v>253</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2.5799364369615189E-6</v>
       </c>
       <c r="J86" t="s">
         <v>170</v>
@@ -5136,7 +5136,7 @@
         <v>254</v>
       </c>
       <c r="C87">
-        <v>2.88E-6</v>
+        <v>0</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -5148,7 +5148,7 @@
         <v>254</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1.7134916185333401E-6</v>
       </c>
       <c r="J87" t="s">
         <v>170</v>
@@ -5174,7 +5174,7 @@
         <v>255</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1.4095893314727098E-6</v>
       </c>
       <c r="J88" t="s">
         <v>170</v>
@@ -5200,7 +5200,7 @@
         <v>256</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1.5324434475184965E-6</v>
       </c>
       <c r="J89" t="s">
         <v>170</v>
@@ -5226,7 +5226,7 @@
         <v>257</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1.3513952765036529E-6</v>
       </c>
       <c r="J90" t="s">
         <v>170</v>
@@ -5252,7 +5252,7 @@
         <v>258</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1.5583074719491882E-6</v>
       </c>
       <c r="J91" t="s">
         <v>170</v>
@@ -5266,7 +5266,7 @@
         <v>259</v>
       </c>
       <c r="C92">
-        <v>2.9733E-4</v>
+        <v>0</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -5278,7 +5278,7 @@
         <v>259</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>9.2640900722914588E-2</v>
       </c>
       <c r="J92" t="s">
         <v>170</v>
@@ -5292,7 +5292,7 @@
         <v>260</v>
       </c>
       <c r="C93">
-        <v>9.9096400000000008E-3</v>
+        <v>2.8920600000000001E-2</v>
       </c>
       <c r="D93" t="s">
         <v>170</v>
@@ -5304,7 +5304,7 @@
         <v>260</v>
       </c>
       <c r="I93">
-        <v>2.4699999999999999E-4</v>
+        <v>4.0228916531503914E-2</v>
       </c>
       <c r="J93" t="s">
         <v>170</v>
@@ -5318,7 +5318,7 @@
         <v>261</v>
       </c>
       <c r="C94">
-        <v>1.8679669999999999E-2</v>
+        <v>3.028877E-2</v>
       </c>
       <c r="D94" t="s">
         <v>170</v>
@@ -5330,7 +5330,7 @@
         <v>261</v>
       </c>
       <c r="I94">
-        <v>3.0000000000000001E-6</v>
+        <v>1.9306155774244549E-2</v>
       </c>
       <c r="J94" t="s">
         <v>170</v>
@@ -5344,7 +5344,7 @@
         <v>262</v>
       </c>
       <c r="C95">
-        <v>2.312086E-2</v>
+        <v>3.0445840000000002E-2</v>
       </c>
       <c r="D95" t="s">
         <v>170</v>
@@ -5356,7 +5356,7 @@
         <v>262</v>
       </c>
       <c r="I95">
-        <v>3.0000000000000001E-6</v>
+        <v>1.8773731899326445E-2</v>
       </c>
       <c r="J95" t="s">
         <v>170</v>
@@ -5370,7 +5370,7 @@
         <v>263</v>
       </c>
       <c r="C96">
-        <v>0.12631708</v>
+        <v>2.059892E-2</v>
       </c>
       <c r="D96" t="s">
         <v>170</v>
@@ -5382,7 +5382,7 @@
         <v>263</v>
       </c>
       <c r="I96">
-        <v>1.1649E-2</v>
+        <v>2.0985616802632657E-2</v>
       </c>
       <c r="J96" t="s">
         <v>170</v>
@@ -5396,7 +5396,7 @@
         <v>264</v>
       </c>
       <c r="C97">
-        <v>2.435056E-2</v>
+        <v>0</v>
       </c>
       <c r="D97" t="s">
         <v>170</v>
@@ -5408,7 +5408,7 @@
         <v>264</v>
       </c>
       <c r="I97">
-        <v>8.3150000000000012E-3</v>
+        <v>1.0595307530134598E-2</v>
       </c>
       <c r="J97" t="s">
         <v>170</v>
@@ -5422,7 +5422,7 @@
         <v>265</v>
       </c>
       <c r="C98">
-        <v>2.2171699999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D98" t="s">
         <v>170</v>
@@ -5434,7 +5434,7 @@
         <v>265</v>
       </c>
       <c r="I98">
-        <v>6.5980000000000006E-3</v>
+        <v>1.044055013995383E-2</v>
       </c>
       <c r="J98" t="s">
         <v>170</v>
@@ -5448,7 +5448,7 @@
         <v>266</v>
       </c>
       <c r="C99">
-        <v>6.1423360000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D99" t="s">
         <v>170</v>
@@ -5460,7 +5460,7 @@
         <v>266</v>
       </c>
       <c r="I99">
-        <v>4.7299999999999998E-3</v>
+        <v>4.5629266638576742E-2</v>
       </c>
       <c r="J99" t="s">
         <v>170</v>
@@ -5486,7 +5486,7 @@
         <v>267</v>
       </c>
       <c r="I100">
-        <v>3.5157000000000001E-2</v>
+        <v>6.1427058022889996E-4</v>
       </c>
       <c r="J100" t="s">
         <v>170</v>
@@ -5500,7 +5500,7 @@
         <v>268</v>
       </c>
       <c r="C101">
-        <v>3.7549999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="D101" t="s">
         <v>170</v>
@@ -5512,7 +5512,7 @@
         <v>268</v>
       </c>
       <c r="I101">
-        <v>3.5119999999999999E-3</v>
+        <v>6.1427058022889996E-4</v>
       </c>
       <c r="J101" t="s">
         <v>170</v>
@@ -5526,7 +5526,7 @@
         <v>269</v>
       </c>
       <c r="C102">
-        <v>6.6073800000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="D102" t="s">
         <v>170</v>
@@ -5538,7 +5538,7 @@
         <v>269</v>
       </c>
       <c r="I102">
-        <v>3.2130000000000001E-3</v>
+        <v>6.1427058022889996E-4</v>
       </c>
       <c r="J102" t="s">
         <v>170</v>
@@ -5552,7 +5552,7 @@
         <v>270</v>
       </c>
       <c r="C103">
-        <v>1.1004180000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D103" t="s">
         <v>170</v>
@@ -5564,7 +5564,7 @@
         <v>270</v>
       </c>
       <c r="I103">
-        <v>3.7560000000000002E-3</v>
+        <v>6.1427058022889996E-4</v>
       </c>
       <c r="J103" t="s">
         <v>170</v>
@@ -5578,7 +5578,7 @@
         <v>271</v>
       </c>
       <c r="C104">
-        <v>8.7989999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D104" t="s">
         <v>170</v>
@@ -5590,7 +5590,7 @@
         <v>271</v>
       </c>
       <c r="I104">
-        <v>5.0529000000000004E-2</v>
+        <v>6.1427058022889996E-4</v>
       </c>
       <c r="J104" t="s">
         <v>170</v>
@@ -5604,7 +5604,7 @@
         <v>272</v>
       </c>
       <c r="C105">
-        <v>1.8427929999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D105" t="s">
         <v>170</v>
@@ -5616,7 +5616,7 @@
         <v>272</v>
       </c>
       <c r="I105">
-        <v>1.4756999999999999E-2</v>
+        <v>6.1427058022889996E-4</v>
       </c>
       <c r="J105" t="s">
         <v>170</v>
@@ -5630,7 +5630,7 @@
         <v>273</v>
       </c>
       <c r="C106">
-        <v>1.5206809999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D106" t="s">
         <v>170</v>
@@ -5642,7 +5642,7 @@
         <v>273</v>
       </c>
       <c r="I106">
-        <v>2.0538000000000001E-2</v>
+        <v>6.1427058022889996E-4</v>
       </c>
       <c r="J106" t="s">
         <v>170</v>
@@ -5656,7 +5656,7 @@
         <v>274</v>
       </c>
       <c r="C107">
-        <v>2.1663999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D107" t="s">
         <v>170</v>
@@ -5668,7 +5668,7 @@
         <v>274</v>
       </c>
       <c r="I107">
-        <v>4.2701000000000003E-2</v>
+        <v>5.4889279247420002E-4</v>
       </c>
       <c r="J107" t="s">
         <v>170</v>
@@ -5694,7 +5694,7 @@
         <v>275</v>
       </c>
       <c r="I108">
-        <v>1.6494000000000002E-2</v>
+        <v>5.4723749491060003E-4</v>
       </c>
       <c r="J108" t="s">
         <v>170</v>
@@ -5720,7 +5720,7 @@
         <v>276</v>
       </c>
       <c r="I109">
-        <v>2.153E-3</v>
+        <v>5.4756726122210005E-4</v>
       </c>
       <c r="J109" t="s">
         <v>170</v>
@@ -5734,7 +5734,7 @@
         <v>277</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2.7936999999999998E-4</v>
       </c>
       <c r="D110" t="s">
         <v>170</v>
@@ -5746,7 +5746,7 @@
         <v>277</v>
       </c>
       <c r="I110">
-        <v>1.5739999999999999E-3</v>
+        <v>5.5534586656969995E-4</v>
       </c>
       <c r="J110" t="s">
         <v>170</v>
@@ -5760,7 +5760,7 @@
         <v>278</v>
       </c>
       <c r="C111">
-        <v>3.1323700000000002E-3</v>
+        <v>4.3933999999999998E-4</v>
       </c>
       <c r="D111" t="s">
         <v>170</v>
@@ -5772,7 +5772,7 @@
         <v>278</v>
       </c>
       <c r="I111">
-        <v>3.8019999999999998E-3</v>
+        <v>5.6678423137409997E-4</v>
       </c>
       <c r="J111" t="s">
         <v>170</v>
@@ -5786,7 +5786,7 @@
         <v>279</v>
       </c>
       <c r="C112">
-        <v>3.0553719999999999E-2</v>
+        <v>5.7399000000000003E-4</v>
       </c>
       <c r="D112" t="s">
         <v>170</v>
@@ -5798,7 +5798,7 @@
         <v>279</v>
       </c>
       <c r="I112">
-        <v>0.1447</v>
+        <v>5.6821968473000004E-4</v>
       </c>
       <c r="J112" t="s">
         <v>170</v>
@@ -5812,7 +5812,7 @@
         <v>280</v>
       </c>
       <c r="C113">
-        <v>6.5860399999999996E-3</v>
+        <v>5.8819000000000005E-4</v>
       </c>
       <c r="D113" t="s">
         <v>170</v>
@@ -5824,7 +5824,7 @@
         <v>280</v>
       </c>
       <c r="I113">
-        <v>1.8328999999999998E-2</v>
+        <v>5.4342901731320003E-4</v>
       </c>
       <c r="J113" t="s">
         <v>170</v>
@@ -5838,7 +5838,7 @@
         <v>281</v>
       </c>
       <c r="C114">
-        <v>5.75393E-3</v>
+        <v>5.8001000000000005E-4</v>
       </c>
       <c r="D114" t="s">
         <v>170</v>
@@ -5850,7 +5850,7 @@
         <v>281</v>
       </c>
       <c r="I114">
-        <v>1.4584E-2</v>
+        <v>5.4820092982070003E-4</v>
       </c>
       <c r="J114" t="s">
         <v>170</v>
@@ -5864,7 +5864,7 @@
         <v>282</v>
       </c>
       <c r="C115">
-        <v>4.5280299999999997E-3</v>
+        <v>2.5157000000000001E-4</v>
       </c>
       <c r="D115" t="s">
         <v>170</v>
@@ -5876,7 +5876,7 @@
         <v>282</v>
       </c>
       <c r="I115">
-        <v>2.0687000000000001E-2</v>
+        <v>5.5471219797109997E-4</v>
       </c>
       <c r="J115" t="s">
         <v>170</v>
@@ -5890,7 +5890,7 @@
         <v>283</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>3.0700000000000001E-5</v>
       </c>
       <c r="D116" t="s">
         <v>170</v>
@@ -5902,7 +5902,7 @@
         <v>283</v>
       </c>
       <c r="I116">
-        <v>2.6099999999999999E-3</v>
+        <v>5.6065445758410001E-4</v>
       </c>
       <c r="J116" t="s">
         <v>170</v>
@@ -5916,7 +5916,7 @@
         <v>284</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1.3799999999999999E-6</v>
       </c>
       <c r="D117" t="s">
         <v>170</v>
@@ -5928,7 +5928,7 @@
         <v>284</v>
       </c>
       <c r="I117">
-        <v>1.85E-4</v>
+        <v>5.6065445758410001E-4</v>
       </c>
       <c r="J117" t="s">
         <v>170</v>
@@ -5954,7 +5954,7 @@
         <v>285</v>
       </c>
       <c r="I118">
-        <v>1.44E-4</v>
+        <v>5.5828789934869998E-4</v>
       </c>
       <c r="J118" t="s">
         <v>170</v>
@@ -5980,7 +5980,7 @@
         <v>286</v>
       </c>
       <c r="I119">
-        <v>2.8E-5</v>
+        <v>5.5411085940310003E-4</v>
       </c>
       <c r="J119" t="s">
         <v>170</v>
@@ -5994,7 +5994,7 @@
         <v>287</v>
       </c>
       <c r="C120">
-        <v>4.3091249999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D120" t="s">
         <v>170</v>
@@ -6006,7 +6006,7 @@
         <v>287</v>
       </c>
       <c r="I120">
-        <v>7.2900000000000005E-4</v>
+        <v>6.1033924851539999E-4</v>
       </c>
       <c r="J120" t="s">
         <v>170</v>
@@ -6020,7 +6020,7 @@
         <v>288</v>
       </c>
       <c r="C121">
-        <v>9.0042999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="D121" t="s">
         <v>170</v>
@@ -6032,7 +6032,7 @@
         <v>288</v>
       </c>
       <c r="I121">
-        <v>1.0860000000000002E-3</v>
+        <v>6.1877092047979995E-4</v>
       </c>
       <c r="J121" t="s">
         <v>170</v>
@@ -6046,7 +6046,7 @@
         <v>289</v>
       </c>
       <c r="C122">
-        <v>8.2031199999999995E-3</v>
+        <v>0</v>
       </c>
       <c r="D122" t="s">
         <v>170</v>
@@ -6058,7 +6058,7 @@
         <v>289</v>
       </c>
       <c r="I122">
-        <v>4.2699999999999997E-4</v>
+        <v>6.2804963924429995E-4</v>
       </c>
       <c r="J122" t="s">
         <v>170</v>
@@ -6072,7 +6072,7 @@
         <v>290</v>
       </c>
       <c r="C123">
-        <v>2.1459199999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="D123" t="s">
         <v>170</v>
@@ -6084,7 +6084,7 @@
         <v>290</v>
       </c>
       <c r="I123">
-        <v>9.6000000000000002E-4</v>
+        <v>6.3026747933930002E-4</v>
       </c>
       <c r="J123" t="s">
         <v>170</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6201E7-284A-4990-87FE-4C336EFB907C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3008A02C-A6D2-4C30-A160-D49E6CA384C6}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4">
-        <v>4.6347031963470321E-2</v>
+        <v>5.3881278538812784E-2</v>
       </c>
       <c r="C4">
-        <v>1.830329247776977E-2</v>
+        <v>2.9864505382492607E-2</v>
       </c>
       <c r="D4" t="s">
         <v>169</v>
@@ -6169,7 +6169,7 @@
         <v>169</v>
       </c>
       <c r="J4">
-        <v>4.9343723778870419E-2</v>
+        <v>5.8930625207687361E-2</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -6178,15 +6178,15 @@
         <v>169</v>
       </c>
       <c r="O4">
-        <v>0.20682612854280791</v>
+        <v>0.21542971678086897</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>6.6210045662100456E-3</v>
+        <v>2.6940639269406392E-2</v>
       </c>
       <c r="C5">
-        <v>1.1055034847392457E-2</v>
+        <v>3.3736916689456289E-2</v>
       </c>
       <c r="D5" t="s">
         <v>172</v>
@@ -6201,7 +6201,7 @@
         <v>172</v>
       </c>
       <c r="J5">
-        <v>8.6119203852525628E-3</v>
+        <v>3.5316921131651371E-2</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -6210,15 +6210,15 @@
         <v>172</v>
       </c>
       <c r="O5">
-        <v>6.9944585837800721E-2</v>
+        <v>6.5430567781107785E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>6.6210045662100456E-3</v>
+        <v>1.3470319634703196E-2</v>
       </c>
       <c r="C6">
-        <v>8.4595049267003151E-3</v>
+        <v>1.7191159286975122E-2</v>
       </c>
       <c r="D6" t="s">
         <v>173</v>
@@ -6233,7 +6233,7 @@
         <v>173</v>
       </c>
       <c r="J6">
-        <v>8.6987397788361679E-3</v>
+        <v>1.7519107275910367E-2</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -6242,15 +6242,15 @@
         <v>173</v>
       </c>
       <c r="O6">
-        <v>6.3658724030877245E-2</v>
+        <v>5.1702736107623659E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>6.6210045662100456E-3</v>
+        <v>1.3470319634703196E-2</v>
       </c>
       <c r="C7">
-        <v>8.3826003364575845E-3</v>
+        <v>1.9049134409003136E-2</v>
       </c>
       <c r="D7" t="s">
         <v>174</v>
@@ -6265,7 +6265,7 @@
         <v>174</v>
       </c>
       <c r="J7">
-        <v>8.6943998424751697E-3</v>
+        <v>1.7582367014962835E-2</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -6274,15 +6274,15 @@
         <v>174</v>
       </c>
       <c r="O7">
-        <v>4.7116403017198882E-2</v>
+        <v>5.3343951862666827E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>3.3105022831050226E-2</v>
+        <v>1.3470319634703196E-2</v>
       </c>
       <c r="C8">
-        <v>4.1951453977409285E-2</v>
+        <v>2.6207228037026908E-2</v>
       </c>
       <c r="D8" t="s">
         <v>175</v>
@@ -6297,7 +6297,7 @@
         <v>175</v>
       </c>
       <c r="J8">
-        <v>4.3134806823489837E-2</v>
+        <v>1.785076107934519E-2</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -6306,15 +6306,15 @@
         <v>175</v>
       </c>
       <c r="O8">
-        <v>5.2334995019268638E-2</v>
+        <v>4.2821762473022495E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>6.6210045662100456E-3</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C9">
-        <v>9.9975967315549183E-3</v>
+        <v>1.016996908899552E-2</v>
       </c>
       <c r="D9" t="s">
         <v>176</v>
@@ -6329,7 +6329,7 @@
         <v>176</v>
       </c>
       <c r="J9">
-        <v>8.675965446122735E-3</v>
+        <v>8.8830661601528547E-3</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -6338,15 +6338,15 @@
         <v>176</v>
       </c>
       <c r="O9">
-        <v>5.0250489581033397E-2</v>
+        <v>4.1183783555986286E-2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>6.6210045662100456E-3</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C10">
-        <v>1.2881518865657292E-2</v>
+        <v>9.1920874458228732E-3</v>
       </c>
       <c r="D10" t="s">
         <v>177</v>
@@ -6361,7 +6361,7 @@
         <v>177</v>
       </c>
       <c r="J10">
-        <v>8.7620201842522581E-3</v>
+        <v>8.5121669321964275E-3</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -6370,15 +6370,15 @@
         <v>177</v>
       </c>
       <c r="O10">
-        <v>4.3905550418423811E-2</v>
+        <v>4.0297416911280859E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>4.6347031963470321E-2</v>
+        <v>2.6940639269406392E-2</v>
       </c>
       <c r="C11">
-        <v>4.7873107426099501E-2</v>
+        <v>1.623283527666592E-2</v>
       </c>
       <c r="D11" t="s">
         <v>178</v>
@@ -6393,7 +6393,7 @@
         <v>178</v>
       </c>
       <c r="J11">
-        <v>5.4032074364203188E-2</v>
+        <v>2.8661628722059344E-2</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -6402,15 +6402,15 @@
         <v>178</v>
       </c>
       <c r="O11">
-        <v>0.14706201511363171</v>
+        <v>8.8216109860094427E-2</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>1.1415525114155251E-4</v>
+        <v>2.8310502283105023E-2</v>
       </c>
       <c r="C12">
-        <v>2.1546544680075254E-5</v>
+        <v>1.5691519777241876E-2</v>
       </c>
       <c r="D12" t="s">
         <v>179</v>
@@ -6425,7 +6425,7 @@
         <v>179</v>
       </c>
       <c r="J12">
-        <v>1.096588095438796E-4</v>
+        <v>2.7962957522327275E-2</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -6434,15 +6434,15 @@
         <v>179</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.21868669387956619</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13">
-        <v>1.1415525114155251E-4</v>
+        <v>1.4155251141552512E-2</v>
       </c>
       <c r="C13">
-        <v>1.4916838624667481E-5</v>
+        <v>1.7726176565646522E-2</v>
       </c>
       <c r="D13" t="s">
         <v>180</v>
@@ -6457,7 +6457,7 @@
         <v>180</v>
       </c>
       <c r="J13">
-        <v>1.0722017863627062E-4</v>
+        <v>1.7073218425193916E-2</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -6466,15 +6466,15 @@
         <v>180</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>6.6997797315595298E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14">
-        <v>1.1415525114155251E-4</v>
+        <v>7.0776255707762558E-3</v>
       </c>
       <c r="C14">
-        <v>1.6574265138519424E-5</v>
+        <v>9.0326430151903125E-3</v>
       </c>
       <c r="D14" t="s">
         <v>181</v>
@@ -6489,7 +6489,7 @@
         <v>181</v>
       </c>
       <c r="J14">
-        <v>1.0697218227278496E-4</v>
+        <v>8.4101414004010833E-3</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -6498,15 +6498,15 @@
         <v>181</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>7.8431902694187094E-2</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15">
-        <v>1.1415525114155251E-4</v>
+        <v>7.0776255707762558E-3</v>
       </c>
       <c r="C15">
-        <v>1.4585353321897093E-5</v>
+        <v>1.0008867231849112E-2</v>
       </c>
       <c r="D15" t="s">
         <v>182</v>
@@ -6521,7 +6521,7 @@
         <v>182</v>
       </c>
       <c r="J15">
-        <v>1.0726151136351822E-4</v>
+        <v>8.4018955213151867E-3</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -6530,15 +6530,15 @@
         <v>182</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.3122289804252514E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16">
-        <v>1.1415525114155251E-4</v>
+        <v>7.0776255707762558E-3</v>
       </c>
       <c r="C16">
-        <v>2.1215059377304864E-5</v>
+        <v>1.376989947708193E-2</v>
       </c>
       <c r="D16" t="s">
         <v>183</v>
@@ -6553,7 +6553,7 @@
         <v>183</v>
       </c>
       <c r="J16">
-        <v>1.1604471590363533E-4</v>
+        <v>8.5456714130459962E-3</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -6562,15 +6562,15 @@
         <v>183</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>7.146585433200614E-2</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17">
-        <v>1.1415525114155251E-4</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C17">
-        <v>5.7678442682047593E-5</v>
+        <v>5.3435430806586613E-3</v>
       </c>
       <c r="D17" t="s">
         <v>184</v>
@@ -6585,7 +6585,7 @@
         <v>184</v>
       </c>
       <c r="J17">
-        <v>1.3022184134956554E-4</v>
+        <v>4.2884904769680309E-3</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -6594,15 +6594,15 @@
         <v>184</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>6.285399566499672E-2</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18">
-        <v>1.1415525114155251E-4</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C18">
-        <v>1.6905750441289813E-4</v>
+        <v>4.8297408613645603E-3</v>
       </c>
       <c r="D18" t="s">
         <v>185</v>
@@ -6617,7 +6617,7 @@
         <v>185</v>
       </c>
       <c r="J18">
-        <v>1.4464696315898137E-4</v>
+        <v>4.1448592497825868E-3</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -6626,15 +6626,15 @@
         <v>185</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>5.5319148936170182E-2</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19">
-        <v>1.1415525114155251E-4</v>
+        <v>1.4155251141552512E-2</v>
       </c>
       <c r="C19">
-        <v>1.9060404909297337E-4</v>
+        <v>8.5291168402820937E-3</v>
       </c>
       <c r="D19" t="s">
         <v>186</v>
@@ -6649,7 +6649,7 @@
         <v>186</v>
       </c>
       <c r="J19">
-        <v>1.5295484133575094E-4</v>
+        <v>1.3658143169087398E-2</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -6658,15 +6658,15 @@
         <v>186</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.108600042861698</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20">
-        <v>1.1415525114155251E-4</v>
+        <v>0.13972602739726028</v>
       </c>
       <c r="C20">
-        <v>1.4585353321897094E-4</v>
+        <v>7.7445242771548628E-2</v>
       </c>
       <c r="D20" t="s">
         <v>187</v>
@@ -6681,7 +6681,7 @@
         <v>187</v>
       </c>
       <c r="J20">
-        <v>1.5233485042703682E-4</v>
+        <v>0.110475238521043</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -6690,15 +6690,15 @@
         <v>187</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.34940484781399261</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21">
-        <v>1.1415525114155251E-4</v>
+        <v>6.9863013698630141E-2</v>
       </c>
       <c r="C21">
-        <v>1.4452759200788939E-4</v>
+        <v>8.7487258533674783E-2</v>
       </c>
       <c r="D21" t="s">
         <v>188</v>
@@ -6713,7 +6713,7 @@
         <v>188</v>
       </c>
       <c r="J21">
-        <v>1.515081958820846E-4</v>
+        <v>7.1636006801465493E-2</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -6722,15 +6722,15 @@
         <v>188</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.14198389284280299</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4931506849315071E-2</v>
       </c>
       <c r="C22">
-        <v>1.408812536774151E-4</v>
+        <v>4.4580463913681236E-2</v>
       </c>
       <c r="D22" t="s">
         <v>189</v>
@@ -6745,7 +6745,7 @@
         <v>189</v>
       </c>
       <c r="J22">
-        <v>1.5165286042745124E-4</v>
+        <v>3.5693829554899116E-2</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -6754,15 +6754,15 @@
         <v>189</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.1128743804427963</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4931506849315071E-2</v>
       </c>
       <c r="C23">
-        <v>1.4054976837464471E-4</v>
+        <v>4.9398602789448819E-2</v>
       </c>
       <c r="D23" t="s">
         <v>190</v>
@@ -6777,7 +6777,7 @@
         <v>190</v>
       </c>
       <c r="J23">
-        <v>1.5165286042745124E-4</v>
+        <v>3.533099020875597E-2</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -6786,15 +6786,15 @@
         <v>190</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.11985498609861378</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4931506849315071E-2</v>
       </c>
       <c r="C24">
-        <v>1.4253868019126702E-4</v>
+        <v>6.7961116773985045E-2</v>
       </c>
       <c r="D24" t="s">
         <v>191</v>
@@ -6809,7 +6809,7 @@
         <v>191</v>
       </c>
       <c r="J24">
-        <v>1.5136353133671796E-4</v>
+        <v>3.5026202678032095E-2</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -6818,15 +6818,15 @@
         <v>191</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.12236636807914625</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25">
-        <v>1.1415525114155251E-4</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C25">
-        <v>1.4883690094390442E-4</v>
+        <v>2.6372970688412108E-2</v>
       </c>
       <c r="D25" t="s">
         <v>192</v>
@@ -6841,7 +6841,7 @@
         <v>192</v>
       </c>
       <c r="J25">
-        <v>1.5136353133671796E-4</v>
+        <v>1.705121844520582E-2</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -6850,15 +6850,15 @@
         <v>192</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.11288098557058346</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26">
-        <v>1.1415525114155251E-4</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C26">
-        <v>1.5049432745775637E-4</v>
+        <v>2.3837108122218637E-2</v>
       </c>
       <c r="D26" t="s">
         <v>193</v>
@@ -6873,7 +6873,7 @@
         <v>193</v>
       </c>
       <c r="J26">
-        <v>1.5136353133671796E-4</v>
+        <v>1.6671970006345373E-2</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -6882,15 +6882,15 @@
         <v>193</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>9.2128623465670856E-2</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27">
-        <v>1.1415525114155251E-4</v>
+        <v>6.9863013698630141E-2</v>
       </c>
       <c r="C27">
-        <v>1.7237235744060203E-4</v>
+        <v>4.2095318598811632E-2</v>
       </c>
       <c r="D27" t="s">
         <v>194</v>
@@ -6905,7 +6905,7 @@
         <v>194</v>
       </c>
       <c r="J27">
-        <v>1.5324417042648423E-4</v>
+        <v>5.8019911128830731E-2</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
@@ -6914,15 +6914,15 @@
         <v>194</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.1250462086502595</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28">
-        <v>1.1415525114155251E-4</v>
+        <v>2.6484018264840183E-2</v>
       </c>
       <c r="C28">
-        <v>2.2209515285616027E-4</v>
+        <v>1.4679163662581112E-2</v>
       </c>
       <c r="D28" t="s">
         <v>195</v>
@@ -6937,7 +6937,7 @@
         <v>195</v>
       </c>
       <c r="J28">
-        <v>1.5489747951638862E-4</v>
+        <v>2.021456766302519E-2</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
@@ -6946,15 +6946,15 @@
         <v>195</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.27925715421768471</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29">
-        <v>1.1415525114155251E-4</v>
+        <v>1.3242009132420091E-2</v>
       </c>
       <c r="C29">
-        <v>2.2209515285616027E-4</v>
+        <v>1.6582552271088683E-2</v>
       </c>
       <c r="D29" t="s">
         <v>196</v>
@@ -6969,7 +6969,7 @@
         <v>196</v>
       </c>
       <c r="J29">
-        <v>1.5801810042358316E-4</v>
+        <v>1.3317720755016199E-2</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
@@ -6978,15 +6978,15 @@
         <v>196</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>6.6030075887069994E-2</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30">
-        <v>1.1415525114155251E-4</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C30">
-        <v>1.7237235744060203E-4</v>
+        <v>8.4498918529199718E-3</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -7001,7 +7001,7 @@
         <v>197</v>
       </c>
       <c r="J30">
-        <v>1.5673678587890726E-4</v>
+        <v>6.6183439716236293E-3</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
@@ -7010,15 +7010,15 @@
         <v>197</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>6.8301400859495098E-2</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31">
-        <v>1.1415525114155251E-4</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C31">
-        <v>1.5579809230208258E-4</v>
+        <v>9.3631338620523939E-3</v>
       </c>
       <c r="D31" t="s">
         <v>198</v>
@@ -7033,7 +7033,7 @@
         <v>198</v>
       </c>
       <c r="J31">
-        <v>1.4948289224695171E-4</v>
+        <v>6.5482849989389313E-3</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
@@ -7042,15 +7042,15 @@
         <v>198</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>6.8737926945853678E-2</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32">
-        <v>1.1415525114155251E-4</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C32">
-        <v>1.093901499142282E-4</v>
+        <v>1.2881518865657292E-2</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -7065,7 +7065,7 @@
         <v>199</v>
       </c>
       <c r="J32">
-        <v>1.3387978771097899E-4</v>
+        <v>6.4997190444229897E-3</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -7074,15 +7074,15 @@
         <v>199</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>7.0434490053060461E-2</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33">
-        <v>1.1415525114155251E-4</v>
+        <v>3.3105022831050228E-3</v>
       </c>
       <c r="C33">
-        <v>7.9556472664893237E-5</v>
+        <v>4.9987983657774574E-3</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -7097,7 +7097,7 @@
         <v>200</v>
       </c>
       <c r="J33">
-        <v>1.2530324680709993E-4</v>
+        <v>3.1947939963358663E-3</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
@@ -7106,15 +7106,15 @@
         <v>200</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>7.0866912605632937E-2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34">
-        <v>1.1415525114155251E-4</v>
+        <v>3.3105022831050228E-3</v>
       </c>
       <c r="C34">
-        <v>5.6352501470966035E-5</v>
+        <v>4.5181446767603951E-3</v>
       </c>
       <c r="D34" t="s">
         <v>201</v>
@@ -7129,7 +7129,7 @@
         <v>201</v>
       </c>
       <c r="J34">
-        <v>1.1776002408441114E-4</v>
+        <v>3.157243213631413E-3</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
@@ -7138,15 +7138,15 @@
         <v>201</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>5.6307761327949901E-2</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35">
-        <v>1.1415525114155251E-4</v>
+        <v>1.3242009132420091E-2</v>
       </c>
       <c r="C35">
-        <v>2.9833677249334962E-5</v>
+        <v>7.9788512376832502E-3</v>
       </c>
       <c r="D35" t="s">
         <v>202</v>
@@ -7161,7 +7161,7 @@
         <v>202</v>
       </c>
       <c r="J35">
-        <v>1.1745002863005408E-4</v>
+        <v>1.0834615832888786E-2</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
@@ -7170,15 +7170,15 @@
         <v>202</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.10281258736914034</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36">
-        <v>9.5890410958904104E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C36">
-        <v>3.7868880988489187E-2</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D36" t="s">
         <v>203</v>
@@ -7193,7 +7193,7 @@
         <v>203</v>
       </c>
       <c r="J36">
-        <v>7.9653023675411591E-2</v>
+        <v>7.2617378046938195E-5</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
@@ -7202,15 +7202,15 @@
         <v>203</v>
       </c>
       <c r="O36">
-        <v>0.35094419925008835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B37">
-        <v>1.3698630136986301E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C37">
-        <v>2.2872485891156796E-2</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D37" t="s">
         <v>204</v>
@@ -7225,7 +7225,7 @@
         <v>204</v>
       </c>
       <c r="J37">
-        <v>1.4614396415949835E-2</v>
+        <v>6.9972083503091161E-5</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
@@ -7234,15 +7234,15 @@
         <v>204</v>
       </c>
       <c r="O37">
-        <v>0.15155167219041887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B38">
-        <v>1.3698630136986301E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C38">
-        <v>1.7502423986276511E-2</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D38" t="s">
         <v>205</v>
@@ -7257,7 +7257,7 @@
         <v>205</v>
       </c>
       <c r="J38">
-        <v>1.4897546263959586E-2</v>
+        <v>7.0034082593962581E-5</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
@@ -7266,15 +7266,15 @@
         <v>205</v>
       </c>
       <c r="O38">
-        <v>0.14234085363497773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39">
-        <v>1.3698630136986301E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C39">
-        <v>1.7343311040946732E-2</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D39" t="s">
         <v>206</v>
@@ -7289,7 +7289,7 @@
         <v>206</v>
       </c>
       <c r="J39">
-        <v>1.4929145133940384E-2</v>
+        <v>7.0571408048181492E-5</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
@@ -7298,15 +7298,15 @@
         <v>206</v>
       </c>
       <c r="O39">
-        <v>0.14547990464226013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B40">
-        <v>6.8493150684931503E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C40">
-        <v>8.6796111677398521E-2</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D40" t="s">
         <v>207</v>
@@ -7321,7 +7321,7 @@
         <v>207</v>
       </c>
       <c r="J40">
-        <v>7.3595709066703638E-2</v>
+        <v>7.0716072593548149E-5</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
@@ -7330,15 +7330,15 @@
         <v>207</v>
       </c>
       <c r="O40">
-        <v>0.15747059959127419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B41">
-        <v>1.3698630136986301E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C41">
-        <v>2.0684682892872234E-2</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D41" t="s">
         <v>208</v>
@@ -7353,7 +7353,7 @@
         <v>208</v>
       </c>
       <c r="J41">
-        <v>1.4604187232319677E-2</v>
+        <v>7.2162718047214466E-5</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
@@ -7362,15 +7362,15 @@
         <v>208</v>
       </c>
       <c r="O41">
-        <v>0.16779842565257841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B42">
-        <v>1.3698630136986301E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C42">
-        <v>2.6651418342739236E-2</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D42" t="s">
         <v>209</v>
@@ -7385,7 +7385,7 @@
         <v>209</v>
       </c>
       <c r="J42">
-        <v>1.4626692902305999E-2</v>
+        <v>7.7597971680275178E-5</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
@@ -7394,15 +7394,15 @@
         <v>209</v>
       </c>
       <c r="O42">
-        <v>0.16844910393006085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B43">
-        <v>9.5890410958904104E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C43">
-        <v>9.9047808467792042E-2</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D43" t="s">
         <v>210</v>
@@ -7417,7 +7417,7 @@
         <v>210</v>
       </c>
       <c r="J43">
-        <v>9.0878661734044464E-2</v>
+        <v>8.3963211676407111E-5</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
@@ -7426,7 +7426,7 @@
         <v>210</v>
       </c>
       <c r="O43">
-        <v>0.26918727440543067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.45">
@@ -7434,7 +7434,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C44">
-        <v>2.1546544680075254E-5</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D44" t="s">
         <v>211</v>
@@ -7449,7 +7449,7 @@
         <v>211</v>
       </c>
       <c r="J44">
-        <v>8.4253030979492132E-5</v>
+        <v>9.1361769853729249E-5</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
@@ -7466,7 +7466,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C45">
-        <v>1.4916838624667481E-5</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D45" t="s">
         <v>212</v>
@@ -7481,7 +7481,7 @@
         <v>212</v>
       </c>
       <c r="J45">
-        <v>8.3674372798025576E-5</v>
+        <v>9.3035745307257499E-5</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
@@ -7498,7 +7498,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C46">
-        <v>1.6574265138519424E-5</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D46" t="s">
         <v>213</v>
@@ -7513,7 +7513,7 @@
         <v>213</v>
       </c>
       <c r="J46">
-        <v>8.3798370979768402E-5</v>
+        <v>9.3035745307257486E-5</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
@@ -7530,7 +7530,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C47">
-        <v>1.4585353321897093E-5</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D47" t="s">
         <v>214</v>
@@ -7545,7 +7545,7 @@
         <v>214</v>
       </c>
       <c r="J47">
-        <v>8.8592967340491165E-5</v>
+        <v>9.3325074397990744E-5</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
@@ -7562,7 +7562,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C48">
-        <v>2.1215059377304864E-5</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D48" t="s">
         <v>215</v>
@@ -7577,7 +7577,7 @@
         <v>215</v>
       </c>
       <c r="J48">
-        <v>1.0270809369554994E-4</v>
+        <v>9.3697068943219238E-5</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
@@ -7594,7 +7594,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C49">
-        <v>5.7678442682047593E-5</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D49" t="s">
         <v>216</v>
@@ -7609,7 +7609,7 @@
         <v>216</v>
       </c>
       <c r="J49">
-        <v>1.1866252641312736E-4</v>
+        <v>9.3056411670881288E-5</v>
       </c>
       <c r="M49" t="s">
         <v>14</v>
@@ -7626,7 +7626,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C50">
-        <v>1.6905750441289813E-4</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D50" t="s">
         <v>217</v>
@@ -7641,7 +7641,7 @@
         <v>217</v>
       </c>
       <c r="J50">
-        <v>1.2752839640773968E-4</v>
+        <v>9.3035745307257486E-5</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
@@ -7658,7 +7658,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C51">
-        <v>1.9060404909297337E-4</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D51" t="s">
         <v>218</v>
@@ -7673,7 +7673,7 @@
         <v>218</v>
       </c>
       <c r="J51">
-        <v>1.2955370004287254E-4</v>
+        <v>9.3035745307257459E-5</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
@@ -7690,7 +7690,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C52">
-        <v>1.4585353321897094E-4</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D52" t="s">
         <v>219</v>
@@ -7705,7 +7705,7 @@
         <v>219</v>
       </c>
       <c r="J52">
-        <v>1.259577527723305E-4</v>
+        <v>9.1465101671848301E-5</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
@@ -7722,7 +7722,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C53">
-        <v>1.4452759200788939E-4</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D53" t="s">
         <v>220</v>
@@ -7737,7 +7737,7 @@
         <v>220</v>
       </c>
       <c r="J53">
-        <v>1.2525509640912112E-4</v>
+        <v>9.0886443490381758E-5</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
@@ -7754,7 +7754,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C54">
-        <v>1.408812536774151E-4</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D54" t="s">
         <v>221</v>
@@ -7769,7 +7769,7 @@
         <v>221</v>
       </c>
       <c r="J54">
-        <v>1.250690991365069E-4</v>
+        <v>9.123777167198645E-5</v>
       </c>
       <c r="M54" t="s">
         <v>14</v>
@@ -7786,7 +7786,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C55">
-        <v>1.4054976837464471E-4</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -7801,7 +7801,7 @@
         <v>222</v>
       </c>
       <c r="J55">
-        <v>1.2484176913664505E-4</v>
+        <v>9.1175772581115016E-5</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
@@ -7818,7 +7818,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C56">
-        <v>1.4253868019126702E-4</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D56" t="s">
         <v>223</v>
@@ -7833,7 +7833,7 @@
         <v>223</v>
       </c>
       <c r="J56">
-        <v>1.2484176913664505E-4</v>
+        <v>9.0555781672400896E-5</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
@@ -7850,7 +7850,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C57">
-        <v>1.4883690094390442E-4</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D57" t="s">
         <v>224</v>
@@ -7865,7 +7865,7 @@
         <v>224</v>
       </c>
       <c r="J57">
-        <v>1.2418044550068327E-4</v>
+        <v>8.7104498947225466E-5</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
@@ -7882,7 +7882,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C58">
-        <v>1.5049432745775637E-4</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D58" t="s">
         <v>225</v>
@@ -7897,7 +7897,7 @@
         <v>225</v>
       </c>
       <c r="J58">
-        <v>1.2312646095586922E-4</v>
+        <v>9.2064426216938633E-5</v>
       </c>
       <c r="M58" t="s">
         <v>14</v>
@@ -7914,7 +7914,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C59">
-        <v>1.7237235744060203E-4</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D59" t="s">
         <v>226</v>
@@ -7929,7 +7929,7 @@
         <v>226</v>
       </c>
       <c r="J59">
-        <v>1.2271313368339309E-4</v>
+        <v>8.4211208039892765E-5</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B60">
-        <v>1.1415525114155251E-4</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="C60">
-        <v>2.2209515285616027E-4</v>
+        <v>1.5185341719911493E-2</v>
       </c>
       <c r="D60" t="s">
         <v>227</v>
@@ -7961,7 +7961,7 @@
         <v>227</v>
       </c>
       <c r="J60">
-        <v>1.2236180550178843E-4</v>
+        <v>2.1807224293892528E-2</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
@@ -7970,15 +7970,15 @@
         <v>227</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.2774620128580807</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B61">
-        <v>1.1415525114155251E-4</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="C61">
-        <v>2.2209515285616027E-4</v>
+        <v>1.7154364418367603E-2</v>
       </c>
       <c r="D61" t="s">
         <v>228</v>
@@ -7993,7 +7993,7 @@
         <v>228</v>
       </c>
       <c r="J61">
-        <v>1.2134915368422198E-4</v>
+        <v>1.4065906776388212E-2</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
@@ -8002,15 +8002,15 @@
         <v>228</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>7.4494314386786664E-2</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B62">
-        <v>1.1415525114155251E-4</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C62">
-        <v>1.7237235744060203E-4</v>
+        <v>8.741267434055143E-3</v>
       </c>
       <c r="D62" t="s">
         <v>229</v>
@@ -8025,7 +8025,7 @@
         <v>229</v>
       </c>
       <c r="J62">
-        <v>1.189311891402368E-4</v>
+        <v>6.939954751886984E-3</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
@@ -8034,15 +8034,15 @@
         <v>229</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>8.2557887903051297E-2</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B63">
-        <v>1.1415525114155251E-4</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C63">
-        <v>1.5579809230208258E-4</v>
+        <v>9.6860005469507522E-3</v>
       </c>
       <c r="D63" t="s">
         <v>230</v>
@@ -8057,7 +8057,7 @@
         <v>230</v>
       </c>
       <c r="J63">
-        <v>1.1651322459625162E-4</v>
+        <v>6.891471462825538E-3</v>
       </c>
       <c r="M63" t="s">
         <v>14</v>
@@ -8066,15 +8066,15 @@
         <v>230</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>8.786838352452131E-2</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B64">
-        <v>1.1415525114155251E-4</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C64">
-        <v>1.093901499142282E-4</v>
+        <v>1.3325709171369611E-2</v>
       </c>
       <c r="D64" t="s">
         <v>231</v>
@@ -8089,7 +8089,7 @@
         <v>231</v>
       </c>
       <c r="J64">
-        <v>1.1074730914521006E-4</v>
+        <v>6.9176557455368978E-3</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
@@ -8098,15 +8098,15 @@
         <v>231</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>8.3116964369505997E-2</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B65">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C65">
-        <v>7.9556472664893237E-5</v>
+        <v>5.1711707232180593E-3</v>
       </c>
       <c r="D65" t="s">
         <v>232</v>
@@ -8121,7 +8121,7 @@
         <v>232</v>
       </c>
       <c r="J65">
-        <v>1.054773864211398E-4</v>
+        <v>3.4191587877925554E-3</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
@@ -8130,15 +8130,15 @@
         <v>232</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>7.9623096878902455E-2</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B66">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C66">
-        <v>5.6352501470966035E-5</v>
+        <v>4.6739427690624773E-3</v>
       </c>
       <c r="D66" t="s">
         <v>233</v>
@@ -8153,7 +8153,7 @@
         <v>233</v>
       </c>
       <c r="J66">
-        <v>9.4710210973137431E-5</v>
+        <v>3.3562297105580695E-3</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
@@ -8162,15 +8162,15 @@
         <v>233</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>7.1647614017752215E-2</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B67">
-        <v>1.1415525114155251E-4</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="C67">
-        <v>2.9833677249334962E-5</v>
+        <v>8.2539840389826719E-3</v>
       </c>
       <c r="D67" t="s">
         <v>234</v>
@@ -8185,7 +8185,7 @@
         <v>234</v>
       </c>
       <c r="J67">
-        <v>8.9274957340076719E-5</v>
+        <v>1.1597226976070216E-2</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
@@ -8194,7 +8194,7 @@
         <v>234</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.14919937840449315</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
@@ -8217,7 +8217,7 @@
         <v>235</v>
       </c>
       <c r="J68">
-        <v>7.887977643730284E-5</v>
+        <v>8.0517939037657205E-5</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
@@ -8249,7 +8249,7 @@
         <v>236</v>
       </c>
       <c r="J69">
-        <v>7.6234481893455792E-5</v>
+        <v>7.9608619038209786E-5</v>
       </c>
       <c r="M69" t="s">
         <v>14</v>
@@ -8281,7 +8281,7 @@
         <v>237</v>
       </c>
       <c r="J70">
-        <v>7.6234481893455792E-5</v>
+        <v>7.9794616310824033E-5</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
@@ -8313,7 +8313,7 @@
         <v>238</v>
       </c>
       <c r="J71">
-        <v>7.6131150075336781E-5</v>
+        <v>8.3163233581504253E-5</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
@@ -8345,7 +8345,7 @@
         <v>239</v>
       </c>
       <c r="J72">
-        <v>7.7598461892626927E-5</v>
+        <v>9.3971741756754243E-5</v>
       </c>
       <c r="M72" t="s">
         <v>14</v>
@@ -8377,7 +8377,7 @@
         <v>240</v>
       </c>
       <c r="J73">
-        <v>7.7949790074231606E-5</v>
+        <v>1.0506957902273748E-4</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
@@ -8409,7 +8409,7 @@
         <v>241</v>
       </c>
       <c r="J74">
-        <v>8.6484998250863055E-5</v>
+        <v>1.1620874901596834E-4</v>
       </c>
       <c r="M74" t="s">
         <v>14</v>
@@ -8441,7 +8441,7 @@
         <v>242</v>
       </c>
       <c r="J75">
-        <v>9.6942178244508354E-5</v>
+        <v>1.2387596992040001E-4</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
@@ -8473,7 +8473,7 @@
         <v>243</v>
       </c>
       <c r="J76">
-        <v>1.0272876005917376E-4</v>
+        <v>1.2513661810145208E-4</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
@@ -8505,7 +8505,7 @@
         <v>244</v>
       </c>
       <c r="J77">
-        <v>1.0535338823939696E-4</v>
+        <v>1.2528128264681872E-4</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
@@ -8537,7 +8537,7 @@
         <v>245</v>
       </c>
       <c r="J78">
-        <v>1.0535338823939696E-4</v>
+        <v>1.2399996810214282E-4</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
@@ -8569,7 +8569,7 @@
         <v>246</v>
       </c>
       <c r="J79">
-        <v>1.0506405914866368E-4</v>
+        <v>1.2356597446604289E-4</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
@@ -8601,7 +8601,7 @@
         <v>247</v>
       </c>
       <c r="J80">
-        <v>1.0549805278476361E-4</v>
+        <v>1.2354530810241909E-4</v>
       </c>
       <c r="M80" t="s">
         <v>14</v>
@@ -8633,7 +8633,7 @@
         <v>248</v>
       </c>
       <c r="J81">
-        <v>1.0675870096581569E-4</v>
+        <v>1.2271865355746689E-4</v>
       </c>
       <c r="M81" t="s">
         <v>14</v>
@@ -8665,7 +8665,7 @@
         <v>249</v>
       </c>
       <c r="J82">
-        <v>1.1006531914562448E-4</v>
+        <v>1.2220199446687178E-4</v>
       </c>
       <c r="M82" t="s">
         <v>14</v>
@@ -8697,7 +8697,7 @@
         <v>250</v>
       </c>
       <c r="J83">
-        <v>1.1250395005323348E-4</v>
+        <v>1.2193333173976233E-4</v>
       </c>
       <c r="M83" t="s">
         <v>14</v>
@@ -8729,7 +8729,7 @@
         <v>251</v>
       </c>
       <c r="J84">
-        <v>1.1180129369002411E-4</v>
+        <v>1.2170600173990044E-4</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
@@ -8761,7 +8761,7 @@
         <v>252</v>
       </c>
       <c r="J85">
-        <v>1.1252461641685729E-4</v>
+        <v>1.2158200355815765E-4</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
@@ -8793,7 +8793,7 @@
         <v>253</v>
       </c>
       <c r="J86">
-        <v>1.0907333369168185E-4</v>
+        <v>1.1997002719550083E-4</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
@@ -8825,7 +8825,7 @@
         <v>254</v>
       </c>
       <c r="J87">
-        <v>1.0485739551242566E-4</v>
+        <v>1.1746939719702044E-4</v>
       </c>
       <c r="M87" t="s">
         <v>14</v>
@@ -8857,7 +8857,7 @@
         <v>255</v>
       </c>
       <c r="J88">
-        <v>9.9670138242850597E-5</v>
+        <v>1.0837619720254628E-4</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
@@ -8889,7 +8889,7 @@
         <v>256</v>
       </c>
       <c r="J89">
-        <v>9.2540242792637915E-5</v>
+        <v>1.0312694084209983E-4</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
@@ -8921,7 +8921,7 @@
         <v>257</v>
       </c>
       <c r="J90">
-        <v>9.3780224610066196E-5</v>
+        <v>9.3310418120792492E-5</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
@@ -8953,7 +8953,7 @@
         <v>258</v>
       </c>
       <c r="J91">
-        <v>8.937828915819573E-5</v>
+        <v>8.6759180852046298E-5</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
@@ -8967,10 +8967,10 @@
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92">
-        <v>4.954337899543379E-2</v>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="C92">
-        <v>1.956558851071941E-2</v>
+        <v>3.0370683439822986E-2</v>
       </c>
       <c r="D92" t="s">
         <v>259</v>
@@ -8985,7 +8985,7 @@
         <v>259</v>
       </c>
       <c r="J92">
-        <v>3.5962414795892732E-2</v>
+        <v>5.4652354062722903E-2</v>
       </c>
       <c r="M92" t="s">
         <v>14</v>
@@ -8994,15 +8994,15 @@
         <v>259</v>
       </c>
       <c r="O92">
-        <v>0.2280915699982542</v>
+        <v>0.21063614944463138</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93">
-        <v>7.0776255707762558E-3</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="C93">
-        <v>1.1817451043764349E-2</v>
+        <v>3.4308728836735206E-2</v>
       </c>
       <c r="D93" t="s">
         <v>260</v>
@@ -9017,7 +9017,7 @@
         <v>260</v>
       </c>
       <c r="J93">
-        <v>6.7431343786972563E-3</v>
+        <v>3.3233295411862679E-2</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
@@ -9026,15 +9026,15 @@
         <v>260</v>
       </c>
       <c r="O93">
-        <v>7.8768050967932934E-2</v>
+        <v>6.4552754897710507E-2</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94">
-        <v>7.0776255707762558E-3</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="C94">
-        <v>9.0429190595761998E-3</v>
+        <v>1.7482534868110289E-2</v>
       </c>
       <c r="D94" t="s">
         <v>261</v>
@@ -9049,7 +9049,7 @@
         <v>261</v>
       </c>
       <c r="J94">
-        <v>7.015599716713501E-3</v>
+        <v>1.6396147939247152E-2</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
@@ -9058,15 +9058,15 @@
         <v>261</v>
       </c>
       <c r="O94">
-        <v>6.9850124130321545E-2</v>
+        <v>7.3742672014810218E-2</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B95">
-        <v>7.0776255707762558E-3</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="C95">
-        <v>8.9607107044891408E-3</v>
+        <v>1.9372001093901494E-2</v>
       </c>
       <c r="D95" t="s">
         <v>262</v>
@@ -9081,7 +9081,7 @@
         <v>262</v>
       </c>
       <c r="J95">
-        <v>7.0860720166706758E-3</v>
+        <v>1.6502269716455392E-2</v>
       </c>
       <c r="M95" t="s">
         <v>14</v>
@@ -9090,15 +9090,15 @@
         <v>262</v>
       </c>
       <c r="O95">
-        <v>7.6034617452796605E-2</v>
+        <v>7.2309911212591782E-2</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B96">
-        <v>3.5388127853881277E-2</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="C96">
-        <v>4.4844657699989229E-2</v>
+        <v>2.6651418342739236E-2</v>
       </c>
       <c r="D96" t="s">
         <v>263</v>
@@ -9113,7 +9113,7 @@
         <v>263</v>
       </c>
       <c r="J96">
-        <v>3.5555226252368413E-2</v>
+        <v>1.6957487707996939E-2</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
@@ -9122,15 +9122,15 @@
         <v>263</v>
       </c>
       <c r="O96">
-        <v>0.10553062871110952</v>
+        <v>5.4324100812082277E-2</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B97">
-        <v>7.0776255707762558E-3</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C97">
-        <v>1.0687086161317328E-2</v>
+        <v>1.0342341446436122E-2</v>
       </c>
       <c r="D97" t="s">
         <v>264</v>
@@ -9145,7 +9145,7 @@
         <v>264</v>
       </c>
       <c r="J97">
-        <v>7.0132850839876356E-3</v>
+        <v>8.4428153808384851E-3</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
@@ -9154,15 +9154,15 @@
         <v>264</v>
       </c>
       <c r="O97">
-        <v>9.7465118037658449E-2</v>
+        <v>5.1337427851792183E-2</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B98">
-        <v>7.0776255707762558E-3</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C98">
-        <v>1.376989947708193E-2</v>
+        <v>9.347885538124958E-3</v>
       </c>
       <c r="D98" t="s">
         <v>265</v>
@@ -9177,7 +9177,7 @@
         <v>265</v>
       </c>
       <c r="J98">
-        <v>6.9651324567441691E-3</v>
+        <v>8.1063463146793177E-3</v>
       </c>
       <c r="M98" t="s">
         <v>14</v>
@@ -9186,15 +9186,15 @@
         <v>265</v>
       </c>
       <c r="O98">
-        <v>9.8132712341594708E-2</v>
+        <v>4.778134038879811E-2</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B99">
-        <v>4.954337899543379E-2</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="C99">
-        <v>5.1174701041692569E-2</v>
+        <v>1.6507968077965344E-2</v>
       </c>
       <c r="D99" t="s">
         <v>266</v>
@@ -9209,7 +9209,7 @@
         <v>266</v>
       </c>
       <c r="J99">
-        <v>4.3242988703286606E-2</v>
+        <v>2.6887957123900477E-2</v>
       </c>
       <c r="M99" t="s">
         <v>14</v>
@@ -9218,15 +9218,15 @@
         <v>266</v>
       </c>
       <c r="O99">
-        <v>0.17258023756978869</v>
+        <v>0.10298546353924154</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B100">
-        <v>4.8744292237442921E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C100">
-        <v>1.9250014502482003E-2</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D100" t="s">
         <v>267</v>
@@ -9241,7 +9241,7 @@
         <v>267</v>
       </c>
       <c r="J100">
-        <v>3.6492661536919095E-2</v>
+        <v>1.1014112512236043E-4</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
@@ -9250,15 +9250,15 @@
         <v>267</v>
       </c>
       <c r="O100">
-        <v>0.2688375086022754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B101">
-        <v>6.9634703196347035E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C101">
-        <v>1.1626846994671376E-2</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D101" t="s">
         <v>268</v>
@@ -9273,7 +9273,7 @@
         <v>268</v>
       </c>
       <c r="J101">
-        <v>6.8789757938722976E-3</v>
+        <v>1.0877714512318931E-4</v>
       </c>
       <c r="M101" t="s">
         <v>14</v>
@@ -9282,15 +9282,15 @@
         <v>268</v>
       </c>
       <c r="O101">
-        <v>0.10502597848835382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B102">
-        <v>6.9634703196347035E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C102">
-        <v>8.8970655263572278E-3</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D102" t="s">
         <v>269</v>
@@ -9305,7 +9305,7 @@
         <v>269</v>
       </c>
       <c r="J102">
-        <v>7.0835727937479664E-3</v>
+        <v>1.0854981512332744E-4</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
@@ -9314,15 +9314,15 @@
         <v>269</v>
       </c>
       <c r="O102">
-        <v>8.1211169035206643E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B103">
-        <v>6.9634703196347035E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C103">
-        <v>8.8161831124812517E-3</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D103" t="s">
         <v>270</v>
@@ -9337,7 +9337,7 @@
         <v>270</v>
       </c>
       <c r="J103">
-        <v>7.0925006628334503E-3</v>
+        <v>1.0883914421406073E-4</v>
       </c>
       <c r="M103" t="s">
         <v>14</v>
@@ -9346,15 +9346,15 @@
         <v>270</v>
       </c>
       <c r="O103">
-        <v>7.8518032278910521E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B104">
-        <v>3.4817351598173514E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C104">
-        <v>4.4121356769344242E-2</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D104" t="s">
         <v>271</v>
@@ -9369,7 +9369,7 @@
         <v>271</v>
       </c>
       <c r="J104">
-        <v>3.5005487348990429E-2</v>
+        <v>1.1815967420839673E-4</v>
       </c>
       <c r="M104" t="s">
         <v>14</v>
@@ -9378,15 +9378,15 @@
         <v>271</v>
       </c>
       <c r="O104">
-        <v>8.8079714602042003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B105">
-        <v>6.9634703196347035E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C105">
-        <v>1.0514713803876726E-2</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D105" t="s">
         <v>272</v>
@@ -9401,7 +9401,7 @@
         <v>272</v>
       </c>
       <c r="J105">
-        <v>6.932088348385477E-3</v>
+        <v>1.3622207601560226E-4</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
@@ -9410,15 +9410,15 @@
         <v>272</v>
       </c>
       <c r="O105">
-        <v>9.2952203407384415E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B106">
-        <v>6.9634703196347035E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C106">
-        <v>1.354780432422577E-2</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D106" t="s">
         <v>273</v>
@@ -9433,7 +9433,7 @@
         <v>273</v>
       </c>
       <c r="J106">
-        <v>6.9249377865716394E-3</v>
+        <v>1.4502594691934316E-4</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
@@ -9442,15 +9442,15 @@
         <v>273</v>
       </c>
       <c r="O106">
-        <v>9.3736073080183724E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B107">
-        <v>4.8744292237442921E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C107">
-        <v>5.0349302637794295E-2</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D107" t="s">
         <v>274</v>
@@ -9465,7 +9465,7 @@
         <v>274</v>
       </c>
       <c r="J107">
-        <v>4.3642706691665013E-2</v>
+        <v>1.4719591509984269E-4</v>
       </c>
       <c r="M107" t="s">
         <v>14</v>
@@ -9474,15 +9474,15 @@
         <v>274</v>
       </c>
       <c r="O107">
-        <v>0.1759073555612114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B108">
-        <v>2.3972602739726026E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C108">
-        <v>9.4672202471222967E-3</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D108" t="s">
         <v>275</v>
@@ -9497,7 +9497,7 @@
         <v>275</v>
       </c>
       <c r="J108">
-        <v>2.1937073164155937E-2</v>
+        <v>1.4692725237273321E-4</v>
       </c>
       <c r="M108" t="s">
         <v>14</v>
@@ -9506,15 +9506,15 @@
         <v>275</v>
       </c>
       <c r="O108">
-        <v>0.2448529454109869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B109">
-        <v>3.4246575342465752E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C109">
-        <v>5.7181214727892006E-3</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D109" t="s">
         <v>276</v>
@@ -9529,7 +9529,7 @@
         <v>276</v>
       </c>
       <c r="J109">
-        <v>4.0001129878595061E-3</v>
+        <v>1.4521194419195741E-4</v>
       </c>
       <c r="M109" t="s">
         <v>14</v>
@@ -9538,15 +9538,15 @@
         <v>276</v>
       </c>
       <c r="O109">
-        <v>7.6814583796870783E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B110">
-        <v>3.4246575342465752E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C110">
-        <v>4.3756059965691279E-3</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D110" t="s">
         <v>277</v>
@@ -9561,7 +9561,7 @@
         <v>277</v>
       </c>
       <c r="J110">
-        <v>4.0896396750778295E-3</v>
+        <v>1.4359996782930062E-4</v>
       </c>
       <c r="M110" t="s">
         <v>14</v>
@@ -9570,15 +9570,15 @@
         <v>277</v>
       </c>
       <c r="O110">
-        <v>7.2418488847990625E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B111">
-        <v>3.4246575342465752E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C111">
-        <v>4.3358277602366805E-3</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D111" t="s">
         <v>278</v>
@@ -9593,7 +9593,7 @@
         <v>278</v>
       </c>
       <c r="J111">
-        <v>4.1138193205176813E-3</v>
+        <v>1.4078934237646317E-4</v>
       </c>
       <c r="M111" t="s">
         <v>14</v>
@@ -9602,15 +9602,15 @@
         <v>278</v>
       </c>
       <c r="O111">
-        <v>6.988875876057099E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B112">
-        <v>1.7123287671232876E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C112">
-        <v>2.1699027919349627E-2</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D112" t="s">
         <v>279</v>
@@ -9625,7 +9625,7 @@
         <v>279</v>
       </c>
       <c r="J112">
-        <v>2.0343254580907466E-2</v>
+        <v>1.368214005606926E-4</v>
       </c>
       <c r="M112" t="s">
         <v>14</v>
@@ -9634,15 +9634,15 @@
         <v>279</v>
       </c>
       <c r="O112">
-        <v>7.9045050158778496E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B113">
-        <v>3.4246575342465752E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C113">
-        <v>5.1711707232180593E-3</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D113" t="s">
         <v>280</v>
@@ -9657,7 +9657,7 @@
         <v>280</v>
       </c>
       <c r="J113">
-        <v>4.0971622314368945E-3</v>
+        <v>1.3605674510661181E-4</v>
       </c>
       <c r="M113" t="s">
         <v>14</v>
@@ -9666,15 +9666,15 @@
         <v>280</v>
       </c>
       <c r="O113">
-        <v>7.7197286070545657E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B114">
-        <v>3.4246575342465752E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C114">
-        <v>6.662854585684809E-3</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D114" t="s">
         <v>281</v>
@@ -9689,7 +9689,7 @@
         <v>281</v>
       </c>
       <c r="J114">
-        <v>4.1565780268553341E-3</v>
+        <v>1.3611874419748325E-4</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
@@ -9698,15 +9698,15 @@
         <v>281</v>
       </c>
       <c r="O114">
-        <v>6.7382361352487097E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B115">
-        <v>2.3972602739726026E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C115">
-        <v>2.4761952116948018E-2</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D115" t="s">
         <v>282</v>
@@ -9721,7 +9721,7 @@
         <v>282</v>
       </c>
       <c r="J115">
-        <v>2.5423509373855454E-2</v>
+        <v>1.3911536692293495E-4</v>
       </c>
       <c r="M115" t="s">
         <v>14</v>
@@ -9730,15 +9730,15 @@
         <v>282</v>
       </c>
       <c r="O115">
-        <v>0.17692990075588177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B116">
-        <v>2.4771689497716895E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C116">
-        <v>9.7827942553597048E-3</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D116" t="s">
         <v>283</v>
@@ -9753,7 +9753,7 @@
         <v>283</v>
       </c>
       <c r="J116">
-        <v>2.54173699106305E-2</v>
+        <v>1.3979735692252053E-4</v>
       </c>
       <c r="M116" t="s">
         <v>14</v>
@@ -9762,15 +9762,15 @@
         <v>283</v>
       </c>
       <c r="O116">
-        <v>0.17336870944220184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B117">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C117">
-        <v>5.9087255218821738E-3</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D117" t="s">
         <v>284</v>
@@ -9785,7 +9785,7 @@
         <v>284</v>
       </c>
       <c r="J117">
-        <v>4.2807088419030762E-3</v>
+        <v>1.412646687398107E-4</v>
       </c>
       <c r="M117" t="s">
         <v>14</v>
@@ -9794,15 +9794,15 @@
         <v>284</v>
       </c>
       <c r="O117">
-        <v>5.4611749876262827E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B118">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C118">
-        <v>4.521459529788099E-3</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D118" t="s">
         <v>285</v>
@@ -9817,7 +9817,7 @@
         <v>285</v>
       </c>
       <c r="J118">
-        <v>4.3498998273155754E-3</v>
+        <v>1.412853351034345E-4</v>
       </c>
       <c r="M118" t="s">
         <v>14</v>
@@ -9826,15 +9826,15 @@
         <v>285</v>
       </c>
       <c r="O118">
-        <v>4.8623255977620294E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B119">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C119">
-        <v>4.4803553522445696E-3</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D119" t="s">
         <v>286</v>
@@ -9849,7 +9849,7 @@
         <v>286</v>
       </c>
       <c r="J119">
-        <v>4.3829866754772871E-3</v>
+        <v>1.3758605601477339E-4</v>
       </c>
       <c r="M119" t="s">
         <v>14</v>
@@ -9858,15 +9858,15 @@
         <v>286</v>
       </c>
       <c r="O119">
-        <v>4.7630044858740561E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B120">
-        <v>1.7694063926940638E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C120">
-        <v>2.2422328849994618E-2</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D120" t="s">
         <v>287</v>
@@ -9881,7 +9881,7 @@
         <v>287</v>
       </c>
       <c r="J120">
-        <v>2.1528059050348807E-2</v>
+        <v>1.2559956511296654E-4</v>
       </c>
       <c r="M120" t="s">
         <v>14</v>
@@ -9890,15 +9890,15 @@
         <v>287</v>
       </c>
       <c r="O120">
-        <v>6.2745974003871829E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B121">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C121">
-        <v>5.3435430806586613E-3</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D121" t="s">
         <v>288</v>
@@ -9913,7 +9913,7 @@
         <v>288</v>
       </c>
       <c r="J121">
-        <v>4.3515324700418561E-3</v>
+        <v>1.1423306511987378E-4</v>
       </c>
       <c r="M121" t="s">
         <v>14</v>
@@ -9922,15 +9922,15 @@
         <v>288</v>
       </c>
       <c r="O121">
-        <v>5.5420313511383767E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B122">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C122">
-        <v>6.8849497385409693E-3</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D122" t="s">
         <v>289</v>
@@ -9945,7 +9945,7 @@
         <v>289</v>
       </c>
       <c r="J122">
-        <v>4.4473210654381919E-3</v>
+        <v>1.0730983330589915E-4</v>
       </c>
       <c r="M122" t="s">
         <v>14</v>
@@ -9954,15 +9954,15 @@
         <v>289</v>
       </c>
       <c r="O122">
-        <v>4.1813921128145193E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B123">
-        <v>2.4771689497716895E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C123">
-        <v>2.5587350520846285E-2</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D123" t="s">
         <v>290</v>
@@ -9977,7 +9977,7 @@
         <v>290</v>
       </c>
       <c r="J123">
-        <v>2.7380653788528352E-2</v>
+        <v>1.0637984694282791E-4</v>
       </c>
       <c r="M123" t="s">
         <v>14</v>
@@ -9986,7 +9986,7 @@
         <v>290</v>
       </c>
       <c r="O123">
-        <v>0.14593955921577995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.45">
@@ -9997,7 +9997,7 @@
         <v>169</v>
       </c>
       <c r="J124">
-        <v>4.5985758785473244E-2</v>
+        <v>5.3569943690195979E-2</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.45">
@@ -10008,7 +10008,7 @@
         <v>172</v>
       </c>
       <c r="J125">
-        <v>6.678354627568348E-3</v>
+        <v>2.7192949417422615E-2</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.45">
@@ -10019,7 +10019,7 @@
         <v>173</v>
       </c>
       <c r="J126">
-        <v>6.6844077265165447E-3</v>
+        <v>1.3586758915755419E-2</v>
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.45">
@@ -10030,7 +10030,7 @@
         <v>174</v>
       </c>
       <c r="J127">
-        <v>6.6841051436126843E-3</v>
+        <v>1.359116942179694E-2</v>
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.45">
@@ -10041,7 +10041,7 @@
         <v>175</v>
       </c>
       <c r="J128">
-        <v>3.3397016467304363E-2</v>
+        <v>1.3609882013094307E-2</v>
       </c>
     </row>
     <row r="129" spans="8:10" x14ac:dyDescent="0.45">
@@ -10052,7 +10052,7 @@
         <v>176</v>
       </c>
       <c r="J129">
-        <v>6.6828198867067579E-3</v>
+        <v>6.8019908232345057E-3</v>
       </c>
     </row>
     <row r="130" spans="8:10" x14ac:dyDescent="0.45">
@@ -10063,7 +10063,7 @@
         <v>177</v>
       </c>
       <c r="J130">
-        <v>6.6888196734290377E-3</v>
+        <v>6.7761315119221274E-3</v>
       </c>
     </row>
     <row r="131" spans="8:10" x14ac:dyDescent="0.45">
@@ -10074,7 +10074,7 @@
         <v>178</v>
       </c>
       <c r="J131">
-        <v>4.6312633333030755E-2</v>
+        <v>2.6728938534351269E-2</v>
       </c>
     </row>
     <row r="132" spans="8:10" x14ac:dyDescent="0.45">
@@ -10085,7 +10085,7 @@
         <v>179</v>
       </c>
       <c r="J132">
-        <v>1.1237722990057437E-4</v>
+        <v>2.8127757237391207E-2</v>
       </c>
     </row>
     <row r="133" spans="8:10" x14ac:dyDescent="0.45">
@@ -10096,7 +10096,7 @@
         <v>180</v>
       </c>
       <c r="J133">
-        <v>1.1220720712602373E-4</v>
+        <v>1.4279436518099958E-2</v>
       </c>
     </row>
     <row r="134" spans="8:10" x14ac:dyDescent="0.45">
@@ -10107,7 +10107,7 @@
         <v>181</v>
       </c>
       <c r="J134">
-        <v>1.121899166743745E-4</v>
+        <v>7.1309008491443632E-3</v>
       </c>
     </row>
     <row r="135" spans="8:10" x14ac:dyDescent="0.45">
@@ -10118,7 +10118,7 @@
         <v>182</v>
       </c>
       <c r="J135">
-        <v>1.1221008886796527E-4</v>
+        <v>7.1303259416270262E-3</v>
       </c>
     </row>
     <row r="136" spans="8:10" x14ac:dyDescent="0.45">
@@ -10129,7 +10129,7 @@
         <v>183</v>
       </c>
       <c r="J136">
-        <v>1.1282245903054177E-4</v>
+        <v>7.14035008097066E-3</v>
       </c>
     </row>
     <row r="137" spans="8:10" x14ac:dyDescent="0.45">
@@ -10140,7 +10140,7 @@
         <v>184</v>
       </c>
       <c r="J137">
-        <v>1.1381089651648876E-4</v>
+        <v>3.5712665002456873E-3</v>
       </c>
     </row>
     <row r="138" spans="8:10" x14ac:dyDescent="0.45">
@@ -10151,7 +10151,7 @@
         <v>185</v>
       </c>
       <c r="J138">
-        <v>1.1481662445408499E-4</v>
+        <v>3.5612524469988481E-3</v>
       </c>
     </row>
     <row r="139" spans="8:10" x14ac:dyDescent="0.45">
@@ -10162,7 +10162,7 @@
         <v>186</v>
       </c>
       <c r="J139">
-        <v>1.1539585458433382E-4</v>
+        <v>1.4041335471922449E-2</v>
       </c>
     </row>
     <row r="140" spans="8:10" x14ac:dyDescent="0.45">
@@ -10173,7 +10173,7 @@
         <v>187</v>
       </c>
       <c r="J140">
-        <v>1.1535262845521077E-4</v>
+        <v>0.13851076267108281</v>
       </c>
     </row>
     <row r="141" spans="8:10" x14ac:dyDescent="0.45">
@@ -10184,7 +10184,7 @@
         <v>188</v>
       </c>
       <c r="J141">
-        <v>1.1529499361638005E-4</v>
+        <v>7.0398686515168521E-2</v>
       </c>
     </row>
     <row r="142" spans="8:10" x14ac:dyDescent="0.45">
@@ -10195,7 +10195,7 @@
         <v>189</v>
       </c>
       <c r="J142">
-        <v>1.1530507971317543E-4</v>
+        <v>3.5190685784356406E-2</v>
       </c>
     </row>
     <row r="143" spans="8:10" x14ac:dyDescent="0.45">
@@ -10206,7 +10206,7 @@
         <v>190</v>
       </c>
       <c r="J143">
-        <v>1.1530507971317543E-4</v>
+        <v>3.5165388412722626E-2</v>
       </c>
     </row>
     <row r="144" spans="8:10" x14ac:dyDescent="0.45">
@@ -10217,7 +10217,7 @@
         <v>191</v>
       </c>
       <c r="J144">
-        <v>1.1528490751958466E-4</v>
+        <v>3.5144138447645731E-2</v>
       </c>
     </row>
     <row r="145" spans="8:10" x14ac:dyDescent="0.45">
@@ -10228,7 +10228,7 @@
         <v>192</v>
       </c>
       <c r="J145">
-        <v>1.1528490751958466E-4</v>
+        <v>1.7539866478061682E-2</v>
       </c>
     </row>
     <row r="146" spans="8:10" x14ac:dyDescent="0.45">
@@ -10239,7 +10239,7 @@
         <v>193</v>
       </c>
       <c r="J146">
-        <v>1.1528490751958466E-4</v>
+        <v>1.7513425054877116E-2</v>
       </c>
     </row>
     <row r="147" spans="8:10" x14ac:dyDescent="0.45">
@@ -10250,7 +10250,7 @@
         <v>194</v>
       </c>
       <c r="J147">
-        <v>1.1541602677792457E-4</v>
+        <v>6.9449364353464965E-2</v>
       </c>
     </row>
     <row r="148" spans="8:10" x14ac:dyDescent="0.45">
@@ -10261,7 +10261,7 @@
         <v>195</v>
       </c>
       <c r="J148">
-        <v>1.1553129645558605E-4</v>
+        <v>2.6244820513605636E-2</v>
       </c>
     </row>
     <row r="149" spans="8:10" x14ac:dyDescent="0.45">
@@ -10272,7 +10272,7 @@
         <v>196</v>
       </c>
       <c r="J149">
-        <v>1.1574886797217205E-4</v>
+        <v>1.3346243798627779E-2</v>
       </c>
     </row>
     <row r="150" spans="8:10" x14ac:dyDescent="0.45">
@@ -10283,7 +10283,7 @@
         <v>197</v>
       </c>
       <c r="J150">
-        <v>1.156595339719844E-4</v>
+        <v>6.6702970717756986E-3</v>
       </c>
     </row>
     <row r="151" spans="8:10" x14ac:dyDescent="0.45">
@@ -10294,7 +10294,7 @@
         <v>198</v>
       </c>
       <c r="J151">
-        <v>1.1515378826124474E-4</v>
+        <v>6.6654125191847949E-3</v>
       </c>
     </row>
     <row r="152" spans="8:10" x14ac:dyDescent="0.45">
@@ -10305,7 +10305,7 @@
         <v>199</v>
       </c>
       <c r="J152">
-        <v>1.1406593067831474E-4</v>
+        <v>6.6620264724034893E-3</v>
       </c>
     </row>
     <row r="153" spans="8:10" x14ac:dyDescent="0.45">
@@ -10316,7 +10316,7 @@
         <v>200</v>
       </c>
       <c r="J153">
-        <v>1.1346796922544593E-4</v>
+        <v>3.3271740355001324E-3</v>
       </c>
     </row>
     <row r="154" spans="8:10" x14ac:dyDescent="0.45">
@@ -10327,7 +10327,7 @@
         <v>201</v>
       </c>
       <c r="J154">
-        <v>1.1294205132111553E-4</v>
+        <v>3.3245559729462464E-3</v>
       </c>
     </row>
     <row r="155" spans="8:10" x14ac:dyDescent="0.45">
@@ -10338,7 +10338,7 @@
         <v>202</v>
       </c>
       <c r="J155">
-        <v>1.1292043825655401E-4</v>
+        <v>1.3173120269748036E-2</v>
       </c>
     </row>
     <row r="156" spans="8:10" x14ac:dyDescent="0.45">
@@ -10349,7 +10349,7 @@
         <v>203</v>
       </c>
       <c r="J156">
-        <v>9.4965747671042627E-2</v>
+        <v>1.1211227534211467E-4</v>
       </c>
     </row>
     <row r="157" spans="8:10" x14ac:dyDescent="0.45">
@@ -10360,7 +10360,7 @@
         <v>204</v>
       </c>
       <c r="J157">
-        <v>1.3792108878019035E-2</v>
+        <v>1.1192784385785633E-4</v>
       </c>
     </row>
     <row r="158" spans="8:10" x14ac:dyDescent="0.45">
@@ -10371,7 +10371,7 @@
         <v>205</v>
       </c>
       <c r="J158">
-        <v>1.3811850251189531E-2</v>
+        <v>1.1193216647076865E-4</v>
       </c>
     </row>
     <row r="159" spans="8:10" x14ac:dyDescent="0.45">
@@ -10382,7 +10382,7 @@
         <v>206</v>
       </c>
       <c r="J159">
-        <v>1.3814053342903835E-2</v>
+        <v>1.1196962911600862E-4</v>
       </c>
     </row>
     <row r="160" spans="8:10" x14ac:dyDescent="0.45">
@@ -10393,7 +10393,7 @@
         <v>207</v>
       </c>
       <c r="J160">
-        <v>6.89970589422364E-2</v>
+        <v>1.1197971521280399E-4</v>
       </c>
     </row>
     <row r="161" spans="8:10" x14ac:dyDescent="0.45">
@@ -10404,7 +10404,7 @@
         <v>208</v>
       </c>
       <c r="J161">
-        <v>1.3791397087759477E-2</v>
+        <v>1.1208057618075778E-4</v>
       </c>
     </row>
     <row r="162" spans="8:10" x14ac:dyDescent="0.45">
@@ -10415,7 +10415,7 @@
         <v>209</v>
       </c>
       <c r="J162">
-        <v>1.3792966196246642E-2</v>
+        <v>1.1245952524606981E-4</v>
       </c>
     </row>
     <row r="163" spans="8:10" x14ac:dyDescent="0.45">
@@ -10426,7 +10426,7 @@
         <v>210</v>
       </c>
       <c r="J163">
-        <v>9.5748405728428396E-2</v>
+        <v>1.1290331350506643E-4</v>
       </c>
     </row>
     <row r="164" spans="8:10" x14ac:dyDescent="0.45">
@@ -10437,7 +10437,7 @@
         <v>211</v>
       </c>
       <c r="J164">
-        <v>1.1225844809992168E-4</v>
+        <v>1.1341914531260146E-4</v>
       </c>
     </row>
     <row r="165" spans="8:10" x14ac:dyDescent="0.45">
@@ -10448,7 +10448,7 @@
         <v>212</v>
       </c>
       <c r="J165">
-        <v>1.1221810371274017E-4</v>
+        <v>1.1353585586123368E-4</v>
       </c>
     </row>
     <row r="166" spans="8:10" x14ac:dyDescent="0.45">
@@ -10459,7 +10459,7 @@
         <v>213</v>
       </c>
       <c r="J166">
-        <v>1.1222674893856478E-4</v>
+        <v>1.1353585586123368E-4</v>
       </c>
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.45">
@@ -10470,7 +10470,7 @@
         <v>214</v>
       </c>
       <c r="J167">
-        <v>1.1256103100378302E-4</v>
+        <v>1.1355602805482444E-4</v>
       </c>
     </row>
     <row r="168" spans="8:10" x14ac:dyDescent="0.45">
@@ -10481,7 +10481,7 @@
         <v>215</v>
       </c>
       <c r="J168">
-        <v>1.135451458768177E-4</v>
+        <v>1.1358196373229827E-4</v>
       </c>
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.45">
@@ -10492,7 +10492,7 @@
         <v>216</v>
       </c>
       <c r="J169">
-        <v>1.1465749826625078E-4</v>
+        <v>1.1353729673220445E-4</v>
       </c>
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.45">
@@ -10503,7 +10503,7 @@
         <v>217</v>
       </c>
       <c r="J170">
-        <v>1.1527563191271035E-4</v>
+        <v>1.1353585586123368E-4</v>
       </c>
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.45">
@@ -10514,7 +10514,7 @@
         <v>218</v>
       </c>
       <c r="J171">
-        <v>1.1541683726784565E-4</v>
+        <v>1.1353585586123368E-4</v>
       </c>
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.45">
@@ -10525,7 +10525,7 @@
         <v>219</v>
       </c>
       <c r="J172">
-        <v>1.1516612571893197E-4</v>
+        <v>1.1342634966745529E-4</v>
       </c>
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.45">
@@ -10536,7 +10536,7 @@
         <v>220</v>
       </c>
       <c r="J173">
-        <v>1.1511713610592584E-4</v>
+        <v>1.1338600528027378E-4</v>
       </c>
     </row>
     <row r="174" spans="8:10" x14ac:dyDescent="0.45">
@@ -10547,7 +10547,7 @@
         <v>221</v>
       </c>
       <c r="J174">
-        <v>1.1510416826718892E-4</v>
+        <v>1.1341050008677685E-4</v>
       </c>
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.45">
@@ -10558,7 +10558,7 @@
         <v>222</v>
       </c>
       <c r="J175">
-        <v>1.1508831868651048E-4</v>
+        <v>1.1340617747386455E-4</v>
       </c>
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.45">
@@ -10569,7 +10569,7 @@
         <v>223</v>
       </c>
       <c r="J176">
-        <v>1.1508831868651048E-4</v>
+        <v>1.1336295134474149E-4</v>
       </c>
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.45">
@@ -10580,7 +10580,7 @@
         <v>224</v>
       </c>
       <c r="J177">
-        <v>1.1504221081544591E-4</v>
+        <v>1.131223258926232E-4</v>
       </c>
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.45">
@@ -10591,7 +10591,7 @@
         <v>225</v>
       </c>
       <c r="J178">
-        <v>1.1496872639593672E-4</v>
+        <v>1.1346813492560757E-4</v>
       </c>
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.45">
@@ -10602,7 +10602,7 @@
         <v>226</v>
       </c>
       <c r="J179">
-        <v>1.1493990897652135E-4</v>
+        <v>1.1292060395671564E-4</v>
       </c>
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.45">
@@ -10613,7 +10613,7 @@
         <v>227</v>
       </c>
       <c r="J180">
-        <v>1.1491541417001829E-4</v>
+        <v>2.7156044803719987E-2</v>
       </c>
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.45">
@@ -10624,7 +10624,7 @@
         <v>228</v>
       </c>
       <c r="J181">
-        <v>1.1484481149245066E-4</v>
+        <v>1.3798499434758551E-2</v>
       </c>
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.45">
@@ -10635,7 +10635,7 @@
         <v>229</v>
       </c>
       <c r="J182">
-        <v>1.1467622958887078E-4</v>
+        <v>6.8927657980108184E-3</v>
       </c>
     </row>
     <row r="183" spans="8:10" x14ac:dyDescent="0.45">
@@ -10646,7 +10646,7 @@
         <v>230</v>
       </c>
       <c r="J183">
-        <v>1.1450764768529089E-4</v>
+        <v>6.8893855147133965E-3</v>
       </c>
     </row>
     <row r="184" spans="8:10" x14ac:dyDescent="0.45">
@@ -10657,7 +10657,7 @@
         <v>231</v>
       </c>
       <c r="J184">
-        <v>1.1410564468444655E-4</v>
+        <v>6.8912110982333602E-3</v>
       </c>
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.45">
@@ -10668,7 +10668,7 @@
         <v>232</v>
       </c>
       <c r="J185">
-        <v>1.1373822258690067E-4</v>
+        <v>3.4428397972882906E-3</v>
       </c>
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.45">
@@ -10679,7 +10679,7 @@
         <v>233</v>
       </c>
       <c r="J186">
-        <v>1.1298752881113042E-4</v>
+        <v>3.4384523451823014E-3</v>
       </c>
     </row>
     <row r="187" spans="8:10" x14ac:dyDescent="0.45">
@@ -10690,7 +10690,7 @@
         <v>234</v>
       </c>
       <c r="J187">
-        <v>1.1260857974581836E-4</v>
+        <v>1.3626381633816406E-2</v>
       </c>
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.45">
@@ -10701,7 +10701,7 @@
         <v>235</v>
       </c>
       <c r="J188">
-        <v>1.1188382164752194E-4</v>
+        <v>1.1242889267782909E-4</v>
       </c>
     </row>
     <row r="189" spans="8:10" x14ac:dyDescent="0.45">
@@ -10712,7 +10712,7 @@
         <v>236</v>
       </c>
       <c r="J189">
-        <v>1.1169939016326361E-4</v>
+        <v>1.1236549435511527E-4</v>
       </c>
     </row>
     <row r="190" spans="8:10" x14ac:dyDescent="0.45">
@@ -10723,7 +10723,7 @@
         <v>237</v>
       </c>
       <c r="J190">
-        <v>1.1169939016326361E-4</v>
+        <v>1.1237846219385219E-4</v>
       </c>
     </row>
     <row r="191" spans="8:10" x14ac:dyDescent="0.45">
@@ -10734,7 +10734,7 @@
         <v>238</v>
       </c>
       <c r="J191">
-        <v>1.1169218580840977E-4</v>
+        <v>1.1261332416208743E-4</v>
       </c>
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.45">
@@ -10745,7 +10745,7 @@
         <v>239</v>
       </c>
       <c r="J192">
-        <v>1.1179448764733432E-4</v>
+        <v>1.1336689967979921E-4</v>
       </c>
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.45">
@@ -10756,7 +10756,7 @@
         <v>240</v>
       </c>
       <c r="J193">
-        <v>1.1181898245383738E-4</v>
+        <v>1.1414064739110173E-4</v>
       </c>
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.45">
@@ -10767,7 +10767,7 @@
         <v>241</v>
       </c>
       <c r="J194">
-        <v>1.1241406216476465E-4</v>
+        <v>1.1491727684434581E-4</v>
       </c>
     </row>
     <row r="195" spans="8:10" x14ac:dyDescent="0.45">
@@ -10778,7 +10778,7 @@
         <v>242</v>
       </c>
       <c r="J195">
-        <v>1.1314314287597337E-4</v>
+        <v>1.1545183997450083E-4</v>
       </c>
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.45">
@@ -10789,7 +10789,7 @@
         <v>243</v>
       </c>
       <c r="J196">
-        <v>1.1354658674778847E-4</v>
+        <v>1.155397331037177E-4</v>
       </c>
     </row>
     <row r="197" spans="8:10" x14ac:dyDescent="0.45">
@@ -10800,7 +10800,7 @@
         <v>244</v>
       </c>
       <c r="J197">
-        <v>1.1372957736107604E-4</v>
+        <v>1.1554981920051306E-4</v>
       </c>
     </row>
     <row r="198" spans="8:10" x14ac:dyDescent="0.45">
@@ -10811,7 +10811,7 @@
         <v>245</v>
       </c>
       <c r="J198">
-        <v>1.1372957736107604E-4</v>
+        <v>1.1546048520032544E-4</v>
       </c>
     </row>
     <row r="199" spans="8:10" x14ac:dyDescent="0.45">
@@ -10822,7 +10822,7 @@
         <v>246</v>
       </c>
       <c r="J199">
-        <v>1.137094051674853E-4</v>
+        <v>1.1543022690993932E-4</v>
       </c>
     </row>
     <row r="200" spans="8:10" x14ac:dyDescent="0.45">
@@ -10833,7 +10833,7 @@
         <v>247</v>
       </c>
       <c r="J200">
-        <v>1.1373966345787142E-4</v>
+        <v>1.1542878603896853E-4</v>
       </c>
     </row>
     <row r="201" spans="8:10" x14ac:dyDescent="0.45">
@@ -10844,7 +10844,7 @@
         <v>248</v>
       </c>
       <c r="J201">
-        <v>1.1382755658708827E-4</v>
+        <v>1.1537115120013781E-4</v>
       </c>
     </row>
     <row r="202" spans="8:10" x14ac:dyDescent="0.45">
@@ -10855,7 +10855,7 @@
         <v>249</v>
       </c>
       <c r="J202">
-        <v>1.1405809594241121E-4</v>
+        <v>1.1533512942586859E-4</v>
       </c>
     </row>
     <row r="203" spans="8:10" x14ac:dyDescent="0.45">
@@ -10866,7 +10866,7 @@
         <v>250</v>
       </c>
       <c r="J203">
-        <v>1.1422811871696184E-4</v>
+        <v>1.1531639810324861E-4</v>
       </c>
     </row>
     <row r="204" spans="8:10" x14ac:dyDescent="0.45">
@@ -10877,7 +10877,7 @@
         <v>251</v>
       </c>
       <c r="J204">
-        <v>1.1417912910395575E-4</v>
+        <v>1.1530054852257016E-4</v>
       </c>
     </row>
     <row r="205" spans="8:10" x14ac:dyDescent="0.45">
@@ -10888,7 +10888,7 @@
         <v>252</v>
       </c>
       <c r="J205">
-        <v>1.1422955958793261E-4</v>
+        <v>1.1529190329674555E-4</v>
       </c>
     </row>
     <row r="206" spans="8:10" x14ac:dyDescent="0.45">
@@ -10899,7 +10899,7 @@
         <v>253</v>
       </c>
       <c r="J206">
-        <v>1.1398893413581432E-4</v>
+        <v>1.1517951536102564E-4</v>
       </c>
     </row>
     <row r="207" spans="8:10" x14ac:dyDescent="0.45">
@@ -10910,7 +10910,7 @@
         <v>254</v>
       </c>
       <c r="J207">
-        <v>1.1369499645777761E-4</v>
+        <v>1.1500516997356268E-4</v>
       </c>
     </row>
     <row r="208" spans="8:10" x14ac:dyDescent="0.45">
@@ -10921,7 +10921,7 @@
         <v>255</v>
       </c>
       <c r="J208">
-        <v>1.1333333784411479E-4</v>
+        <v>1.1437118674642466E-4</v>
       </c>
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.45">
@@ -10932,7 +10932,7 @@
         <v>256</v>
       </c>
       <c r="J209">
-        <v>1.1283623735919973E-4</v>
+        <v>1.1400520551984951E-4</v>
       </c>
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.45">
@@ -10943,7 +10943,7 @@
         <v>257</v>
       </c>
       <c r="J210">
-        <v>1.1292268961744584E-4</v>
+        <v>1.1332079180873461E-4</v>
       </c>
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.45">
@@ -10954,7 +10954,7 @@
         <v>258</v>
       </c>
       <c r="J211">
-        <v>1.126157841006722E-4</v>
+        <v>1.1286403571100109E-4</v>
       </c>
     </row>
     <row r="212" spans="8:10" x14ac:dyDescent="0.45">
@@ -10965,7 +10965,7 @@
         <v>259</v>
       </c>
       <c r="J212">
-        <v>4.8968860354648432E-2</v>
+        <v>5.4431757223029717E-2</v>
       </c>
     </row>
     <row r="213" spans="8:10" x14ac:dyDescent="0.45">
@@ -10976,7 +10976,7 @@
         <v>260</v>
       </c>
       <c r="J213">
-        <v>7.1074980967609364E-3</v>
+        <v>2.762772636326697E-2</v>
       </c>
     </row>
     <row r="214" spans="8:10" x14ac:dyDescent="0.45">
@@ -10987,7 +10987,7 @@
         <v>261</v>
       </c>
       <c r="J214">
-        <v>7.1264945396395446E-3</v>
+        <v>1.3798489808810873E-2</v>
       </c>
     </row>
     <row r="215" spans="8:10" x14ac:dyDescent="0.45">
@@ -10998,7 +10998,7 @@
         <v>262</v>
       </c>
       <c r="J215">
-        <v>7.1314079096498643E-3</v>
+        <v>1.3805888681245769E-2</v>
       </c>
     </row>
     <row r="216" spans="8:10" x14ac:dyDescent="0.45">
@@ -11009,7 +11009,7 @@
         <v>263</v>
       </c>
       <c r="J216">
-        <v>3.56657452906547E-2</v>
+        <v>1.3837626746118881E-2</v>
       </c>
     </row>
     <row r="217" spans="8:10" x14ac:dyDescent="0.45">
@@ -11020,7 +11020,7 @@
         <v>264</v>
       </c>
       <c r="J217">
-        <v>7.1263331620908194E-3</v>
+        <v>6.9163084188767592E-3</v>
       </c>
     </row>
     <row r="218" spans="8:10" x14ac:dyDescent="0.45">
@@ -11031,7 +11031,7 @@
         <v>265</v>
       </c>
       <c r="J218">
-        <v>7.1229759327289281E-3</v>
+        <v>6.8928495986016825E-3</v>
       </c>
     </row>
     <row r="219" spans="8:10" x14ac:dyDescent="0.45">
@@ -11042,7 +11042,7 @@
         <v>266</v>
       </c>
       <c r="J219">
-        <v>4.9476466229811333E-2</v>
+        <v>2.7185325663015205E-2</v>
       </c>
     </row>
     <row r="220" spans="8:10" x14ac:dyDescent="0.45">
@@ -11053,7 +11053,7 @@
         <v>267</v>
       </c>
       <c r="J220">
-        <v>4.82035373232916E-2</v>
+        <v>1.1292710344678652E-4</v>
       </c>
     </row>
     <row r="221" spans="8:10" x14ac:dyDescent="0.45">
@@ -11064,7 +11064,7 @@
         <v>268</v>
       </c>
       <c r="J221">
-        <v>7.002355876244106E-3</v>
+        <v>1.1283200596271581E-4</v>
       </c>
     </row>
     <row r="222" spans="8:10" x14ac:dyDescent="0.45">
@@ -11075,7 +11075,7 @@
         <v>269</v>
       </c>
       <c r="J222">
-        <v>7.0166204988547105E-3</v>
+        <v>1.1281615638203738E-4</v>
       </c>
     </row>
     <row r="223" spans="8:10" x14ac:dyDescent="0.45">
@@ -11086,7 +11086,7 @@
         <v>270</v>
       </c>
       <c r="J223">
-        <v>7.0172429551140832E-3</v>
+        <v>1.1283632857562813E-4</v>
       </c>
     </row>
     <row r="224" spans="8:10" x14ac:dyDescent="0.45">
@@ -11097,7 +11097,7 @@
         <v>271</v>
       </c>
       <c r="J224">
-        <v>3.5054351354922852E-2</v>
+        <v>1.134861613834446E-4</v>
       </c>
     </row>
     <row r="225" spans="8:10" x14ac:dyDescent="0.45">
@@ -11108,7 +11108,7 @@
         <v>272</v>
       </c>
       <c r="J225">
-        <v>7.0060589146389799E-3</v>
+        <v>1.1474548261189603E-4</v>
       </c>
     </row>
     <row r="226" spans="8:10" x14ac:dyDescent="0.45">
@@ -11119,7 +11119,7 @@
         <v>273</v>
       </c>
       <c r="J226">
-        <v>7.0055603732830946E-3</v>
+        <v>1.1535929364544331E-4</v>
       </c>
     </row>
     <row r="227" spans="8:10" x14ac:dyDescent="0.45">
@@ -11130,7 +11130,7 @@
         <v>274</v>
       </c>
       <c r="J227">
-        <v>4.8702042657403133E-2</v>
+        <v>1.1551058509737396E-4</v>
       </c>
     </row>
     <row r="228" spans="8:10" x14ac:dyDescent="0.45">
@@ -11141,7 +11141,7 @@
         <v>275</v>
       </c>
       <c r="J228">
-        <v>2.3721078356515275E-2</v>
+        <v>1.1549185377475399E-4</v>
       </c>
     </row>
     <row r="229" spans="8:10" x14ac:dyDescent="0.45">
@@ -11152,7 +11152,7 @@
         <v>276</v>
       </c>
       <c r="J229">
-        <v>3.4491206154354829E-3</v>
+        <v>1.1537226148418022E-4</v>
       </c>
     </row>
     <row r="230" spans="8:10" x14ac:dyDescent="0.45">
@@ -11163,7 +11163,7 @@
         <v>277</v>
       </c>
       <c r="J230">
-        <v>3.4553624684808514E-3</v>
+        <v>1.1525987354846028E-4</v>
       </c>
     </row>
     <row r="231" spans="8:10" x14ac:dyDescent="0.45">
@@ -11174,7 +11174,7 @@
         <v>278</v>
       </c>
       <c r="J231">
-        <v>3.4570482875166501E-3</v>
+        <v>1.1506391509643582E-4</v>
       </c>
     </row>
     <row r="232" spans="8:10" x14ac:dyDescent="0.45">
@@ -11185,7 +11185,7 @@
         <v>279</v>
       </c>
       <c r="J232">
-        <v>1.7269495599614694E-2</v>
+        <v>1.1478726787004831E-4</v>
       </c>
     </row>
     <row r="233" spans="8:10" x14ac:dyDescent="0.45">
@@ -11196,7 +11196,7 @@
         <v>280</v>
       </c>
       <c r="J233">
-        <v>3.4558869455142108E-3</v>
+        <v>1.1473395564412988E-4</v>
       </c>
     </row>
     <row r="234" spans="8:10" x14ac:dyDescent="0.45">
@@ -11207,7 +11207,7 @@
         <v>281</v>
       </c>
       <c r="J234">
-        <v>3.4600294495551694E-3</v>
+        <v>1.1473827825704219E-4</v>
       </c>
     </row>
     <row r="235" spans="8:10" x14ac:dyDescent="0.45">
@@ -11218,7 +11218,7 @@
         <v>282</v>
       </c>
       <c r="J235">
-        <v>2.3964154730154848E-2</v>
+        <v>1.1494720454780359E-4</v>
       </c>
     </row>
     <row r="236" spans="8:10" x14ac:dyDescent="0.45">
@@ -11229,7 +11229,7 @@
         <v>283</v>
       </c>
       <c r="J236">
-        <v>2.4610929850239299E-2</v>
+        <v>1.1499475328983893E-4</v>
       </c>
     </row>
     <row r="237" spans="8:10" x14ac:dyDescent="0.45">
@@ -11240,7 +11240,7 @@
         <v>284</v>
       </c>
       <c r="J237">
-        <v>3.5611415179449867E-3</v>
+        <v>1.1509705512876348E-4</v>
       </c>
     </row>
     <row r="238" spans="8:10" x14ac:dyDescent="0.45">
@@ -11251,7 +11251,7 @@
         <v>285</v>
       </c>
       <c r="J238">
-        <v>3.5659655539551187E-3</v>
+        <v>1.1509849599973425E-4</v>
       </c>
     </row>
     <row r="239" spans="8:10" x14ac:dyDescent="0.45">
@@ -11262,7 +11262,7 @@
         <v>286</v>
       </c>
       <c r="J239">
-        <v>3.5682723883793182E-3</v>
+        <v>1.1484058009596674E-4</v>
       </c>
     </row>
     <row r="240" spans="8:10" x14ac:dyDescent="0.45">
@@ -11273,7 +11273,7 @@
         <v>287</v>
       </c>
       <c r="J240">
-        <v>1.7814388837323811E-2</v>
+        <v>1.1400487493292117E-4</v>
       </c>
     </row>
     <row r="241" spans="8:10" x14ac:dyDescent="0.45">
@@ -11284,7 +11284,7 @@
         <v>288</v>
       </c>
       <c r="J241">
-        <v>3.5660793827618094E-3</v>
+        <v>1.1321239589899864E-4</v>
       </c>
     </row>
     <row r="242" spans="8:10" x14ac:dyDescent="0.45">
@@ -11295,7 +11295,7 @@
         <v>289</v>
       </c>
       <c r="J242">
-        <v>3.5727578197113203E-3</v>
+        <v>1.1272970412379128E-4</v>
       </c>
     </row>
     <row r="243" spans="8:10" x14ac:dyDescent="0.45">
@@ -11306,7 +11306,7 @@
         <v>290</v>
       </c>
       <c r="J243">
-        <v>2.4747811151591314E-2</v>
+        <v>1.1266486493010671E-4</v>
       </c>
     </row>
   </sheetData>
